--- a/单木生长虚拟数据.xlsx
+++ b/单木生长虚拟数据.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snow\Desktop\线性混合效应模型的代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17F10EC3-9B51-418B-A0FB-F1FDA12AD23C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8E5EE4-6470-4E06-AD27-0C11470100C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="单木生长虚拟数据" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="31">
-  <si>
-    <t>Stand</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
   <si>
     <t>TreeID</t>
   </si>
@@ -114,11 +108,19 @@
   <si>
     <t>S4_P5</t>
   </si>
+  <si>
+    <t>stand</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1063,44 +1065,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G688"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1120,10 +1122,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1143,10 +1145,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1166,10 +1168,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1189,10 +1191,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1212,10 +1214,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1235,10 +1237,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1258,10 +1260,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1281,10 +1283,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -1304,10 +1306,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1327,10 +1329,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -1350,10 +1352,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -1373,10 +1375,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -1396,10 +1398,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -1419,10 +1421,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -1442,10 +1444,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -1465,10 +1467,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -1488,10 +1490,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -1511,10 +1513,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1534,10 +1536,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -1557,10 +1559,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -1580,10 +1582,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -1603,10 +1605,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -1626,10 +1628,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -1649,10 +1651,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1672,10 +1674,10 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1695,10 +1697,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1718,10 +1720,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1741,10 +1743,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1764,10 +1766,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1787,10 +1789,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1810,10 +1812,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1833,10 +1835,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1856,10 +1858,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
         <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>9</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1879,10 +1881,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
         <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>9</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -1902,10 +1904,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1925,10 +1927,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
         <v>7</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1948,10 +1950,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
         <v>7</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1971,10 +1973,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
         <v>7</v>
-      </c>
-      <c r="B40" t="s">
-        <v>9</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1994,10 +1996,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
         <v>7</v>
-      </c>
-      <c r="B41" t="s">
-        <v>9</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -2017,10 +2019,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
         <v>7</v>
-      </c>
-      <c r="B42" t="s">
-        <v>9</v>
       </c>
       <c r="C42">
         <v>8</v>
@@ -2040,10 +2042,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
         <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>9</v>
       </c>
       <c r="C43">
         <v>9</v>
@@ -2063,10 +2065,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
         <v>7</v>
-      </c>
-      <c r="B44" t="s">
-        <v>9</v>
       </c>
       <c r="C44">
         <v>10</v>
@@ -2086,10 +2088,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>7</v>
-      </c>
-      <c r="B45" t="s">
-        <v>9</v>
       </c>
       <c r="C45">
         <v>11</v>
@@ -2109,10 +2111,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
         <v>7</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
       </c>
       <c r="C46">
         <v>12</v>
@@ -2132,10 +2134,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
         <v>7</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
       </c>
       <c r="C47">
         <v>13</v>
@@ -2155,10 +2157,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
         <v>7</v>
-      </c>
-      <c r="B48" t="s">
-        <v>9</v>
       </c>
       <c r="C48">
         <v>14</v>
@@ -2178,10 +2180,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
         <v>7</v>
-      </c>
-      <c r="B49" t="s">
-        <v>9</v>
       </c>
       <c r="C49">
         <v>15</v>
@@ -2201,10 +2203,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
         <v>7</v>
-      </c>
-      <c r="B50" t="s">
-        <v>9</v>
       </c>
       <c r="C50">
         <v>16</v>
@@ -2224,10 +2226,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
         <v>7</v>
-      </c>
-      <c r="B51" t="s">
-        <v>9</v>
       </c>
       <c r="C51">
         <v>17</v>
@@ -2247,10 +2249,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
         <v>7</v>
-      </c>
-      <c r="B52" t="s">
-        <v>9</v>
       </c>
       <c r="C52">
         <v>18</v>
@@ -2270,10 +2272,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
         <v>7</v>
-      </c>
-      <c r="B53" t="s">
-        <v>9</v>
       </c>
       <c r="C53">
         <v>19</v>
@@ -2293,10 +2295,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
         <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>9</v>
       </c>
       <c r="C54">
         <v>20</v>
@@ -2316,10 +2318,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
         <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
       </c>
       <c r="C55">
         <v>21</v>
@@ -2339,10 +2341,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
         <v>7</v>
-      </c>
-      <c r="B56" t="s">
-        <v>9</v>
       </c>
       <c r="C56">
         <v>22</v>
@@ -2362,10 +2364,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
         <v>7</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
       </c>
       <c r="C57">
         <v>23</v>
@@ -2385,10 +2387,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
         <v>7</v>
-      </c>
-      <c r="B58" t="s">
-        <v>9</v>
       </c>
       <c r="C58">
         <v>24</v>
@@ -2408,10 +2410,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
         <v>7</v>
-      </c>
-      <c r="B59" t="s">
-        <v>9</v>
       </c>
       <c r="C59">
         <v>25</v>
@@ -2431,10 +2433,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
         <v>7</v>
-      </c>
-      <c r="B60" t="s">
-        <v>9</v>
       </c>
       <c r="C60">
         <v>26</v>
@@ -2454,10 +2456,10 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
         <v>7</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
       </c>
       <c r="C61">
         <v>27</v>
@@ -2477,10 +2479,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
         <v>7</v>
-      </c>
-      <c r="B62" t="s">
-        <v>9</v>
       </c>
       <c r="C62">
         <v>28</v>
@@ -2500,10 +2502,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
         <v>7</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
       </c>
       <c r="C63">
         <v>29</v>
@@ -2523,10 +2525,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
         <v>7</v>
-      </c>
-      <c r="B64" t="s">
-        <v>9</v>
       </c>
       <c r="C64">
         <v>30</v>
@@ -2546,10 +2548,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
         <v>7</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
       </c>
       <c r="C65">
         <v>31</v>
@@ -2569,10 +2571,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
         <v>7</v>
-      </c>
-      <c r="B66" t="s">
-        <v>9</v>
       </c>
       <c r="C66">
         <v>32</v>
@@ -2592,10 +2594,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
         <v>7</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
       </c>
       <c r="C67">
         <v>33</v>
@@ -2615,10 +2617,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
         <v>7</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
       </c>
       <c r="C68">
         <v>34</v>
@@ -2638,10 +2640,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
         <v>7</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
       </c>
       <c r="C69">
         <v>35</v>
@@ -2661,10 +2663,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
         <v>7</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
       </c>
       <c r="C70">
         <v>36</v>
@@ -2684,10 +2686,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>7</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
       </c>
       <c r="C71">
         <v>37</v>
@@ -2707,10 +2709,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -2730,10 +2732,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -2753,10 +2755,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2776,10 +2778,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -2799,10 +2801,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2822,10 +2824,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -2845,10 +2847,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C78">
         <v>7</v>
@@ -2868,10 +2870,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -2891,10 +2893,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -2914,10 +2916,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>10</v>
@@ -2937,10 +2939,10 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>11</v>
@@ -2960,10 +2962,10 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -2983,10 +2985,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C84">
         <v>13</v>
@@ -3006,10 +3008,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C85">
         <v>14</v>
@@ -3029,10 +3031,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C86">
         <v>15</v>
@@ -3052,10 +3054,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C87">
         <v>16</v>
@@ -3075,10 +3077,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>17</v>
@@ -3098,10 +3100,10 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89">
         <v>18</v>
@@ -3121,10 +3123,10 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C90">
         <v>19</v>
@@ -3144,10 +3146,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C91">
         <v>20</v>
@@ -3167,10 +3169,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>21</v>
@@ -3190,10 +3192,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C93">
         <v>22</v>
@@ -3213,10 +3215,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>23</v>
@@ -3236,10 +3238,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C95">
         <v>24</v>
@@ -3259,10 +3261,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C96">
         <v>25</v>
@@ -3282,10 +3284,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C97">
         <v>26</v>
@@ -3305,10 +3307,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C98">
         <v>27</v>
@@ -3328,10 +3330,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C99">
         <v>28</v>
@@ -3351,10 +3353,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C100">
         <v>29</v>
@@ -3374,10 +3376,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C101">
         <v>30</v>
@@ -3397,10 +3399,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C102">
         <v>31</v>
@@ -3420,10 +3422,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -3443,10 +3445,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C104">
         <v>2</v>
@@ -3466,10 +3468,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -3489,10 +3491,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -3512,10 +3514,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C107">
         <v>5</v>
@@ -3535,10 +3537,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C108">
         <v>6</v>
@@ -3558,10 +3560,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C109">
         <v>7</v>
@@ -3581,10 +3583,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C110">
         <v>8</v>
@@ -3604,10 +3606,10 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C111">
         <v>9</v>
@@ -3627,10 +3629,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C112">
         <v>10</v>
@@ -3650,10 +3652,10 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C113">
         <v>11</v>
@@ -3673,10 +3675,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C114">
         <v>12</v>
@@ -3696,10 +3698,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C115">
         <v>13</v>
@@ -3719,10 +3721,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C116">
         <v>14</v>
@@ -3742,10 +3744,10 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C117">
         <v>15</v>
@@ -3765,10 +3767,10 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C118">
         <v>16</v>
@@ -3788,10 +3790,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C119">
         <v>17</v>
@@ -3811,10 +3813,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C120">
         <v>18</v>
@@ -3834,10 +3836,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C121">
         <v>19</v>
@@ -3857,10 +3859,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122">
         <v>20</v>
@@ -3880,10 +3882,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C123">
         <v>21</v>
@@ -3903,10 +3905,10 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C124">
         <v>22</v>
@@ -3926,10 +3928,10 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C125">
         <v>23</v>
@@ -3949,10 +3951,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C126">
         <v>24</v>
@@ -3972,10 +3974,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C127">
         <v>25</v>
@@ -3995,10 +3997,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C128">
         <v>26</v>
@@ -4018,10 +4020,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C129">
         <v>27</v>
@@ -4041,10 +4043,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C130">
         <v>28</v>
@@ -4064,10 +4066,10 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C131">
         <v>29</v>
@@ -4087,10 +4089,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C132">
         <v>30</v>
@@ -4110,10 +4112,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C133">
         <v>31</v>
@@ -4133,10 +4135,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C134">
         <v>32</v>
@@ -4156,10 +4158,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C135">
         <v>33</v>
@@ -4179,10 +4181,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C136">
         <v>34</v>
@@ -4202,10 +4204,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -4225,10 +4227,10 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C138">
         <v>2</v>
@@ -4248,10 +4250,10 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C139">
         <v>3</v>
@@ -4271,10 +4273,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -4294,10 +4296,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C141">
         <v>5</v>
@@ -4317,10 +4319,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C142">
         <v>6</v>
@@ -4340,10 +4342,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C143">
         <v>7</v>
@@ -4363,10 +4365,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C144">
         <v>8</v>
@@ -4386,10 +4388,10 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C145">
         <v>9</v>
@@ -4409,10 +4411,10 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C146">
         <v>10</v>
@@ -4432,10 +4434,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C147">
         <v>11</v>
@@ -4455,10 +4457,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C148">
         <v>12</v>
@@ -4478,10 +4480,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C149">
         <v>13</v>
@@ -4501,10 +4503,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C150">
         <v>14</v>
@@ -4524,10 +4526,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C151">
         <v>15</v>
@@ -4547,10 +4549,10 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C152">
         <v>16</v>
@@ -4570,10 +4572,10 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C153">
         <v>17</v>
@@ -4593,10 +4595,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C154">
         <v>18</v>
@@ -4616,10 +4618,10 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C155">
         <v>19</v>
@@ -4639,10 +4641,10 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C156">
         <v>20</v>
@@ -4662,10 +4664,10 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157">
         <v>21</v>
@@ -4685,10 +4687,10 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C158">
         <v>22</v>
@@ -4708,10 +4710,10 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C159">
         <v>23</v>
@@ -4731,10 +4733,10 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C160">
         <v>24</v>
@@ -4754,10 +4756,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C161">
         <v>25</v>
@@ -4777,10 +4779,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C162">
         <v>26</v>
@@ -4800,10 +4802,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C163">
         <v>27</v>
@@ -4823,10 +4825,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C164">
         <v>28</v>
@@ -4846,10 +4848,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C165">
         <v>29</v>
@@ -4869,10 +4871,10 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C166">
         <v>30</v>
@@ -4892,10 +4894,10 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C167">
         <v>31</v>
@@ -4915,10 +4917,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -4938,10 +4940,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C169">
         <v>2</v>
@@ -4961,10 +4963,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C170">
         <v>3</v>
@@ -4984,10 +4986,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -5007,10 +5009,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C172">
         <v>5</v>
@@ -5030,10 +5032,10 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C173">
         <v>6</v>
@@ -5053,10 +5055,10 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C174">
         <v>7</v>
@@ -5076,10 +5078,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C175">
         <v>8</v>
@@ -5099,10 +5101,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C176">
         <v>9</v>
@@ -5122,10 +5124,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C177">
         <v>10</v>
@@ -5145,10 +5147,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C178">
         <v>11</v>
@@ -5168,10 +5170,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C179">
         <v>12</v>
@@ -5191,10 +5193,10 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C180">
         <v>13</v>
@@ -5214,10 +5216,10 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C181">
         <v>14</v>
@@ -5237,10 +5239,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C182">
         <v>15</v>
@@ -5260,10 +5262,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C183">
         <v>16</v>
@@ -5283,10 +5285,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C184">
         <v>17</v>
@@ -5306,10 +5308,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C185">
         <v>18</v>
@@ -5329,10 +5331,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C186">
         <v>19</v>
@@ -5352,10 +5354,10 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C187">
         <v>20</v>
@@ -5375,10 +5377,10 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C188">
         <v>21</v>
@@ -5398,10 +5400,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C189">
         <v>22</v>
@@ -5421,10 +5423,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C190">
         <v>23</v>
@@ -5444,10 +5446,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C191">
         <v>24</v>
@@ -5467,10 +5469,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C192">
         <v>25</v>
@@ -5490,10 +5492,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C193">
         <v>26</v>
@@ -5513,10 +5515,10 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C194">
         <v>27</v>
@@ -5536,10 +5538,10 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C195">
         <v>28</v>
@@ -5559,10 +5561,10 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C196">
         <v>29</v>
@@ -5582,10 +5584,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C197">
         <v>30</v>
@@ -5605,10 +5607,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C198">
         <v>31</v>
@@ -5628,10 +5630,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C199">
         <v>32</v>
@@ -5651,10 +5653,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C200">
         <v>33</v>
@@ -5674,10 +5676,10 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
         <v>13</v>
-      </c>
-      <c r="B201" t="s">
-        <v>15</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -5697,10 +5699,10 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
         <v>13</v>
-      </c>
-      <c r="B202" t="s">
-        <v>15</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -5720,10 +5722,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
         <v>13</v>
-      </c>
-      <c r="B203" t="s">
-        <v>15</v>
       </c>
       <c r="C203">
         <v>3</v>
@@ -5743,10 +5745,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
         <v>13</v>
-      </c>
-      <c r="B204" t="s">
-        <v>15</v>
       </c>
       <c r="C204">
         <v>4</v>
@@ -5766,10 +5768,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
         <v>13</v>
-      </c>
-      <c r="B205" t="s">
-        <v>15</v>
       </c>
       <c r="C205">
         <v>5</v>
@@ -5789,10 +5791,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
         <v>13</v>
-      </c>
-      <c r="B206" t="s">
-        <v>15</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -5812,10 +5814,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
         <v>13</v>
-      </c>
-      <c r="B207" t="s">
-        <v>15</v>
       </c>
       <c r="C207">
         <v>7</v>
@@ -5835,10 +5837,10 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>11</v>
+      </c>
+      <c r="B208" t="s">
         <v>13</v>
-      </c>
-      <c r="B208" t="s">
-        <v>15</v>
       </c>
       <c r="C208">
         <v>8</v>
@@ -5858,10 +5860,10 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>11</v>
+      </c>
+      <c r="B209" t="s">
         <v>13</v>
-      </c>
-      <c r="B209" t="s">
-        <v>15</v>
       </c>
       <c r="C209">
         <v>9</v>
@@ -5881,10 +5883,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>11</v>
+      </c>
+      <c r="B210" t="s">
         <v>13</v>
-      </c>
-      <c r="B210" t="s">
-        <v>15</v>
       </c>
       <c r="C210">
         <v>10</v>
@@ -5904,10 +5906,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
         <v>13</v>
-      </c>
-      <c r="B211" t="s">
-        <v>15</v>
       </c>
       <c r="C211">
         <v>11</v>
@@ -5927,10 +5929,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
         <v>13</v>
-      </c>
-      <c r="B212" t="s">
-        <v>15</v>
       </c>
       <c r="C212">
         <v>12</v>
@@ -5950,10 +5952,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
         <v>13</v>
-      </c>
-      <c r="B213" t="s">
-        <v>15</v>
       </c>
       <c r="C213">
         <v>13</v>
@@ -5973,10 +5975,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" t="s">
         <v>13</v>
-      </c>
-      <c r="B214" t="s">
-        <v>15</v>
       </c>
       <c r="C214">
         <v>14</v>
@@ -5996,10 +5998,10 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>11</v>
+      </c>
+      <c r="B215" t="s">
         <v>13</v>
-      </c>
-      <c r="B215" t="s">
-        <v>15</v>
       </c>
       <c r="C215">
         <v>15</v>
@@ -6019,10 +6021,10 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
         <v>13</v>
-      </c>
-      <c r="B216" t="s">
-        <v>15</v>
       </c>
       <c r="C216">
         <v>16</v>
@@ -6042,10 +6044,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>11</v>
+      </c>
+      <c r="B217" t="s">
         <v>13</v>
-      </c>
-      <c r="B217" t="s">
-        <v>15</v>
       </c>
       <c r="C217">
         <v>17</v>
@@ -6065,10 +6067,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>11</v>
+      </c>
+      <c r="B218" t="s">
         <v>13</v>
-      </c>
-      <c r="B218" t="s">
-        <v>15</v>
       </c>
       <c r="C218">
         <v>18</v>
@@ -6088,10 +6090,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
         <v>13</v>
-      </c>
-      <c r="B219" t="s">
-        <v>15</v>
       </c>
       <c r="C219">
         <v>19</v>
@@ -6111,10 +6113,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" t="s">
         <v>13</v>
-      </c>
-      <c r="B220" t="s">
-        <v>15</v>
       </c>
       <c r="C220">
         <v>20</v>
@@ -6134,10 +6136,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>11</v>
+      </c>
+      <c r="B221" t="s">
         <v>13</v>
-      </c>
-      <c r="B221" t="s">
-        <v>15</v>
       </c>
       <c r="C221">
         <v>21</v>
@@ -6157,10 +6159,10 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
         <v>13</v>
-      </c>
-      <c r="B222" t="s">
-        <v>15</v>
       </c>
       <c r="C222">
         <v>22</v>
@@ -6180,10 +6182,10 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>11</v>
+      </c>
+      <c r="B223" t="s">
         <v>13</v>
-      </c>
-      <c r="B223" t="s">
-        <v>15</v>
       </c>
       <c r="C223">
         <v>23</v>
@@ -6203,10 +6205,10 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" t="s">
         <v>13</v>
-      </c>
-      <c r="B224" t="s">
-        <v>15</v>
       </c>
       <c r="C224">
         <v>24</v>
@@ -6226,10 +6228,10 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>11</v>
+      </c>
+      <c r="B225" t="s">
         <v>13</v>
-      </c>
-      <c r="B225" t="s">
-        <v>15</v>
       </c>
       <c r="C225">
         <v>25</v>
@@ -6249,10 +6251,10 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>11</v>
+      </c>
+      <c r="B226" t="s">
         <v>13</v>
-      </c>
-      <c r="B226" t="s">
-        <v>15</v>
       </c>
       <c r="C226">
         <v>26</v>
@@ -6272,10 +6274,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>11</v>
+      </c>
+      <c r="B227" t="s">
         <v>13</v>
-      </c>
-      <c r="B227" t="s">
-        <v>15</v>
       </c>
       <c r="C227">
         <v>27</v>
@@ -6295,10 +6297,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
         <v>13</v>
-      </c>
-      <c r="B228" t="s">
-        <v>15</v>
       </c>
       <c r="C228">
         <v>28</v>
@@ -6318,10 +6320,10 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>11</v>
+      </c>
+      <c r="B229" t="s">
         <v>13</v>
-      </c>
-      <c r="B229" t="s">
-        <v>15</v>
       </c>
       <c r="C229">
         <v>29</v>
@@ -6341,10 +6343,10 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" t="s">
         <v>13</v>
-      </c>
-      <c r="B230" t="s">
-        <v>15</v>
       </c>
       <c r="C230">
         <v>30</v>
@@ -6364,10 +6366,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -6387,10 +6389,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B232" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C232">
         <v>2</v>
@@ -6410,10 +6412,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B233" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C233">
         <v>3</v>
@@ -6433,10 +6435,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B234" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C234">
         <v>4</v>
@@ -6456,10 +6458,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C235">
         <v>5</v>
@@ -6479,10 +6481,10 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B236" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C236">
         <v>6</v>
@@ -6502,10 +6504,10 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B237" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C237">
         <v>7</v>
@@ -6525,10 +6527,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B238" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C238">
         <v>8</v>
@@ -6548,10 +6550,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B239" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C239">
         <v>9</v>
@@ -6571,10 +6573,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C240">
         <v>10</v>
@@ -6594,10 +6596,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B241" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C241">
         <v>11</v>
@@ -6617,10 +6619,10 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C242">
         <v>12</v>
@@ -6640,10 +6642,10 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C243">
         <v>13</v>
@@ -6663,10 +6665,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C244">
         <v>14</v>
@@ -6686,10 +6688,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C245">
         <v>15</v>
@@ -6709,10 +6711,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C246">
         <v>16</v>
@@ -6732,10 +6734,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C247">
         <v>17</v>
@@ -6755,10 +6757,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C248">
         <v>18</v>
@@ -6778,10 +6780,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B249" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C249">
         <v>19</v>
@@ -6801,10 +6803,10 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B250" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C250">
         <v>20</v>
@@ -6824,10 +6826,10 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B251" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C251">
         <v>21</v>
@@ -6847,10 +6849,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B252" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C252">
         <v>22</v>
@@ -6870,10 +6872,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B253" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C253">
         <v>23</v>
@@ -6893,10 +6895,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B254" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C254">
         <v>24</v>
@@ -6916,10 +6918,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C255">
         <v>25</v>
@@ -6939,10 +6941,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C256">
         <v>26</v>
@@ -6962,10 +6964,10 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C257">
         <v>27</v>
@@ -6985,10 +6987,10 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C258">
         <v>28</v>
@@ -7008,10 +7010,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C259">
         <v>29</v>
@@ -7031,10 +7033,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B260" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C260">
         <v>30</v>
@@ -7054,10 +7056,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C261">
         <v>31</v>
@@ -7077,10 +7079,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B262" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C262">
         <v>32</v>
@@ -7100,10 +7102,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B263" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C263">
         <v>33</v>
@@ -7123,10 +7125,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B264" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C264">
         <v>34</v>
@@ -7146,10 +7148,10 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B265" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C265">
         <v>35</v>
@@ -7169,10 +7171,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C266">
         <v>36</v>
@@ -7192,10 +7194,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B267" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C267">
         <v>37</v>
@@ -7215,10 +7217,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B268" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C268">
         <v>38</v>
@@ -7238,10 +7240,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C269">
         <v>39</v>
@@ -7261,10 +7263,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B270" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C270">
         <v>1</v>
@@ -7284,10 +7286,10 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C271">
         <v>2</v>
@@ -7307,10 +7309,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B272" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C272">
         <v>3</v>
@@ -7330,10 +7332,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C273">
         <v>4</v>
@@ -7353,10 +7355,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -7376,10 +7378,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B275" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C275">
         <v>6</v>
@@ -7399,10 +7401,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B276" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C276">
         <v>7</v>
@@ -7422,10 +7424,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B277" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C277">
         <v>8</v>
@@ -7445,10 +7447,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C278">
         <v>9</v>
@@ -7468,10 +7470,10 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B279" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C279">
         <v>10</v>
@@ -7491,10 +7493,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B280" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C280">
         <v>11</v>
@@ -7514,10 +7516,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B281" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C281">
         <v>12</v>
@@ -7537,10 +7539,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B282" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C282">
         <v>13</v>
@@ -7560,10 +7562,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B283" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C283">
         <v>14</v>
@@ -7583,10 +7585,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C284">
         <v>15</v>
@@ -7606,10 +7608,10 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B285" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C285">
         <v>16</v>
@@ -7629,10 +7631,10 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B286" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C286">
         <v>17</v>
@@ -7652,10 +7654,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B287" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C287">
         <v>18</v>
@@ -7675,10 +7677,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C288">
         <v>19</v>
@@ -7698,10 +7700,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B289" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C289">
         <v>20</v>
@@ -7721,10 +7723,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B290" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C290">
         <v>21</v>
@@ -7744,10 +7746,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B291" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C291">
         <v>22</v>
@@ -7767,10 +7769,10 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C292">
         <v>23</v>
@@ -7790,10 +7792,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C293">
         <v>24</v>
@@ -7813,10 +7815,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B294" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C294">
         <v>25</v>
@@ -7836,10 +7838,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B295" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C295">
         <v>26</v>
@@ -7859,10 +7861,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B296" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C296">
         <v>27</v>
@@ -7882,10 +7884,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B297" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C297">
         <v>28</v>
@@ -7905,10 +7907,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B298" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C298">
         <v>29</v>
@@ -7928,10 +7930,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C299">
         <v>30</v>
@@ -7951,10 +7953,10 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B300" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C300">
         <v>31</v>
@@ -7974,10 +7976,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B301" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C301">
         <v>32</v>
@@ -7997,10 +7999,10 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B302" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C302">
         <v>33</v>
@@ -8020,10 +8022,10 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B303" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -8043,10 +8045,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B304" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C304">
         <v>2</v>
@@ -8066,10 +8068,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B305" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C305">
         <v>3</v>
@@ -8089,10 +8091,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B306" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C306">
         <v>4</v>
@@ -8112,10 +8114,10 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B307" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C307">
         <v>5</v>
@@ -8135,10 +8137,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B308" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C308">
         <v>6</v>
@@ -8158,10 +8160,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B309" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C309">
         <v>7</v>
@@ -8181,10 +8183,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B310" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C310">
         <v>8</v>
@@ -8204,10 +8206,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B311" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C311">
         <v>9</v>
@@ -8227,10 +8229,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C312">
         <v>10</v>
@@ -8250,10 +8252,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B313" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C313">
         <v>11</v>
@@ -8273,10 +8275,10 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B314" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C314">
         <v>12</v>
@@ -8296,10 +8298,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B315" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C315">
         <v>13</v>
@@ -8319,10 +8321,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B316" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C316">
         <v>14</v>
@@ -8342,10 +8344,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B317" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C317">
         <v>15</v>
@@ -8365,10 +8367,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B318" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C318">
         <v>16</v>
@@ -8388,10 +8390,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C319">
         <v>17</v>
@@ -8411,10 +8413,10 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B320" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C320">
         <v>18</v>
@@ -8434,10 +8436,10 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B321" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C321">
         <v>19</v>
@@ -8457,10 +8459,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B322" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C322">
         <v>20</v>
@@ -8480,10 +8482,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B323" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C323">
         <v>21</v>
@@ -8503,10 +8505,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B324" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C324">
         <v>22</v>
@@ -8526,10 +8528,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B325" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C325">
         <v>23</v>
@@ -8549,10 +8551,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B326" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C326">
         <v>24</v>
@@ -8572,10 +8574,10 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B327" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C327">
         <v>25</v>
@@ -8595,10 +8597,10 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B328" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C328">
         <v>26</v>
@@ -8618,10 +8620,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C329">
         <v>27</v>
@@ -8641,10 +8643,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B330" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C330">
         <v>28</v>
@@ -8664,10 +8666,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B331" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C331">
         <v>29</v>
@@ -8687,10 +8689,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C332">
         <v>30</v>
@@ -8710,10 +8712,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B333" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C333">
         <v>31</v>
@@ -8733,10 +8735,10 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B334" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C334">
         <v>32</v>
@@ -8756,10 +8758,10 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B335" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C335">
         <v>33</v>
@@ -8779,10 +8781,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B336" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C336">
         <v>34</v>
@@ -8802,10 +8804,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B337" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C337">
         <v>35</v>
@@ -8825,10 +8827,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B338" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C338">
         <v>36</v>
@@ -8848,10 +8850,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B339" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C339">
         <v>37</v>
@@ -8871,10 +8873,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B340" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C340">
         <v>1</v>
@@ -8894,10 +8896,10 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B341" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C341">
         <v>2</v>
@@ -8917,10 +8919,10 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B342" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C342">
         <v>3</v>
@@ -8940,10 +8942,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B343" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C343">
         <v>4</v>
@@ -8963,10 +8965,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B344" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C344">
         <v>5</v>
@@ -8986,10 +8988,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B345" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C345">
         <v>6</v>
@@ -9009,10 +9011,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C346">
         <v>7</v>
@@ -9032,10 +9034,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B347" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C347">
         <v>8</v>
@@ -9055,10 +9057,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B348" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C348">
         <v>9</v>
@@ -9078,10 +9080,10 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B349" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C349">
         <v>10</v>
@@ -9101,10 +9103,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B350" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C350">
         <v>11</v>
@@ -9124,10 +9126,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B351" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C351">
         <v>12</v>
@@ -9147,10 +9149,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B352" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C352">
         <v>13</v>
@@ -9170,10 +9172,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C353">
         <v>14</v>
@@ -9193,10 +9195,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C354">
         <v>15</v>
@@ -9216,10 +9218,10 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B355" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C355">
         <v>16</v>
@@ -9239,10 +9241,10 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C356">
         <v>17</v>
@@ -9262,10 +9264,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B357" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C357">
         <v>18</v>
@@ -9285,10 +9287,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B358" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C358">
         <v>19</v>
@@ -9308,10 +9310,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B359" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C359">
         <v>20</v>
@@ -9331,10 +9333,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B360" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C360">
         <v>21</v>
@@ -9354,10 +9356,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B361" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C361">
         <v>22</v>
@@ -9377,10 +9379,10 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B362" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C362">
         <v>23</v>
@@ -9400,10 +9402,10 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B363" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C363">
         <v>24</v>
@@ -9423,10 +9425,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B364" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C364">
         <v>25</v>
@@ -9446,10 +9448,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B365" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C365">
         <v>26</v>
@@ -9469,10 +9471,10 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B366" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C366">
         <v>27</v>
@@ -9492,10 +9494,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B367" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C367">
         <v>28</v>
@@ -9515,10 +9517,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B368" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C368">
         <v>29</v>
@@ -9538,10 +9540,10 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B369" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C369">
         <v>30</v>
@@ -9561,10 +9563,10 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B370" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C370">
         <v>31</v>
@@ -9584,10 +9586,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B371" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C371">
         <v>32</v>
@@ -9607,10 +9609,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B372" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C372">
         <v>33</v>
@@ -9630,10 +9632,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B373" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C373">
         <v>34</v>
@@ -9653,10 +9655,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B374" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C374">
         <v>35</v>
@@ -9676,10 +9678,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B375" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C375">
         <v>36</v>
@@ -9699,10 +9701,10 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B376" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C376">
         <v>37</v>
@@ -9722,10 +9724,10 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>17</v>
+      </c>
+      <c r="B377" t="s">
         <v>19</v>
-      </c>
-      <c r="B377" t="s">
-        <v>21</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -9745,10 +9747,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B378" t="s">
         <v>19</v>
-      </c>
-      <c r="B378" t="s">
-        <v>21</v>
       </c>
       <c r="C378">
         <v>2</v>
@@ -9768,10 +9770,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>17</v>
+      </c>
+      <c r="B379" t="s">
         <v>19</v>
-      </c>
-      <c r="B379" t="s">
-        <v>21</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -9791,10 +9793,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>17</v>
+      </c>
+      <c r="B380" t="s">
         <v>19</v>
-      </c>
-      <c r="B380" t="s">
-        <v>21</v>
       </c>
       <c r="C380">
         <v>4</v>
@@ -9814,10 +9816,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>17</v>
+      </c>
+      <c r="B381" t="s">
         <v>19</v>
-      </c>
-      <c r="B381" t="s">
-        <v>21</v>
       </c>
       <c r="C381">
         <v>5</v>
@@ -9837,10 +9839,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>17</v>
+      </c>
+      <c r="B382" t="s">
         <v>19</v>
-      </c>
-      <c r="B382" t="s">
-        <v>21</v>
       </c>
       <c r="C382">
         <v>6</v>
@@ -9860,10 +9862,10 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>17</v>
+      </c>
+      <c r="B383" t="s">
         <v>19</v>
-      </c>
-      <c r="B383" t="s">
-        <v>21</v>
       </c>
       <c r="C383">
         <v>7</v>
@@ -9883,10 +9885,10 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>17</v>
+      </c>
+      <c r="B384" t="s">
         <v>19</v>
-      </c>
-      <c r="B384" t="s">
-        <v>21</v>
       </c>
       <c r="C384">
         <v>8</v>
@@ -9906,10 +9908,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>17</v>
+      </c>
+      <c r="B385" t="s">
         <v>19</v>
-      </c>
-      <c r="B385" t="s">
-        <v>21</v>
       </c>
       <c r="C385">
         <v>9</v>
@@ -9929,10 +9931,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>17</v>
+      </c>
+      <c r="B386" t="s">
         <v>19</v>
-      </c>
-      <c r="B386" t="s">
-        <v>21</v>
       </c>
       <c r="C386">
         <v>10</v>
@@ -9952,10 +9954,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>17</v>
+      </c>
+      <c r="B387" t="s">
         <v>19</v>
-      </c>
-      <c r="B387" t="s">
-        <v>21</v>
       </c>
       <c r="C387">
         <v>11</v>
@@ -9975,10 +9977,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" t="s">
         <v>19</v>
-      </c>
-      <c r="B388" t="s">
-        <v>21</v>
       </c>
       <c r="C388">
         <v>12</v>
@@ -9998,10 +10000,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>17</v>
+      </c>
+      <c r="B389" t="s">
         <v>19</v>
-      </c>
-      <c r="B389" t="s">
-        <v>21</v>
       </c>
       <c r="C389">
         <v>13</v>
@@ -10021,10 +10023,10 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>17</v>
+      </c>
+      <c r="B390" t="s">
         <v>19</v>
-      </c>
-      <c r="B390" t="s">
-        <v>21</v>
       </c>
       <c r="C390">
         <v>14</v>
@@ -10044,10 +10046,10 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B391" t="s">
         <v>19</v>
-      </c>
-      <c r="B391" t="s">
-        <v>21</v>
       </c>
       <c r="C391">
         <v>15</v>
@@ -10067,10 +10069,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>17</v>
+      </c>
+      <c r="B392" t="s">
         <v>19</v>
-      </c>
-      <c r="B392" t="s">
-        <v>21</v>
       </c>
       <c r="C392">
         <v>16</v>
@@ -10090,10 +10092,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B393" t="s">
         <v>19</v>
-      </c>
-      <c r="B393" t="s">
-        <v>21</v>
       </c>
       <c r="C393">
         <v>17</v>
@@ -10113,10 +10115,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>17</v>
+      </c>
+      <c r="B394" t="s">
         <v>19</v>
-      </c>
-      <c r="B394" t="s">
-        <v>21</v>
       </c>
       <c r="C394">
         <v>18</v>
@@ -10136,10 +10138,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>17</v>
+      </c>
+      <c r="B395" t="s">
         <v>19</v>
-      </c>
-      <c r="B395" t="s">
-        <v>21</v>
       </c>
       <c r="C395">
         <v>19</v>
@@ -10159,10 +10161,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>17</v>
+      </c>
+      <c r="B396" t="s">
         <v>19</v>
-      </c>
-      <c r="B396" t="s">
-        <v>21</v>
       </c>
       <c r="C396">
         <v>20</v>
@@ -10182,10 +10184,10 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>17</v>
+      </c>
+      <c r="B397" t="s">
         <v>19</v>
-      </c>
-      <c r="B397" t="s">
-        <v>21</v>
       </c>
       <c r="C397">
         <v>21</v>
@@ -10205,10 +10207,10 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>17</v>
+      </c>
+      <c r="B398" t="s">
         <v>19</v>
-      </c>
-      <c r="B398" t="s">
-        <v>21</v>
       </c>
       <c r="C398">
         <v>22</v>
@@ -10228,10 +10230,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>17</v>
+      </c>
+      <c r="B399" t="s">
         <v>19</v>
-      </c>
-      <c r="B399" t="s">
-        <v>21</v>
       </c>
       <c r="C399">
         <v>23</v>
@@ -10251,10 +10253,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>17</v>
+      </c>
+      <c r="B400" t="s">
         <v>19</v>
-      </c>
-      <c r="B400" t="s">
-        <v>21</v>
       </c>
       <c r="C400">
         <v>24</v>
@@ -10274,10 +10276,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>17</v>
+      </c>
+      <c r="B401" t="s">
         <v>19</v>
-      </c>
-      <c r="B401" t="s">
-        <v>21</v>
       </c>
       <c r="C401">
         <v>25</v>
@@ -10297,10 +10299,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>17</v>
+      </c>
+      <c r="B402" t="s">
         <v>19</v>
-      </c>
-      <c r="B402" t="s">
-        <v>21</v>
       </c>
       <c r="C402">
         <v>26</v>
@@ -10320,10 +10322,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>17</v>
+      </c>
+      <c r="B403" t="s">
         <v>19</v>
-      </c>
-      <c r="B403" t="s">
-        <v>21</v>
       </c>
       <c r="C403">
         <v>27</v>
@@ -10343,10 +10345,10 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>17</v>
+      </c>
+      <c r="B404" t="s">
         <v>19</v>
-      </c>
-      <c r="B404" t="s">
-        <v>21</v>
       </c>
       <c r="C404">
         <v>28</v>
@@ -10366,10 +10368,10 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>17</v>
+      </c>
+      <c r="B405" t="s">
         <v>19</v>
-      </c>
-      <c r="B405" t="s">
-        <v>21</v>
       </c>
       <c r="C405">
         <v>29</v>
@@ -10389,10 +10391,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>17</v>
+      </c>
+      <c r="B406" t="s">
         <v>19</v>
-      </c>
-      <c r="B406" t="s">
-        <v>21</v>
       </c>
       <c r="C406">
         <v>30</v>
@@ -10412,10 +10414,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B407" t="s">
         <v>19</v>
-      </c>
-      <c r="B407" t="s">
-        <v>21</v>
       </c>
       <c r="C407">
         <v>31</v>
@@ -10435,10 +10437,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>17</v>
+      </c>
+      <c r="B408" t="s">
         <v>19</v>
-      </c>
-      <c r="B408" t="s">
-        <v>21</v>
       </c>
       <c r="C408">
         <v>32</v>
@@ -10458,10 +10460,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B409" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -10481,10 +10483,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B410" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C410">
         <v>2</v>
@@ -10504,10 +10506,10 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B411" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C411">
         <v>3</v>
@@ -10527,10 +10529,10 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B412" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C412">
         <v>4</v>
@@ -10550,10 +10552,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B413" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C413">
         <v>5</v>
@@ -10573,10 +10575,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B414" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C414">
         <v>6</v>
@@ -10596,10 +10598,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B415" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C415">
         <v>7</v>
@@ -10619,10 +10621,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B416" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C416">
         <v>8</v>
@@ -10642,10 +10644,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B417" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C417">
         <v>9</v>
@@ -10665,10 +10667,10 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B418" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C418">
         <v>10</v>
@@ -10688,10 +10690,10 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C419">
         <v>11</v>
@@ -10711,10 +10713,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B420" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C420">
         <v>12</v>
@@ -10734,10 +10736,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B421" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C421">
         <v>13</v>
@@ -10757,10 +10759,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B422" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C422">
         <v>14</v>
@@ -10780,10 +10782,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B423" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C423">
         <v>15</v>
@@ -10803,10 +10805,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B424" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C424">
         <v>16</v>
@@ -10826,10 +10828,10 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B425" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C425">
         <v>17</v>
@@ -10849,10 +10851,10 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B426" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C426">
         <v>18</v>
@@ -10872,10 +10874,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B427" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C427">
         <v>19</v>
@@ -10895,10 +10897,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B428" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C428">
         <v>20</v>
@@ -10918,10 +10920,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B429" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C429">
         <v>21</v>
@@ -10941,10 +10943,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B430" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C430">
         <v>22</v>
@@ -10964,10 +10966,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B431" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C431">
         <v>23</v>
@@ -10987,10 +10989,10 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B432" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C432">
         <v>24</v>
@@ -11010,10 +11012,10 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B433" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C433">
         <v>25</v>
@@ -11033,10 +11035,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B434" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C434">
         <v>26</v>
@@ -11056,10 +11058,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B435" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C435">
         <v>27</v>
@@ -11079,10 +11081,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B436" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C436">
         <v>28</v>
@@ -11102,10 +11104,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B437" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C437">
         <v>29</v>
@@ -11125,10 +11127,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B438" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C438">
         <v>30</v>
@@ -11148,10 +11150,10 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B439" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C439">
         <v>31</v>
@@ -11171,10 +11173,10 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B440" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C440">
         <v>32</v>
@@ -11194,10 +11196,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B441" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C441">
         <v>33</v>
@@ -11217,10 +11219,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B442" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C442">
         <v>34</v>
@@ -11240,10 +11242,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B443" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C443">
         <v>35</v>
@@ -11263,10 +11265,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B444" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -11286,10 +11288,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B445" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C445">
         <v>2</v>
@@ -11309,10 +11311,10 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B446" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C446">
         <v>3</v>
@@ -11332,10 +11334,10 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B447" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C447">
         <v>4</v>
@@ -11355,10 +11357,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B448" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C448">
         <v>5</v>
@@ -11378,10 +11380,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B449" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C449">
         <v>6</v>
@@ -11401,10 +11403,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B450" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C450">
         <v>7</v>
@@ -11424,10 +11426,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B451" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C451">
         <v>8</v>
@@ -11447,10 +11449,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B452" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C452">
         <v>9</v>
@@ -11470,10 +11472,10 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B453" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C453">
         <v>10</v>
@@ -11493,10 +11495,10 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B454" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C454">
         <v>11</v>
@@ -11516,10 +11518,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B455" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C455">
         <v>12</v>
@@ -11539,10 +11541,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B456" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C456">
         <v>13</v>
@@ -11562,10 +11564,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B457" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C457">
         <v>14</v>
@@ -11585,10 +11587,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B458" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C458">
         <v>15</v>
@@ -11608,10 +11610,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B459" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C459">
         <v>16</v>
@@ -11631,10 +11633,10 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B460" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C460">
         <v>17</v>
@@ -11654,10 +11656,10 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B461" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C461">
         <v>18</v>
@@ -11677,10 +11679,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B462" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C462">
         <v>19</v>
@@ -11700,10 +11702,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B463" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C463">
         <v>20</v>
@@ -11723,10 +11725,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B464" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C464">
         <v>21</v>
@@ -11746,10 +11748,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B465" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C465">
         <v>22</v>
@@ -11769,10 +11771,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B466" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C466">
         <v>23</v>
@@ -11792,10 +11794,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B467" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C467">
         <v>24</v>
@@ -11815,10 +11817,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B468" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C468">
         <v>25</v>
@@ -11838,10 +11840,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B469" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C469">
         <v>26</v>
@@ -11861,10 +11863,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B470" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C470">
         <v>27</v>
@@ -11884,10 +11886,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B471" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C471">
         <v>28</v>
@@ -11907,10 +11909,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B472" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C472">
         <v>29</v>
@@ -11930,10 +11932,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B473" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C473">
         <v>30</v>
@@ -11953,10 +11955,10 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B474" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C474">
         <v>31</v>
@@ -11976,10 +11978,10 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B475" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C475">
         <v>32</v>
@@ -11999,10 +12001,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B476" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C476">
         <v>33</v>
@@ -12022,10 +12024,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B477" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C477">
         <v>34</v>
@@ -12045,10 +12047,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B478" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C478">
         <v>35</v>
@@ -12068,10 +12070,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B479" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C479">
         <v>36</v>
@@ -12091,10 +12093,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B480" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C480">
         <v>37</v>
@@ -12114,10 +12116,10 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B481" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C481">
         <v>38</v>
@@ -12137,10 +12139,10 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B482" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C482">
         <v>1</v>
@@ -12160,10 +12162,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B483" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C483">
         <v>2</v>
@@ -12183,10 +12185,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B484" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C484">
         <v>3</v>
@@ -12206,10 +12208,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B485" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C485">
         <v>4</v>
@@ -12229,10 +12231,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B486" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C486">
         <v>5</v>
@@ -12252,10 +12254,10 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B487" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C487">
         <v>6</v>
@@ -12275,10 +12277,10 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B488" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C488">
         <v>7</v>
@@ -12298,10 +12300,10 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B489" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C489">
         <v>8</v>
@@ -12321,10 +12323,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B490" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C490">
         <v>9</v>
@@ -12344,10 +12346,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B491" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C491">
         <v>10</v>
@@ -12367,10 +12369,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B492" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C492">
         <v>11</v>
@@ -12390,10 +12392,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B493" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C493">
         <v>12</v>
@@ -12413,10 +12415,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B494" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C494">
         <v>13</v>
@@ -12436,10 +12438,10 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B495" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C495">
         <v>14</v>
@@ -12459,10 +12461,10 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B496" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C496">
         <v>15</v>
@@ -12482,10 +12484,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B497" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C497">
         <v>16</v>
@@ -12505,10 +12507,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B498" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C498">
         <v>17</v>
@@ -12528,10 +12530,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B499" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C499">
         <v>18</v>
@@ -12551,10 +12553,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B500" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C500">
         <v>19</v>
@@ -12574,10 +12576,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B501" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C501">
         <v>20</v>
@@ -12597,10 +12599,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B502" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C502">
         <v>21</v>
@@ -12620,10 +12622,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B503" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C503">
         <v>22</v>
@@ -12643,10 +12645,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B504" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C504">
         <v>23</v>
@@ -12666,10 +12668,10 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B505" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C505">
         <v>24</v>
@@ -12689,10 +12691,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B506" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C506">
         <v>25</v>
@@ -12712,10 +12714,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B507" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C507">
         <v>26</v>
@@ -12735,10 +12737,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B508" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C508">
         <v>27</v>
@@ -12758,10 +12760,10 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B509" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C509">
         <v>28</v>
@@ -12781,10 +12783,10 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B510" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C510">
         <v>29</v>
@@ -12804,10 +12806,10 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B511" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C511">
         <v>30</v>
@@ -12827,10 +12829,10 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B512" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C512">
         <v>31</v>
@@ -12850,10 +12852,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B513" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C513">
         <v>32</v>
@@ -12873,10 +12875,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B514" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C514">
         <v>33</v>
@@ -12896,10 +12898,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B515" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C515">
         <v>34</v>
@@ -12919,10 +12921,10 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B516" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C516">
         <v>1</v>
@@ -12942,10 +12944,10 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B517" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C517">
         <v>2</v>
@@ -12965,10 +12967,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B518" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C518">
         <v>3</v>
@@ -12988,10 +12990,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B519" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C519">
         <v>4</v>
@@ -13011,10 +13013,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B520" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C520">
         <v>5</v>
@@ -13034,10 +13036,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B521" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C521">
         <v>6</v>
@@ -13057,10 +13059,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B522" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C522">
         <v>7</v>
@@ -13080,10 +13082,10 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B523" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C523">
         <v>8</v>
@@ -13103,10 +13105,10 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B524" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C524">
         <v>9</v>
@@ -13126,10 +13128,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B525" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C525">
         <v>10</v>
@@ -13149,10 +13151,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B526" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C526">
         <v>11</v>
@@ -13172,10 +13174,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B527" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C527">
         <v>12</v>
@@ -13195,10 +13197,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B528" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C528">
         <v>13</v>
@@ -13218,10 +13220,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B529" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C529">
         <v>14</v>
@@ -13241,10 +13243,10 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B530" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C530">
         <v>15</v>
@@ -13264,10 +13266,10 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B531" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C531">
         <v>16</v>
@@ -13287,10 +13289,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B532" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C532">
         <v>17</v>
@@ -13310,10 +13312,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B533" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C533">
         <v>18</v>
@@ -13333,10 +13335,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B534" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C534">
         <v>19</v>
@@ -13356,10 +13358,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B535" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C535">
         <v>20</v>
@@ -13379,10 +13381,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B536" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C536">
         <v>21</v>
@@ -13402,10 +13404,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B537" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C537">
         <v>22</v>
@@ -13425,10 +13427,10 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B538" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C538">
         <v>23</v>
@@ -13448,10 +13450,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B539" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C539">
         <v>24</v>
@@ -13471,10 +13473,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B540" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C540">
         <v>25</v>
@@ -13494,10 +13496,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B541" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C541">
         <v>26</v>
@@ -13517,10 +13519,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B542" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C542">
         <v>27</v>
@@ -13540,10 +13542,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B543" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C543">
         <v>28</v>
@@ -13563,10 +13565,10 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B544" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C544">
         <v>29</v>
@@ -13586,10 +13588,10 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B545" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C545">
         <v>30</v>
@@ -13609,10 +13611,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B546" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C546">
         <v>31</v>
@@ -13632,10 +13634,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B547" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C547">
         <v>32</v>
@@ -13655,10 +13657,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B548" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C548">
         <v>33</v>
@@ -13678,10 +13680,10 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B549" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C549">
         <v>34</v>
@@ -13701,10 +13703,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B550" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C550">
         <v>35</v>
@@ -13724,10 +13726,10 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B551" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C551">
         <v>36</v>
@@ -13747,10 +13749,10 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B552" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C552">
         <v>37</v>
@@ -13770,10 +13772,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>23</v>
+      </c>
+      <c r="B553" t="s">
         <v>25</v>
-      </c>
-      <c r="B553" t="s">
-        <v>27</v>
       </c>
       <c r="C553">
         <v>1</v>
@@ -13793,10 +13795,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
+        <v>23</v>
+      </c>
+      <c r="B554" t="s">
         <v>25</v>
-      </c>
-      <c r="B554" t="s">
-        <v>27</v>
       </c>
       <c r="C554">
         <v>2</v>
@@ -13816,10 +13818,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
+        <v>23</v>
+      </c>
+      <c r="B555" t="s">
         <v>25</v>
-      </c>
-      <c r="B555" t="s">
-        <v>27</v>
       </c>
       <c r="C555">
         <v>3</v>
@@ -13839,10 +13841,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
+        <v>23</v>
+      </c>
+      <c r="B556" t="s">
         <v>25</v>
-      </c>
-      <c r="B556" t="s">
-        <v>27</v>
       </c>
       <c r="C556">
         <v>4</v>
@@ -13862,10 +13864,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
+        <v>23</v>
+      </c>
+      <c r="B557" t="s">
         <v>25</v>
-      </c>
-      <c r="B557" t="s">
-        <v>27</v>
       </c>
       <c r="C557">
         <v>5</v>
@@ -13885,10 +13887,10 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
+        <v>23</v>
+      </c>
+      <c r="B558" t="s">
         <v>25</v>
-      </c>
-      <c r="B558" t="s">
-        <v>27</v>
       </c>
       <c r="C558">
         <v>6</v>
@@ -13908,10 +13910,10 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
+        <v>23</v>
+      </c>
+      <c r="B559" t="s">
         <v>25</v>
-      </c>
-      <c r="B559" t="s">
-        <v>27</v>
       </c>
       <c r="C559">
         <v>7</v>
@@ -13931,10 +13933,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>23</v>
+      </c>
+      <c r="B560" t="s">
         <v>25</v>
-      </c>
-      <c r="B560" t="s">
-        <v>27</v>
       </c>
       <c r="C560">
         <v>8</v>
@@ -13954,10 +13956,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
+        <v>23</v>
+      </c>
+      <c r="B561" t="s">
         <v>25</v>
-      </c>
-      <c r="B561" t="s">
-        <v>27</v>
       </c>
       <c r="C561">
         <v>9</v>
@@ -13977,10 +13979,10 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
+        <v>23</v>
+      </c>
+      <c r="B562" t="s">
         <v>25</v>
-      </c>
-      <c r="B562" t="s">
-        <v>27</v>
       </c>
       <c r="C562">
         <v>10</v>
@@ -14000,10 +14002,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
+        <v>23</v>
+      </c>
+      <c r="B563" t="s">
         <v>25</v>
-      </c>
-      <c r="B563" t="s">
-        <v>27</v>
       </c>
       <c r="C563">
         <v>11</v>
@@ -14023,10 +14025,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
+        <v>23</v>
+      </c>
+      <c r="B564" t="s">
         <v>25</v>
-      </c>
-      <c r="B564" t="s">
-        <v>27</v>
       </c>
       <c r="C564">
         <v>12</v>
@@ -14046,10 +14048,10 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
+        <v>23</v>
+      </c>
+      <c r="B565" t="s">
         <v>25</v>
-      </c>
-      <c r="B565" t="s">
-        <v>27</v>
       </c>
       <c r="C565">
         <v>13</v>
@@ -14069,10 +14071,10 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
+        <v>23</v>
+      </c>
+      <c r="B566" t="s">
         <v>25</v>
-      </c>
-      <c r="B566" t="s">
-        <v>27</v>
       </c>
       <c r="C566">
         <v>14</v>
@@ -14092,10 +14094,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
+        <v>23</v>
+      </c>
+      <c r="B567" t="s">
         <v>25</v>
-      </c>
-      <c r="B567" t="s">
-        <v>27</v>
       </c>
       <c r="C567">
         <v>15</v>
@@ -14115,10 +14117,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
+        <v>23</v>
+      </c>
+      <c r="B568" t="s">
         <v>25</v>
-      </c>
-      <c r="B568" t="s">
-        <v>27</v>
       </c>
       <c r="C568">
         <v>16</v>
@@ -14138,10 +14140,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
+        <v>23</v>
+      </c>
+      <c r="B569" t="s">
         <v>25</v>
-      </c>
-      <c r="B569" t="s">
-        <v>27</v>
       </c>
       <c r="C569">
         <v>17</v>
@@ -14161,10 +14163,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
+        <v>23</v>
+      </c>
+      <c r="B570" t="s">
         <v>25</v>
-      </c>
-      <c r="B570" t="s">
-        <v>27</v>
       </c>
       <c r="C570">
         <v>18</v>
@@ -14184,10 +14186,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
+        <v>23</v>
+      </c>
+      <c r="B571" t="s">
         <v>25</v>
-      </c>
-      <c r="B571" t="s">
-        <v>27</v>
       </c>
       <c r="C571">
         <v>19</v>
@@ -14207,10 +14209,10 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
+        <v>23</v>
+      </c>
+      <c r="B572" t="s">
         <v>25</v>
-      </c>
-      <c r="B572" t="s">
-        <v>27</v>
       </c>
       <c r="C572">
         <v>20</v>
@@ -14230,10 +14232,10 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
+        <v>23</v>
+      </c>
+      <c r="B573" t="s">
         <v>25</v>
-      </c>
-      <c r="B573" t="s">
-        <v>27</v>
       </c>
       <c r="C573">
         <v>21</v>
@@ -14253,10 +14255,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
+        <v>23</v>
+      </c>
+      <c r="B574" t="s">
         <v>25</v>
-      </c>
-      <c r="B574" t="s">
-        <v>27</v>
       </c>
       <c r="C574">
         <v>22</v>
@@ -14276,10 +14278,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
+        <v>23</v>
+      </c>
+      <c r="B575" t="s">
         <v>25</v>
-      </c>
-      <c r="B575" t="s">
-        <v>27</v>
       </c>
       <c r="C575">
         <v>23</v>
@@ -14299,10 +14301,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
+        <v>23</v>
+      </c>
+      <c r="B576" t="s">
         <v>25</v>
-      </c>
-      <c r="B576" t="s">
-        <v>27</v>
       </c>
       <c r="C576">
         <v>24</v>
@@ -14322,10 +14324,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>23</v>
+      </c>
+      <c r="B577" t="s">
         <v>25</v>
-      </c>
-      <c r="B577" t="s">
-        <v>27</v>
       </c>
       <c r="C577">
         <v>25</v>
@@ -14345,10 +14347,10 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
+        <v>23</v>
+      </c>
+      <c r="B578" t="s">
         <v>25</v>
-      </c>
-      <c r="B578" t="s">
-        <v>27</v>
       </c>
       <c r="C578">
         <v>26</v>
@@ -14368,10 +14370,10 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
+        <v>23</v>
+      </c>
+      <c r="B579" t="s">
         <v>25</v>
-      </c>
-      <c r="B579" t="s">
-        <v>27</v>
       </c>
       <c r="C579">
         <v>27</v>
@@ -14391,10 +14393,10 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
+        <v>23</v>
+      </c>
+      <c r="B580" t="s">
         <v>25</v>
-      </c>
-      <c r="B580" t="s">
-        <v>27</v>
       </c>
       <c r="C580">
         <v>28</v>
@@ -14414,10 +14416,10 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
+        <v>23</v>
+      </c>
+      <c r="B581" t="s">
         <v>25</v>
-      </c>
-      <c r="B581" t="s">
-        <v>27</v>
       </c>
       <c r="C581">
         <v>29</v>
@@ -14437,10 +14439,10 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
+        <v>23</v>
+      </c>
+      <c r="B582" t="s">
         <v>25</v>
-      </c>
-      <c r="B582" t="s">
-        <v>27</v>
       </c>
       <c r="C582">
         <v>30</v>
@@ -14460,10 +14462,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
+        <v>23</v>
+      </c>
+      <c r="B583" t="s">
         <v>25</v>
-      </c>
-      <c r="B583" t="s">
-        <v>27</v>
       </c>
       <c r="C583">
         <v>31</v>
@@ -14483,10 +14485,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
+        <v>23</v>
+      </c>
+      <c r="B584" t="s">
         <v>25</v>
-      </c>
-      <c r="B584" t="s">
-        <v>27</v>
       </c>
       <c r="C584">
         <v>32</v>
@@ -14506,10 +14508,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
+        <v>23</v>
+      </c>
+      <c r="B585" t="s">
         <v>25</v>
-      </c>
-      <c r="B585" t="s">
-        <v>27</v>
       </c>
       <c r="C585">
         <v>33</v>
@@ -14529,10 +14531,10 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
+        <v>23</v>
+      </c>
+      <c r="B586" t="s">
         <v>25</v>
-      </c>
-      <c r="B586" t="s">
-        <v>27</v>
       </c>
       <c r="C586">
         <v>34</v>
@@ -14552,10 +14554,10 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B587" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C587">
         <v>1</v>
@@ -14575,10 +14577,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B588" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C588">
         <v>2</v>
@@ -14598,10 +14600,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B589" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C589">
         <v>3</v>
@@ -14621,10 +14623,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B590" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C590">
         <v>4</v>
@@ -14644,10 +14646,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B591" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C591">
         <v>5</v>
@@ -14667,10 +14669,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B592" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C592">
         <v>6</v>
@@ -14690,10 +14692,10 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B593" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C593">
         <v>7</v>
@@ -14713,10 +14715,10 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B594" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C594">
         <v>8</v>
@@ -14736,10 +14738,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B595" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C595">
         <v>9</v>
@@ -14759,10 +14761,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B596" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C596">
         <v>10</v>
@@ -14782,10 +14784,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B597" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C597">
         <v>11</v>
@@ -14805,10 +14807,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B598" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C598">
         <v>12</v>
@@ -14828,10 +14830,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B599" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C599">
         <v>13</v>
@@ -14851,10 +14853,10 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B600" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C600">
         <v>14</v>
@@ -14874,10 +14876,10 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B601" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C601">
         <v>15</v>
@@ -14897,10 +14899,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B602" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C602">
         <v>16</v>
@@ -14920,10 +14922,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B603" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C603">
         <v>17</v>
@@ -14943,10 +14945,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B604" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C604">
         <v>18</v>
@@ -14966,10 +14968,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B605" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C605">
         <v>19</v>
@@ -14989,10 +14991,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B606" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C606">
         <v>20</v>
@@ -15012,10 +15014,10 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B607" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C607">
         <v>21</v>
@@ -15035,10 +15037,10 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B608" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C608">
         <v>22</v>
@@ -15058,10 +15060,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B609" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C609">
         <v>23</v>
@@ -15081,10 +15083,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B610" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C610">
         <v>24</v>
@@ -15104,10 +15106,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B611" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C611">
         <v>25</v>
@@ -15127,10 +15129,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B612" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C612">
         <v>26</v>
@@ -15150,10 +15152,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B613" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C613">
         <v>27</v>
@@ -15173,10 +15175,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B614" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C614">
         <v>28</v>
@@ -15196,10 +15198,10 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B615" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C615">
         <v>29</v>
@@ -15219,10 +15221,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B616" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C616">
         <v>30</v>
@@ -15242,10 +15244,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B617" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C617">
         <v>31</v>
@@ -15265,10 +15267,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B618" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C618">
         <v>32</v>
@@ -15288,10 +15290,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B619" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -15311,10 +15313,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B620" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C620">
         <v>2</v>
@@ -15334,10 +15336,10 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B621" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C621">
         <v>3</v>
@@ -15357,10 +15359,10 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B622" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C622">
         <v>4</v>
@@ -15380,10 +15382,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B623" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C623">
         <v>5</v>
@@ -15403,10 +15405,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B624" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C624">
         <v>6</v>
@@ -15426,10 +15428,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B625" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C625">
         <v>7</v>
@@ -15449,10 +15451,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B626" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C626">
         <v>8</v>
@@ -15472,10 +15474,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B627" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C627">
         <v>9</v>
@@ -15495,10 +15497,10 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B628" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C628">
         <v>10</v>
@@ -15518,10 +15520,10 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B629" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C629">
         <v>11</v>
@@ -15541,10 +15543,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B630" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C630">
         <v>12</v>
@@ -15564,10 +15566,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B631" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C631">
         <v>13</v>
@@ -15587,10 +15589,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B632" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C632">
         <v>14</v>
@@ -15610,10 +15612,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B633" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C633">
         <v>15</v>
@@ -15633,10 +15635,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B634" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C634">
         <v>16</v>
@@ -15656,10 +15658,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B635" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C635">
         <v>17</v>
@@ -15679,10 +15681,10 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B636" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C636">
         <v>18</v>
@@ -15702,10 +15704,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B637" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C637">
         <v>19</v>
@@ -15725,10 +15727,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B638" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C638">
         <v>20</v>
@@ -15748,10 +15750,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B639" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C639">
         <v>21</v>
@@ -15771,10 +15773,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B640" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C640">
         <v>22</v>
@@ -15794,10 +15796,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B641" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C641">
         <v>23</v>
@@ -15817,10 +15819,10 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B642" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C642">
         <v>24</v>
@@ -15840,10 +15842,10 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B643" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C643">
         <v>25</v>
@@ -15863,10 +15865,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B644" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C644">
         <v>26</v>
@@ -15886,10 +15888,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B645" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C645">
         <v>27</v>
@@ -15909,10 +15911,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B646" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C646">
         <v>28</v>
@@ -15932,10 +15934,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B647" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C647">
         <v>29</v>
@@ -15955,10 +15957,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B648" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C648">
         <v>30</v>
@@ -15978,10 +15980,10 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B649" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C649">
         <v>31</v>
@@ -16001,10 +16003,10 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B650" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C650">
         <v>32</v>
@@ -16024,10 +16026,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B651" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C651">
         <v>33</v>
@@ -16047,10 +16049,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B652" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C652">
         <v>34</v>
@@ -16070,10 +16072,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B653" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C653">
         <v>35</v>
@@ -16093,10 +16095,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B654" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C654">
         <v>36</v>
@@ -16116,10 +16118,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B655" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C655">
         <v>1</v>
@@ -16139,10 +16141,10 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B656" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C656">
         <v>2</v>
@@ -16162,10 +16164,10 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B657" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C657">
         <v>3</v>
@@ -16185,10 +16187,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B658" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C658">
         <v>4</v>
@@ -16208,10 +16210,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B659" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C659">
         <v>5</v>
@@ -16231,10 +16233,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B660" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C660">
         <v>6</v>
@@ -16254,10 +16256,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B661" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C661">
         <v>7</v>
@@ -16277,10 +16279,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B662" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C662">
         <v>8</v>
@@ -16300,10 +16302,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B663" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C663">
         <v>9</v>
@@ -16323,10 +16325,10 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B664" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C664">
         <v>10</v>
@@ -16346,10 +16348,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B665" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C665">
         <v>11</v>
@@ -16369,10 +16371,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B666" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C666">
         <v>12</v>
@@ -16392,10 +16394,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B667" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C667">
         <v>13</v>
@@ -16415,10 +16417,10 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B668" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C668">
         <v>14</v>
@@ -16438,10 +16440,10 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B669" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C669">
         <v>15</v>
@@ -16461,10 +16463,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B670" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C670">
         <v>16</v>
@@ -16484,10 +16486,10 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B671" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C671">
         <v>17</v>
@@ -16507,10 +16509,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B672" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C672">
         <v>18</v>
@@ -16530,10 +16532,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B673" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C673">
         <v>19</v>
@@ -16553,10 +16555,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B674" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C674">
         <v>20</v>
@@ -16576,10 +16578,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B675" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C675">
         <v>21</v>
@@ -16599,10 +16601,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B676" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C676">
         <v>22</v>
@@ -16622,10 +16624,10 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B677" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C677">
         <v>23</v>
@@ -16645,10 +16647,10 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B678" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C678">
         <v>24</v>
@@ -16668,10 +16670,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B679" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C679">
         <v>25</v>
@@ -16691,10 +16693,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B680" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C680">
         <v>26</v>
@@ -16714,10 +16716,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B681" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C681">
         <v>27</v>
@@ -16737,10 +16739,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B682" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C682">
         <v>28</v>
@@ -16760,10 +16762,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B683" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C683">
         <v>29</v>
@@ -16783,10 +16785,10 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B684" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C684">
         <v>30</v>
@@ -16806,10 +16808,10 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B685" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C685">
         <v>31</v>
@@ -16829,10 +16831,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B686" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C686">
         <v>32</v>
@@ -16852,10 +16854,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B687" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C687">
         <v>33</v>
@@ -16875,10 +16877,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B688" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C688">
         <v>34</v>

--- a/单木生长虚拟数据.xlsx
+++ b/单木生长虚拟数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snow\Desktop\线性混合效应模型的代码\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA8FD886-4F2C-4AD1-978A-0C4A6130EFE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8502EBDA-D8C8-4A51-8D5E-84C24933A5FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8892"/>
   </bookViews>
   <sheets>
     <sheet name="单木生长虚拟数据" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
   <dimension ref="A1:G718"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>118.435846107743</v>
+        <v>119.870957854173</v>
       </c>
       <c r="E2">
         <v>22.7</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>95.703272230346897</v>
+        <v>97.106886133684</v>
       </c>
       <c r="E3">
         <v>21.2</v>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>70.950362082979197</v>
+        <v>72.219585189122895</v>
       </c>
       <c r="E4">
         <v>14.8</v>
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>133.12282630981599</v>
+        <v>134.637732592079</v>
       </c>
       <c r="E5">
         <v>26.5</v>
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>135.180770551579</v>
+        <v>136.645280284894</v>
       </c>
       <c r="E6">
         <v>24.1</v>
@@ -1221,7 +1221,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>95.202825606388103</v>
+        <v>96.574941666632895</v>
       </c>
       <c r="E7">
         <v>19.7</v>
@@ -1244,7 +1244,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>73.477013888221606</v>
+        <v>74.7735351250452</v>
       </c>
       <c r="E8">
         <v>16.100000000000001</v>
@@ -1267,7 +1267,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>84.215908419581694</v>
+        <v>85.516629368817703</v>
       </c>
       <c r="E9">
         <v>16.3</v>
@@ -1290,7 +1290,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>81.116502231404894</v>
+        <v>82.471819442000594</v>
       </c>
       <c r="E10">
         <v>18.899999999999999</v>
@@ -1313,7 +1313,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>46.368018277437997</v>
+        <v>47.7107363507969</v>
       </c>
       <c r="E11">
         <v>18.3</v>
@@ -1336,7 +1336,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>49.650458808419103</v>
+        <v>50.915482202150599</v>
       </c>
       <c r="E12">
         <v>14.6</v>
@@ -1359,7 +1359,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>106.53639804757501</v>
+        <v>107.906414251614</v>
       </c>
       <c r="E13">
         <v>19.600000000000001</v>
@@ -1382,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>125.69090539758599</v>
+        <v>127.182713261581</v>
       </c>
       <c r="E14">
         <v>25.4</v>
@@ -1405,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>104.790657882403</v>
+        <v>106.154374517824</v>
       </c>
       <c r="E15">
         <v>19.3</v>
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>57.714356259309497</v>
+        <v>58.970980228216398</v>
       </c>
       <c r="E16">
         <v>14.2</v>
@@ -1451,7 +1451,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>66.184861920424694</v>
+        <v>67.477183444836101</v>
       </c>
       <c r="E17">
         <v>15.9</v>
@@ -1474,7 +1474,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>147.30386119268499</v>
+        <v>148.75367193255701</v>
       </c>
       <c r="E18">
         <v>23.4</v>
@@ -1497,7 +1497,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>85.315758354796003</v>
+        <v>86.6605762843609</v>
       </c>
       <c r="E19">
         <v>18.399999999999999</v>
@@ -1520,7 +1520,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>53.3964586484731</v>
+        <v>54.636283767730802</v>
       </c>
       <c r="E20">
         <v>13.4</v>
@@ -1543,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>88.720803454639494</v>
+        <v>90.036223397318494</v>
       </c>
       <c r="E21">
         <v>17</v>
@@ -1566,7 +1566,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>88.532436543645403</v>
+        <v>89.898253035271793</v>
       </c>
       <c r="E22">
         <v>19.399999999999999</v>
@@ -1589,7 +1589,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>105.828722000862</v>
+        <v>107.299531302796</v>
       </c>
       <c r="E23">
         <v>24.4</v>
@@ -1612,7 +1612,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>104.007036738582</v>
+        <v>105.36865351779601</v>
       </c>
       <c r="E24">
         <v>19.2</v>
@@ -1635,7 +1635,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>117.922793889312</v>
+        <v>119.334807217473</v>
       </c>
       <c r="E25">
         <v>21.6</v>
@@ -1658,7 +1658,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>-10.2866814975682</v>
+        <v>-9.2463427178943007</v>
       </c>
       <c r="E26">
         <v>3.9</v>
@@ -1681,7 +1681,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>71.538874662384998</v>
+        <v>72.835395899208706</v>
       </c>
       <c r="E27">
         <v>16.100000000000001</v>
@@ -1704,7 +1704,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>91.500166577762698</v>
+        <v>92.907980193512003</v>
       </c>
       <c r="E28">
         <v>21.4</v>
@@ -1727,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>62.186930316286798</v>
+        <v>63.437254716575303</v>
       </c>
       <c r="E29">
         <v>13.9</v>
@@ -1750,7 +1750,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>103.650817895157</v>
+        <v>105.075430360556</v>
       </c>
       <c r="E30">
         <v>22.2</v>
@@ -1773,7 +1773,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>128.403338414892</v>
+        <v>129.865748292001</v>
       </c>
       <c r="E31">
         <v>24</v>
@@ -1796,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>118.33100401158499</v>
+        <v>140.022193629258</v>
       </c>
       <c r="E32">
         <v>19.2</v>
@@ -1819,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>192.16274904171601</v>
+        <v>221.41275202450799</v>
       </c>
       <c r="E33">
         <v>26.2</v>
@@ -1842,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>90.280286328612107</v>
+        <v>107.760137071434</v>
       </c>
       <c r="E34">
         <v>15.3</v>
@@ -1865,7 +1865,7 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>166.209021302141</v>
+        <v>190.923736265862</v>
       </c>
       <c r="E35">
         <v>22</v>
@@ -1888,7 +1888,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>133.49991726284</v>
+        <v>158.21463222656101</v>
       </c>
       <c r="E36">
         <v>22</v>
@@ -1911,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="D37">
-        <v>104.311537417832</v>
+        <v>122.115337304874</v>
       </c>
       <c r="E37">
         <v>15.6</v>
@@ -1934,7 +1934,7 @@
         <v>7</v>
       </c>
       <c r="D38">
-        <v>66.475718617170998</v>
+        <v>81.903891446603495</v>
       </c>
       <c r="E38">
         <v>13.4</v>
@@ -1957,7 +1957,7 @@
         <v>8</v>
       </c>
       <c r="D39">
-        <v>117.162236483901</v>
+        <v>139.82527353423299</v>
       </c>
       <c r="E39">
         <v>20.100000000000001</v>
@@ -1980,7 +1980,7 @@
         <v>9</v>
       </c>
       <c r="D40">
-        <v>115.81663428157</v>
+        <v>135.99606122622001</v>
       </c>
       <c r="E40">
         <v>17.8</v>
@@ -2003,7 +2003,7 @@
         <v>10</v>
       </c>
       <c r="D41">
-        <v>194.60694418892399</v>
+        <v>226.232574229325</v>
       </c>
       <c r="E41">
         <v>28.4</v>
@@ -2026,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="D42">
-        <v>161.30042508290001</v>
+        <v>190.44244501761901</v>
       </c>
       <c r="E42">
         <v>26.1</v>
@@ -2049,7 +2049,7 @@
         <v>12</v>
       </c>
       <c r="D43">
-        <v>129.66633902413199</v>
+        <v>153.733155699414</v>
       </c>
       <c r="E43">
         <v>21.4</v>
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
       <c r="D44">
-        <v>76.940398460717603</v>
+        <v>93.880333963173797</v>
       </c>
       <c r="E44">
         <v>14.8</v>
@@ -2095,7 +2095,7 @@
         <v>14</v>
       </c>
       <c r="D45">
-        <v>108.40947255216</v>
+        <v>128.15696730451799</v>
       </c>
       <c r="E45">
         <v>17.399999999999999</v>
@@ -2118,7 +2118,7 @@
         <v>15</v>
       </c>
       <c r="D46">
-        <v>180.04672777538099</v>
+        <v>211.348408671562</v>
       </c>
       <c r="E46">
         <v>28.1</v>
@@ -2141,7 +2141,7 @@
         <v>16</v>
       </c>
       <c r="D47">
-        <v>58.798126643037001</v>
+        <v>75.522096049346899</v>
       </c>
       <c r="E47">
         <v>14.6</v>
@@ -2164,7 +2164,7 @@
         <v>17</v>
       </c>
       <c r="D48">
-        <v>199.34613800508501</v>
+        <v>230.97176804548599</v>
       </c>
       <c r="E48">
         <v>28.4</v>
@@ -2187,7 +2187,7 @@
         <v>18</v>
       </c>
       <c r="D49">
-        <v>122.032669890832</v>
+        <v>143.29192731621299</v>
       </c>
       <c r="E49">
         <v>18.8</v>
@@ -2210,7 +2210,7 @@
         <v>19</v>
       </c>
       <c r="D50">
-        <v>110.24607551194001</v>
+        <v>130.317519408517</v>
       </c>
       <c r="E50">
         <v>17.7</v>
@@ -2233,7 +2233,7 @@
         <v>20</v>
       </c>
       <c r="D51">
-        <v>95.340036545848093</v>
+        <v>113.683751673255</v>
       </c>
       <c r="E51">
         <v>16.100000000000001</v>
@@ -2256,7 +2256,7 @@
         <v>21</v>
       </c>
       <c r="D52">
-        <v>179.52173396960001</v>
+        <v>213.63097411568299</v>
       </c>
       <c r="E52">
         <v>30.7</v>
@@ -2279,7 +2279,7 @@
         <v>22</v>
       </c>
       <c r="D53">
-        <v>73.495315423130506</v>
+        <v>88.815505204489796</v>
       </c>
       <c r="E53">
         <v>13.3</v>
@@ -2302,7 +2302,7 @@
         <v>23</v>
       </c>
       <c r="D54">
-        <v>137.46954602742201</v>
+        <v>162.72417623150901</v>
       </c>
       <c r="E54">
         <v>22.5</v>
@@ -2325,7 +2325,7 @@
         <v>24</v>
       </c>
       <c r="D55">
-        <v>177.50336047980301</v>
+        <v>206.75336346259499</v>
       </c>
       <c r="E55">
         <v>26.2</v>
@@ -2348,7 +2348,7 @@
         <v>25</v>
       </c>
       <c r="D56">
-        <v>128.79809770786699</v>
+        <v>154.80860924846601</v>
       </c>
       <c r="E56">
         <v>23.2</v>
@@ -2371,7 +2371,7 @@
         <v>26</v>
       </c>
       <c r="D57">
-        <v>116.51664434588599</v>
+        <v>141.33934235768001</v>
       </c>
       <c r="E57">
         <v>22.1</v>
@@ -2394,7 +2394,7 @@
         <v>27</v>
       </c>
       <c r="D58">
-        <v>176.09532284045201</v>
+        <v>202.969698765635</v>
       </c>
       <c r="E58">
         <v>24</v>
@@ -2417,7 +2417,7 @@
         <v>28</v>
       </c>
       <c r="D59">
-        <v>127.46642275297999</v>
+        <v>149.15761237065399</v>
       </c>
       <c r="E59">
         <v>19.2</v>
@@ -2440,7 +2440,7 @@
         <v>29</v>
       </c>
       <c r="D60">
-        <v>102.467219632473</v>
+        <v>123.83446010592699</v>
       </c>
       <c r="E60">
         <v>18.899999999999999</v>
@@ -2463,7 +2463,7 @@
         <v>30</v>
       </c>
       <c r="D61">
-        <v>98.637853959132698</v>
+        <v>116.333670798101</v>
       </c>
       <c r="E61">
         <v>15.5</v>
@@ -2486,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="D62">
-        <v>91.472789868054605</v>
+        <v>110.032471091608</v>
       </c>
       <c r="E62">
         <v>16.3</v>
@@ -2509,7 +2509,7 @@
         <v>32</v>
       </c>
       <c r="D63">
-        <v>82.869162067313397</v>
+        <v>97.757419656380307</v>
       </c>
       <c r="E63">
         <v>12.9</v>
@@ -2532,7 +2532,7 @@
         <v>33</v>
       </c>
       <c r="D64">
-        <v>165.32152114456801</v>
+        <v>191.224049637093</v>
       </c>
       <c r="E64">
         <v>23.1</v>
@@ -2555,7 +2555,7 @@
         <v>34</v>
       </c>
       <c r="D65">
-        <v>115.255606319214</v>
+        <v>137.810660321472</v>
       </c>
       <c r="E65">
         <v>20</v>
@@ -2578,7 +2578,7 @@
         <v>35</v>
       </c>
       <c r="D66">
-        <v>97.7470026690129</v>
+        <v>116.630633036785</v>
       </c>
       <c r="E66">
         <v>16.600000000000001</v>
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>126.044312571437</v>
+        <v>163.25459081831499</v>
       </c>
       <c r="E67">
         <v>18.600000000000001</v>
@@ -2624,7 +2624,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>92.351547955609206</v>
+        <v>124.689267888073</v>
       </c>
       <c r="E68">
         <v>16.100000000000001</v>
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>93.941135019815306</v>
+        <v>126.278854952279</v>
       </c>
       <c r="E69">
         <v>16.100000000000001</v>
@@ -2670,7 +2670,7 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>138.037481801186</v>
+        <v>174.27324838518101</v>
       </c>
       <c r="E70">
         <v>18.100000000000001</v>
@@ -2693,7 +2693,7 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>126.746567629707</v>
+        <v>163.56704121143201</v>
       </c>
       <c r="E71">
         <v>18.399999999999999</v>
@@ -2716,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="D72">
-        <v>144.33236165078901</v>
+        <v>185.050881884045</v>
       </c>
       <c r="E72">
         <v>20.399999999999999</v>
@@ -2739,7 +2739,7 @@
         <v>7</v>
       </c>
       <c r="D73">
-        <v>117.676096201796</v>
+        <v>150.20871846683599</v>
       </c>
       <c r="E73">
         <v>16.2</v>
@@ -2762,7 +2762,7 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>105.742374394368</v>
+        <v>139.63931298744399</v>
       </c>
       <c r="E74">
         <v>16.899999999999999</v>
@@ -2785,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="D75">
-        <v>120.92300179054899</v>
+        <v>152.09130772755299</v>
       </c>
       <c r="E75">
         <v>15.5</v>
@@ -2808,7 +2808,7 @@
         <v>10</v>
       </c>
       <c r="D76">
-        <v>170.83596491982499</v>
+        <v>217.20665279780201</v>
       </c>
       <c r="E76">
         <v>23.3</v>
@@ -2831,7 +2831,7 @@
         <v>11</v>
       </c>
       <c r="D77">
-        <v>150.19059889804601</v>
+        <v>193.05304478964399</v>
       </c>
       <c r="E77">
         <v>21.5</v>
@@ -2854,7 +2854,7 @@
         <v>12</v>
       </c>
       <c r="D78">
-        <v>126.98763355574501</v>
+        <v>167.70615378900101</v>
       </c>
       <c r="E78">
         <v>20.399999999999999</v>
@@ -2877,7 +2877,7 @@
         <v>13</v>
       </c>
       <c r="D79">
-        <v>122.58532852021401</v>
+        <v>164.47326274892899</v>
       </c>
       <c r="E79">
         <v>21</v>
@@ -2900,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="D80">
-        <v>124.61408490777499</v>
+        <v>159.87533982888701</v>
       </c>
       <c r="E80">
         <v>17.600000000000001</v>
@@ -2923,7 +2923,7 @@
         <v>15</v>
       </c>
       <c r="D81">
-        <v>116.79439506914601</v>
+        <v>150.69133366222201</v>
       </c>
       <c r="E81">
         <v>16.899999999999999</v>
@@ -2946,7 +2946,7 @@
         <v>16</v>
       </c>
       <c r="D82">
-        <v>132.003106339086</v>
+        <v>171.552212576882</v>
       </c>
       <c r="E82">
         <v>19.8</v>
@@ -2969,7 +2969,7 @@
         <v>17</v>
       </c>
       <c r="D83">
-        <v>165.64056581631701</v>
+        <v>207.13869537988001</v>
       </c>
       <c r="E83">
         <v>20.8</v>
@@ -2992,7 +2992,7 @@
         <v>18</v>
       </c>
       <c r="D84">
-        <v>174.26294226280601</v>
+        <v>226.870504783234</v>
       </c>
       <c r="E84">
         <v>26.5</v>
@@ -3015,7 +3015,7 @@
         <v>19</v>
       </c>
       <c r="D85">
-        <v>108.44162823078</v>
+        <v>143.89778548446799</v>
       </c>
       <c r="E85">
         <v>17.7</v>
@@ -3038,7 +3038,7 @@
         <v>20</v>
       </c>
       <c r="D86">
-        <v>160.154521773038</v>
+        <v>203.01696766463601</v>
       </c>
       <c r="E86">
         <v>21.5</v>
@@ -3061,7 +3061,7 @@
         <v>21</v>
       </c>
       <c r="D87">
-        <v>112.01132517433599</v>
+        <v>151.17062674697999</v>
       </c>
       <c r="E87">
         <v>19.600000000000001</v>
@@ -3084,7 +3084,7 @@
         <v>22</v>
       </c>
       <c r="D88">
-        <v>140.14696536319701</v>
+        <v>184.17882525025499</v>
       </c>
       <c r="E88">
         <v>22.1</v>
@@ -3107,7 +3107,7 @@
         <v>23</v>
       </c>
       <c r="D89">
-        <v>148.36466675403599</v>
+        <v>190.05769865017501</v>
       </c>
       <c r="E89">
         <v>20.9</v>
@@ -3130,7 +3130,7 @@
         <v>24</v>
       </c>
       <c r="D90">
-        <v>189.14539232095601</v>
+        <v>246.430610823222</v>
       </c>
       <c r="E90">
         <v>28.9</v>
@@ -3153,7 +3153,7 @@
         <v>25</v>
       </c>
       <c r="D91">
-        <v>147.62720260830901</v>
+        <v>187.95591817641201</v>
       </c>
       <c r="E91">
         <v>20.2</v>
@@ -3176,7 +3176,7 @@
         <v>26</v>
       </c>
       <c r="D92">
-        <v>171.86752291819599</v>
+        <v>223.30567144316399</v>
       </c>
       <c r="E92">
         <v>25.9</v>
@@ -3199,7 +3199,7 @@
         <v>27</v>
       </c>
       <c r="D93">
-        <v>103.736963587985</v>
+        <v>138.21860917879101</v>
       </c>
       <c r="E93">
         <v>17.2</v>
@@ -3222,7 +3222,7 @@
         <v>28</v>
       </c>
       <c r="D94">
-        <v>90.131110842129502</v>
+        <v>120.90961211398</v>
       </c>
       <c r="E94">
         <v>15.3</v>
@@ -3245,7 +3245,7 @@
         <v>29</v>
       </c>
       <c r="D95">
-        <v>94.906928796163299</v>
+        <v>128.41406272408599</v>
       </c>
       <c r="E95">
         <v>16.7</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="D96">
-        <v>140.333120523151</v>
+        <v>184.754785075363</v>
       </c>
       <c r="E96">
         <v>22.3</v>
@@ -3291,7 +3291,7 @@
         <v>31</v>
       </c>
       <c r="D97">
-        <v>164.90164752257999</v>
+        <v>209.90801907252199</v>
       </c>
       <c r="E97">
         <v>22.6</v>
@@ -3314,7 +3314,7 @@
         <v>32</v>
       </c>
       <c r="D98">
-        <v>136.290817146546</v>
+        <v>173.89090005857699</v>
       </c>
       <c r="E98">
         <v>18.8</v>
@@ -3337,7 +3337,7 @@
         <v>33</v>
       </c>
       <c r="D99">
-        <v>196.91672278452</v>
+        <v>250.498796967831</v>
       </c>
       <c r="E99">
         <v>27</v>
@@ -3360,7 +3360,7 @@
         <v>34</v>
       </c>
       <c r="D100">
-        <v>207.77633894613399</v>
+        <v>264.86665511582203</v>
       </c>
       <c r="E100">
         <v>28.8</v>
@@ -3383,7 +3383,7 @@
         <v>35</v>
       </c>
       <c r="D101">
-        <v>144.55932684482099</v>
+        <v>189.17589372960899</v>
       </c>
       <c r="E101">
         <v>22.4</v>
@@ -3406,7 +3406,7 @@
         <v>36</v>
       </c>
       <c r="D102">
-        <v>114.894423142519</v>
+        <v>152.29960372197399</v>
       </c>
       <c r="E102">
         <v>18.7</v>
@@ -3429,7 +3429,7 @@
         <v>37</v>
       </c>
       <c r="D103">
-        <v>170.344557323549</v>
+        <v>211.842686887112</v>
       </c>
       <c r="E103">
         <v>20.8</v>
@@ -3452,7 +3452,7 @@
         <v>38</v>
       </c>
       <c r="D104">
-        <v>183.58454968070399</v>
+        <v>236.97172153143799</v>
       </c>
       <c r="E104">
         <v>26.9</v>
@@ -3475,7 +3475,7 @@
         <v>39</v>
       </c>
       <c r="D105">
-        <v>134.63213551216199</v>
+        <v>172.816925421923</v>
       </c>
       <c r="E105">
         <v>19.100000000000001</v>
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>43.886341919871903</v>
+        <v>35.566590250733803</v>
       </c>
       <c r="E106">
         <v>12.2</v>
@@ -3521,7 +3521,7 @@
         <v>2</v>
       </c>
       <c r="D107">
-        <v>80.487221270404802</v>
+        <v>67.224168423478204</v>
       </c>
       <c r="E107">
         <v>18.7</v>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
       <c r="D108">
-        <v>120.24120451005</v>
+        <v>102.339053634737</v>
       </c>
       <c r="E108">
         <v>24.8</v>
@@ -3567,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>91.523254214487594</v>
+        <v>74.001357275927802</v>
       </c>
       <c r="E109">
         <v>24.3</v>
@@ -3590,7 +3590,7 @@
         <v>5</v>
       </c>
       <c r="D110">
-        <v>105.528558779108</v>
+        <v>89.6797791622608</v>
       </c>
       <c r="E110">
         <v>22.1</v>
@@ -3613,7 +3613,7 @@
         <v>6</v>
       </c>
       <c r="D111">
-        <v>87.669869272626499</v>
+        <v>72.125292805182099</v>
       </c>
       <c r="E111">
         <v>21.7</v>
@@ -3636,7 +3636,7 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <v>114.282288730555</v>
+        <v>97.749052027553205</v>
       </c>
       <c r="E112">
         <v>23</v>
@@ -3659,7 +3659,7 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <v>121.30904604698399</v>
+        <v>99.908558953543903</v>
       </c>
       <c r="E113">
         <v>29.4</v>
@@ -3682,7 +3682,7 @@
         <v>9</v>
       </c>
       <c r="D114">
-        <v>111.07709360345</v>
+        <v>94.543856900448006</v>
       </c>
       <c r="E114">
         <v>23</v>
@@ -3705,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="D115">
-        <v>88.726339052621697</v>
+        <v>77.364555889459993</v>
       </c>
       <c r="E115">
         <v>16.2</v>
@@ -3728,7 +3728,7 @@
         <v>11</v>
       </c>
       <c r="D116">
-        <v>59.240561904936897</v>
+        <v>47.346423230321001</v>
       </c>
       <c r="E116">
         <v>16.899999999999999</v>
@@ -3751,7 +3751,7 @@
         <v>12</v>
       </c>
       <c r="D117">
-        <v>88.415734011002499</v>
+        <v>71.121989434494495</v>
       </c>
       <c r="E117">
         <v>24</v>
@@ -3774,7 +3774,7 @@
         <v>13</v>
       </c>
       <c r="D118">
-        <v>95.649530513659599</v>
+        <v>82.310426879382405</v>
       </c>
       <c r="E118">
         <v>18.8</v>
@@ -3797,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="D119">
-        <v>113.15359119886401</v>
+        <v>94.643034024746498</v>
       </c>
       <c r="E119">
         <v>25.6</v>
@@ -3820,7 +3820,7 @@
         <v>15</v>
       </c>
       <c r="D120">
-        <v>103.912616406878</v>
+        <v>85.173906870709203</v>
       </c>
       <c r="E120">
         <v>25.9</v>
@@ -3843,7 +3843,7 @@
         <v>16</v>
       </c>
       <c r="D121">
-        <v>124.651507618184</v>
+        <v>104.163629972951</v>
       </c>
       <c r="E121">
         <v>28.2</v>
@@ -3866,7 +3866,7 @@
         <v>17</v>
       </c>
       <c r="D122">
-        <v>102.732099356909</v>
+        <v>87.719878400918901</v>
       </c>
       <c r="E122">
         <v>21</v>
@@ -3889,7 +3889,7 @@
         <v>18</v>
       </c>
       <c r="D123">
-        <v>79.356639756336804</v>
+        <v>66.625942420864405</v>
       </c>
       <c r="E123">
         <v>18</v>
@@ -3912,7 +3912,7 @@
         <v>19</v>
       </c>
       <c r="D124">
-        <v>70.253671678464002</v>
+        <v>56.001958595979701</v>
       </c>
       <c r="E124">
         <v>20</v>
@@ -3935,7 +3935,7 @@
         <v>20</v>
       </c>
       <c r="D125">
-        <v>17.0502563817703</v>
+        <v>12.304891718109999</v>
       </c>
       <c r="E125">
         <v>7.5</v>
@@ -3958,7 +3958,7 @@
         <v>21</v>
       </c>
       <c r="D126">
-        <v>49.818380887098797</v>
+        <v>39.293156384793498</v>
       </c>
       <c r="E126">
         <v>15.1</v>
@@ -3981,7 +3981,7 @@
         <v>22</v>
       </c>
       <c r="D127">
-        <v>97.5934175761532</v>
+        <v>80.984130085800601</v>
       </c>
       <c r="E127">
         <v>23.1</v>
@@ -4004,7 +4004,7 @@
         <v>23</v>
       </c>
       <c r="D128">
-        <v>98.586824163533606</v>
+        <v>84.639314230451703</v>
       </c>
       <c r="E128">
         <v>19.600000000000001</v>
@@ -4027,7 +4027,7 @@
         <v>24</v>
       </c>
       <c r="D129">
-        <v>83.744758462011504</v>
+        <v>68.048080419865997</v>
       </c>
       <c r="E129">
         <v>21.9</v>
@@ -4050,7 +4050,7 @@
         <v>25</v>
       </c>
       <c r="D130">
-        <v>48.056547172932198</v>
+        <v>37.987627394730502</v>
       </c>
       <c r="E130">
         <v>14.5</v>
@@ -4073,7 +4073,7 @@
         <v>26</v>
       </c>
       <c r="D131">
-        <v>57.235262917279499</v>
+        <v>45.873479754117703</v>
       </c>
       <c r="E131">
         <v>16.2</v>
@@ -4096,7 +4096,7 @@
         <v>27</v>
       </c>
       <c r="D132">
-        <v>79.773401513696797</v>
+        <v>66.510348666770199</v>
       </c>
       <c r="E132">
         <v>18.7</v>
@@ -4119,7 +4119,7 @@
         <v>28</v>
       </c>
       <c r="D133">
-        <v>75.083317360128703</v>
+        <v>63.721534196966999</v>
       </c>
       <c r="E133">
         <v>16.2</v>
@@ -4142,7 +4142,7 @@
         <v>29</v>
       </c>
       <c r="D134">
-        <v>101.165052078423</v>
+        <v>85.240221674225694</v>
       </c>
       <c r="E134">
         <v>22.2</v>
@@ -4165,7 +4165,7 @@
         <v>30</v>
       </c>
       <c r="D135">
-        <v>46.108161803279103</v>
+        <v>36.723699111232698</v>
       </c>
       <c r="E135">
         <v>13.6</v>
@@ -4188,7 +4188,7 @@
         <v>31</v>
       </c>
       <c r="D136">
-        <v>124.737821996281</v>
+        <v>105.999112460112</v>
       </c>
       <c r="E136">
         <v>25.9</v>
@@ -4211,7 +4211,7 @@
         <v>32</v>
       </c>
       <c r="D137">
-        <v>115.18561459546601</v>
+        <v>97.511616082204995</v>
       </c>
       <c r="E137">
         <v>24.5</v>
@@ -4234,7 +4234,7 @@
         <v>33</v>
       </c>
       <c r="D138">
-        <v>63.890302096865497</v>
+        <v>54.429788617468503</v>
       </c>
       <c r="E138">
         <v>13.7</v>
@@ -4257,7 +4257,7 @@
         <v>34</v>
       </c>
       <c r="D139">
-        <v>88.043787735216895</v>
+        <v>70.5979415840077</v>
       </c>
       <c r="E139">
         <v>24.2</v>
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="D140">
-        <v>23.322501941891101</v>
+        <v>17.968730979426201</v>
       </c>
       <c r="E140">
         <v>8.3000000000000007</v>
@@ -4303,7 +4303,7 @@
         <v>36</v>
       </c>
       <c r="D141">
-        <v>92.766752846377102</v>
+        <v>76.157465356024503</v>
       </c>
       <c r="E141">
         <v>23.1</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>129.507702536209</v>
+        <v>179.899062404707</v>
       </c>
       <c r="E142">
         <v>19.8</v>
@@ -4349,7 +4349,7 @@
         <v>2</v>
       </c>
       <c r="D143">
-        <v>21.401679989784199</v>
+        <v>42.333019521201599</v>
       </c>
       <c r="E143">
         <v>8</v>
@@ -4372,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="D144">
-        <v>172.23655681830101</v>
+        <v>222.87757787609601</v>
       </c>
       <c r="E144">
         <v>19.899999999999999</v>
@@ -4395,7 +4395,7 @@
         <v>4</v>
       </c>
       <c r="D145">
-        <v>170.44382751051299</v>
+        <v>220.33586500041599</v>
       </c>
       <c r="E145">
         <v>19.600000000000001</v>
@@ -4418,7 +4418,7 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>68.760089463892001</v>
+        <v>99.677876567200897</v>
       </c>
       <c r="E146">
         <v>12</v>
@@ -4441,7 +4441,7 @@
         <v>6</v>
       </c>
       <c r="D147">
-        <v>189.65586237542101</v>
+        <v>251.28197576229701</v>
       </c>
       <c r="E147">
         <v>24.3</v>
@@ -4464,7 +4464,7 @@
         <v>7</v>
       </c>
       <c r="D148">
-        <v>108.48867131276999</v>
+        <v>150.39155074515901</v>
       </c>
       <c r="E148">
         <v>16.399999999999999</v>
@@ -4487,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="D149">
-        <v>187.93134632693699</v>
+        <v>252.05407160678499</v>
       </c>
       <c r="E149">
         <v>25.3</v>
@@ -4510,7 +4510,7 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>121.731792944551</v>
+        <v>165.88162308061601</v>
       </c>
       <c r="E150">
         <v>17.3</v>
@@ -4533,7 +4533,7 @@
         <v>10</v>
       </c>
       <c r="D151">
-        <v>169.97518412836001</v>
+        <v>227.606718486479</v>
       </c>
       <c r="E151">
         <v>22.7</v>
@@ -4556,7 +4556,7 @@
         <v>11</v>
       </c>
       <c r="D152">
-        <v>56.889432672950299</v>
+        <v>85.060946693988996</v>
       </c>
       <c r="E152">
         <v>10.9</v>
@@ -4579,7 +4579,7 @@
         <v>12</v>
       </c>
       <c r="D153">
-        <v>89.363973813265702</v>
+        <v>117.53548783430401</v>
       </c>
       <c r="E153">
         <v>10.9</v>
@@ -4602,7 +4602,7 @@
         <v>13</v>
       </c>
       <c r="D154">
-        <v>206.101475635197</v>
+        <v>274.21877994380202</v>
       </c>
       <c r="E154">
         <v>26.9</v>
@@ -4625,7 +4625,7 @@
         <v>14</v>
       </c>
       <c r="D155">
-        <v>89.450860461123995</v>
+        <v>133.35102940789201</v>
       </c>
       <c r="E155">
         <v>17.2</v>
@@ -4648,7 +4648,7 @@
         <v>15</v>
       </c>
       <c r="D156">
-        <v>191.923846338956</v>
+        <v>255.047926861615</v>
       </c>
       <c r="E156">
         <v>24.9</v>
@@ -4671,7 +4671,7 @@
         <v>16</v>
       </c>
       <c r="D157">
-        <v>143.68343276099301</v>
+        <v>194.32445381878799</v>
       </c>
       <c r="E157">
         <v>19.899999999999999</v>
@@ -4694,7 +4694,7 @@
         <v>17</v>
       </c>
       <c r="D158">
-        <v>159.52331347455399</v>
+        <v>214.907897128998</v>
       </c>
       <c r="E158">
         <v>21.8</v>
@@ -4717,7 +4717,7 @@
         <v>18</v>
       </c>
       <c r="D159">
-        <v>228.57472524200401</v>
+        <v>304.681187608122</v>
       </c>
       <c r="E159">
         <v>30.1</v>
@@ -4740,7 +4740,7 @@
         <v>19</v>
       </c>
       <c r="D160">
-        <v>98.434936507213095</v>
+        <v>134.59560858576501</v>
       </c>
       <c r="E160">
         <v>14.1</v>
@@ -4763,7 +4763,7 @@
         <v>20</v>
       </c>
       <c r="D161">
-        <v>127.37400823214401</v>
+        <v>168.777565285939</v>
       </c>
       <c r="E161">
         <v>16.2</v>
@@ -4786,7 +4786,7 @@
         <v>21</v>
       </c>
       <c r="D162">
-        <v>134.02303150549099</v>
+        <v>180.669473534529</v>
       </c>
       <c r="E162">
         <v>18.3</v>
@@ -4809,7 +4809,7 @@
         <v>22</v>
       </c>
       <c r="D163">
-        <v>136.660345598844</v>
+        <v>184.05577119577401</v>
       </c>
       <c r="E163">
         <v>18.600000000000001</v>
@@ -4832,7 +4832,7 @@
         <v>23</v>
       </c>
       <c r="D164">
-        <v>167.316840126784</v>
+        <v>222.202101402632</v>
       </c>
       <c r="E164">
         <v>21.6</v>
@@ -4855,7 +4855,7 @@
         <v>24</v>
       </c>
       <c r="D165">
-        <v>235.33567306401901</v>
+        <v>309.195184726462</v>
       </c>
       <c r="E165">
         <v>29.2</v>
@@ -4878,7 +4878,7 @@
         <v>25</v>
       </c>
       <c r="D166">
-        <v>110.443597827077</v>
+        <v>149.10088179860199</v>
       </c>
       <c r="E166">
         <v>15.1</v>
@@ -4901,7 +4901,7 @@
         <v>26</v>
       </c>
       <c r="D167">
-        <v>230.890024491438</v>
+        <v>309.24343756123199</v>
       </c>
       <c r="E167">
         <v>31</v>
@@ -4924,7 +4924,7 @@
         <v>27</v>
       </c>
       <c r="D168">
-        <v>164.70112728415501</v>
+        <v>213.09519763827399</v>
       </c>
       <c r="E168">
         <v>19</v>
@@ -4947,7 +4947,7 @@
         <v>28</v>
       </c>
       <c r="D169">
-        <v>184.69228567544701</v>
+        <v>247.81636619810601</v>
       </c>
       <c r="E169">
         <v>24.9</v>
@@ -4970,7 +4970,7 @@
         <v>29</v>
       </c>
       <c r="D170">
-        <v>117.60719167996901</v>
+        <v>157.76244278727799</v>
       </c>
       <c r="E170">
         <v>15.7</v>
@@ -4993,7 +4993,7 @@
         <v>30</v>
       </c>
       <c r="D171">
-        <v>120.563164428544</v>
+        <v>165.212316943204</v>
       </c>
       <c r="E171">
         <v>17.5</v>
@@ -5016,7 +5016,7 @@
         <v>31</v>
       </c>
       <c r="D172">
-        <v>177.92774685344</v>
+        <v>238.55521548312601</v>
       </c>
       <c r="E172">
         <v>23.9</v>
@@ -5039,7 +5039,7 @@
         <v>32</v>
       </c>
       <c r="D173">
-        <v>44.355315433672899</v>
+        <v>69.031572804549498</v>
       </c>
       <c r="E173">
         <v>9.5</v>
@@ -5062,7 +5062,7 @@
         <v>33</v>
       </c>
       <c r="D174">
-        <v>139.873976600373</v>
+        <v>190.26533646887</v>
       </c>
       <c r="E174">
         <v>19.8</v>
@@ -5085,7 +5085,7 @@
         <v>34</v>
       </c>
       <c r="D175">
-        <v>144.664381509295</v>
+        <v>190.56183997044101</v>
       </c>
       <c r="E175">
         <v>18</v>
@@ -5108,7 +5108,7 @@
         <v>35</v>
       </c>
       <c r="D176">
-        <v>144.09643798171601</v>
+        <v>193.48915309302399</v>
       </c>
       <c r="E176">
         <v>19.399999999999999</v>
@@ -5131,7 +5131,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>175.24400045450301</v>
+        <v>219.055077040947</v>
       </c>
       <c r="E177">
         <v>29</v>
@@ -5154,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="D178">
-        <v>70.119421524712394</v>
+        <v>94.657099748722899</v>
       </c>
       <c r="E178">
         <v>15.9</v>
@@ -5177,7 +5177,7 @@
         <v>3</v>
       </c>
       <c r="D179">
-        <v>159.990660249516</v>
+        <v>204.53736272765599</v>
       </c>
       <c r="E179">
         <v>29.5</v>
@@ -5200,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="D180">
-        <v>129.95583536566599</v>
+        <v>165.675027143455</v>
       </c>
       <c r="E180">
         <v>23.5</v>
@@ -5223,7 +5223,7 @@
         <v>5</v>
       </c>
       <c r="D181">
-        <v>133.34216875524299</v>
+        <v>169.35561088970999</v>
       </c>
       <c r="E181">
         <v>23.7</v>
@@ -5246,7 +5246,7 @@
         <v>6</v>
       </c>
       <c r="D182">
-        <v>178.694821354129</v>
+        <v>219.26914401711099</v>
       </c>
       <c r="E182">
         <v>26.8</v>
@@ -5269,7 +5269,7 @@
         <v>7</v>
       </c>
       <c r="D183">
-        <v>85.077511465168996</v>
+        <v>111.38069182925</v>
       </c>
       <c r="E183">
         <v>17.100000000000001</v>
@@ -5292,7 +5292,7 @@
         <v>8</v>
       </c>
       <c r="D184">
-        <v>71.854513580397196</v>
+        <v>96.539316982746897</v>
       </c>
       <c r="E184">
         <v>16</v>
@@ -5315,7 +5315,7 @@
         <v>9</v>
       </c>
       <c r="D185">
-        <v>76.511422692386503</v>
+        <v>103.10885341314599</v>
       </c>
       <c r="E185">
         <v>17.3</v>
@@ -5338,7 +5338,7 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>127.14345772062499</v>
+        <v>163.59827539010899</v>
       </c>
       <c r="E186">
         <v>24</v>
@@ -5361,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="D187">
-        <v>82.837038282400002</v>
+        <v>108.257467576446</v>
       </c>
       <c r="E187">
         <v>16.5</v>
@@ -5384,7 +5384,7 @@
         <v>12</v>
       </c>
       <c r="D188">
-        <v>63.653485630522702</v>
+        <v>84.807284752731903</v>
       </c>
       <c r="E188">
         <v>13.6</v>
@@ -5407,7 +5407,7 @@
         <v>13</v>
       </c>
       <c r="D189">
-        <v>194.89114771140399</v>
+        <v>242.968854469684</v>
       </c>
       <c r="E189">
         <v>31.9</v>
@@ -5430,7 +5430,7 @@
         <v>14</v>
       </c>
       <c r="D190">
-        <v>74.367663961935804</v>
+        <v>96.845589689197695</v>
       </c>
       <c r="E190">
         <v>14.5</v>
@@ -5453,7 +5453,7 @@
         <v>15</v>
       </c>
       <c r="D191">
-        <v>109.569422878068</v>
+        <v>141.61048519737801</v>
       </c>
       <c r="E191">
         <v>21</v>
@@ -5476,7 +5476,7 @@
         <v>16</v>
       </c>
       <c r="D192">
-        <v>90.415910269683806</v>
+        <v>120.10296973556601</v>
       </c>
       <c r="E192">
         <v>19.399999999999999</v>
@@ -5499,7 +5499,7 @@
         <v>17</v>
       </c>
       <c r="D193">
-        <v>63.417496971467401</v>
+        <v>83.835670201980605</v>
       </c>
       <c r="E193">
         <v>13.1</v>
@@ -5522,7 +5522,7 @@
         <v>18</v>
       </c>
       <c r="D194">
-        <v>108.627292322378</v>
+        <v>142.58098196009601</v>
       </c>
       <c r="E194">
         <v>22.3</v>
@@ -5545,7 +5545,7 @@
         <v>19</v>
       </c>
       <c r="D195">
-        <v>161.90264484373901</v>
+        <v>199.53446393993801</v>
       </c>
       <c r="E195">
         <v>24.8</v>
@@ -5568,7 +5568,7 @@
         <v>20</v>
       </c>
       <c r="D196">
-        <v>111.788335281404</v>
+        <v>142.358145817321</v>
       </c>
       <c r="E196">
         <v>20</v>
@@ -5591,7 +5591,7 @@
         <v>21</v>
       </c>
       <c r="D197">
-        <v>79.183649236075397</v>
+        <v>103.279951925068</v>
       </c>
       <c r="E197">
         <v>15.6</v>
@@ -5614,7 +5614,7 @@
         <v>22</v>
       </c>
       <c r="D198">
-        <v>71.370893641974703</v>
+        <v>98.556825076090604</v>
       </c>
       <c r="E198">
         <v>17.7</v>
@@ -5637,7 +5637,7 @@
         <v>23</v>
       </c>
       <c r="D199">
-        <v>59.976310999766099</v>
+        <v>76.422104415121296</v>
       </c>
       <c r="E199">
         <v>10.4</v>
@@ -5660,7 +5660,7 @@
         <v>24</v>
       </c>
       <c r="D200">
-        <v>115.736557429003</v>
+        <v>148.95462117502501</v>
       </c>
       <c r="E200">
         <v>21.8</v>
@@ -5683,7 +5683,7 @@
         <v>25</v>
       </c>
       <c r="D201">
-        <v>98.6137681511739</v>
+        <v>125.79969958529</v>
       </c>
       <c r="E201">
         <v>17.7</v>
@@ -5706,7 +5706,7 @@
         <v>26</v>
       </c>
       <c r="D202">
-        <v>105.612404985016</v>
+        <v>138.536218374361</v>
       </c>
       <c r="E202">
         <v>21.6</v>
@@ -5729,7 +5729,7 @@
         <v>27</v>
       </c>
       <c r="D203">
-        <v>93.172842718266196</v>
+        <v>121.68290075743499</v>
       </c>
       <c r="E203">
         <v>18.600000000000001</v>
@@ -5752,7 +5752,7 @@
         <v>28</v>
       </c>
       <c r="D204">
-        <v>133.47605498467499</v>
+        <v>172.13775032924701</v>
       </c>
       <c r="E204">
         <v>25.5</v>
@@ -5775,7 +5775,7 @@
         <v>29</v>
       </c>
       <c r="D205">
-        <v>114.476106871029</v>
+        <v>146.22291883365901</v>
       </c>
       <c r="E205">
         <v>20.8</v>
@@ -5798,7 +5798,7 @@
         <v>30</v>
       </c>
       <c r="D206">
-        <v>181.037599061469</v>
+        <v>231.46930867317701</v>
       </c>
       <c r="E206">
         <v>33.5</v>
@@ -5821,7 +5821,7 @@
         <v>31</v>
       </c>
       <c r="D207">
-        <v>111.14676861344</v>
+        <v>143.776331646106</v>
       </c>
       <c r="E207">
         <v>21.4</v>
@@ -5844,7 +5844,7 @@
         <v>32</v>
       </c>
       <c r="D208">
-        <v>93.767647847377404</v>
+        <v>124.043208026616</v>
       </c>
       <c r="E208">
         <v>19.8</v>
@@ -5867,7 +5867,7 @@
         <v>33</v>
       </c>
       <c r="D209">
-        <v>82.494734394496604</v>
+        <v>105.855411191794</v>
       </c>
       <c r="E209">
         <v>15.1</v>
@@ -5890,7 +5890,7 @@
         <v>34</v>
       </c>
       <c r="D210">
-        <v>96.554131624324199</v>
+        <v>128.742319121972</v>
       </c>
       <c r="E210">
         <v>21.1</v>
@@ -5913,7 +5913,7 @@
         <v>35</v>
       </c>
       <c r="D211">
-        <v>89.369478822044002</v>
+        <v>112.73015561934101</v>
       </c>
       <c r="E211">
         <v>15.1</v>
@@ -5936,7 +5936,7 @@
         <v>36</v>
       </c>
       <c r="D212">
-        <v>130.80642039617001</v>
+        <v>165.348610747245</v>
       </c>
       <c r="E212">
         <v>22.7</v>
@@ -5959,7 +5959,7 @@
         <v>37</v>
       </c>
       <c r="D213">
-        <v>80.071214879233295</v>
+        <v>102.990516141513</v>
       </c>
       <c r="E213">
         <v>14.8</v>
@@ -5982,7 +5982,7 @@
         <v>38</v>
       </c>
       <c r="D214">
-        <v>124.287892528377</v>
+        <v>158.09445698775701</v>
       </c>
       <c r="E214">
         <v>22.2</v>
@@ -6005,7 +6005,7 @@
         <v>39</v>
       </c>
       <c r="D215">
-        <v>87.241310105946297</v>
+        <v>115.01574225341901</v>
       </c>
       <c r="E215">
         <v>18.100000000000001</v>
@@ -6028,7 +6028,7 @@
         <v>40</v>
       </c>
       <c r="D216">
-        <v>55.568043471126401</v>
+        <v>74.514964918247699</v>
       </c>
       <c r="E216">
         <v>12.1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>70.263539273233306</v>
+        <v>43.453780290257903</v>
       </c>
       <c r="E217">
         <v>26.1</v>
@@ -6074,7 +6074,7 @@
         <v>2</v>
       </c>
       <c r="D218">
-        <v>40.571122945687698</v>
+        <v>16.7603177858139</v>
       </c>
       <c r="E218">
         <v>23.3</v>
@@ -6097,7 +6097,7 @@
         <v>3</v>
       </c>
       <c r="D219">
-        <v>26.297712672778498</v>
+        <v>12.2335074379852</v>
       </c>
       <c r="E219">
         <v>14.2</v>
@@ -6120,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="D220">
-        <v>47.301377590824998</v>
+        <v>27.8818976719216</v>
       </c>
       <c r="E220">
         <v>19.2</v>
@@ -6143,7 +6143,7 @@
         <v>5</v>
       </c>
       <c r="D221">
-        <v>24.5662026278683</v>
+        <v>9.5380479499351907</v>
       </c>
       <c r="E221">
         <v>15.1</v>
@@ -6166,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="D222">
-        <v>41.192539187695097</v>
+        <v>24.236485623482299</v>
       </c>
       <c r="E222">
         <v>16.899999999999999</v>
@@ -6189,7 +6189,7 @@
         <v>7</v>
       </c>
       <c r="D223">
-        <v>70.256512746134803</v>
+        <v>47.302551535718699</v>
       </c>
       <c r="E223">
         <v>22.5</v>
@@ -6212,7 +6212,7 @@
         <v>8</v>
       </c>
       <c r="D224">
-        <v>58.005897786134199</v>
+        <v>33.016932195756198</v>
       </c>
       <c r="E224">
         <v>24.4</v>
@@ -6235,7 +6235,7 @@
         <v>9</v>
       </c>
       <c r="D225">
-        <v>74.636447189736103</v>
+        <v>49.433270611993699</v>
       </c>
       <c r="E225">
         <v>24.6</v>
@@ -6258,7 +6258,7 @@
         <v>10</v>
       </c>
       <c r="D226">
-        <v>56.834300594151799</v>
+        <v>32.809284446913601</v>
       </c>
       <c r="E226">
         <v>23.5</v>
@@ -6281,7 +6281,7 @@
         <v>11</v>
       </c>
       <c r="D227">
-        <v>49.557209549232802</v>
+        <v>30.030624136647099</v>
       </c>
       <c r="E227">
         <v>19.3</v>
@@ -6304,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="D228">
-        <v>-15.2811867121004</v>
+        <v>-17.777998629215901</v>
       </c>
       <c r="E228">
         <v>3.4</v>
@@ -6327,7 +6327,7 @@
         <v>13</v>
       </c>
       <c r="D229">
-        <v>55.335007812775899</v>
+        <v>32.166835614995399</v>
       </c>
       <c r="E229">
         <v>22.7</v>
@@ -6350,7 +6350,7 @@
         <v>14</v>
       </c>
       <c r="D230">
-        <v>81.290643648033594</v>
+        <v>56.194572563973502</v>
       </c>
       <c r="E230">
         <v>24.5</v>
@@ -6373,7 +6373,7 @@
         <v>15</v>
       </c>
       <c r="D231">
-        <v>65.128033713865904</v>
+        <v>42.281177997131998</v>
       </c>
       <c r="E231">
         <v>22.4</v>
@@ -6396,7 +6396,7 @@
         <v>16</v>
       </c>
       <c r="D232">
-        <v>45.6686431787167</v>
+        <v>31.818648931287701</v>
       </c>
       <c r="E232">
         <v>14</v>
@@ -6419,7 +6419,7 @@
         <v>17</v>
       </c>
       <c r="D233">
-        <v>64.173263145346993</v>
+        <v>41.433512922295201</v>
       </c>
       <c r="E233">
         <v>22.3</v>
@@ -6442,7 +6442,7 @@
         <v>18</v>
       </c>
       <c r="D234">
-        <v>67.376844023595893</v>
+        <v>41.852350964806902</v>
       </c>
       <c r="E234">
         <v>24.9</v>
@@ -6465,7 +6465,7 @@
         <v>19</v>
       </c>
       <c r="D235">
-        <v>24.8442208421435</v>
+        <v>12.493703506265399</v>
       </c>
       <c r="E235">
         <v>12.6</v>
@@ -6488,7 +6488,7 @@
         <v>20</v>
       </c>
       <c r="D236">
-        <v>79.621352659977802</v>
+        <v>56.5602859558795</v>
       </c>
       <c r="E236">
         <v>22.6</v>
@@ -6511,7 +6511,7 @@
         <v>21</v>
       </c>
       <c r="D237">
-        <v>81.499414365214903</v>
+        <v>48.049114773942897</v>
       </c>
       <c r="E237">
         <v>32.299999999999997</v>
@@ -6534,7 +6534,7 @@
         <v>22</v>
       </c>
       <c r="D238">
-        <v>24.781014642253901</v>
+        <v>13.2873412558334</v>
       </c>
       <c r="E238">
         <v>11.8</v>
@@ -6557,7 +6557,7 @@
         <v>23</v>
       </c>
       <c r="D239">
-        <v>91.827280722453494</v>
+        <v>67.2667371068043</v>
       </c>
       <c r="E239">
         <v>24</v>
@@ -6580,7 +6580,7 @@
         <v>24</v>
       </c>
       <c r="D240">
-        <v>61.650642521130401</v>
+        <v>43.195112045366798</v>
       </c>
       <c r="E240">
         <v>18.3</v>
@@ -6603,7 +6603,7 @@
         <v>25</v>
       </c>
       <c r="D241">
-        <v>16.9470838443353</v>
+        <v>4.1681445337284302</v>
       </c>
       <c r="E241">
         <v>13</v>
@@ -6626,7 +6626,7 @@
         <v>26</v>
       </c>
       <c r="D242">
-        <v>26.125722194958598</v>
+        <v>10.7762510359789</v>
       </c>
       <c r="E242">
         <v>15.4</v>
@@ -6649,7 +6649,7 @@
         <v>27</v>
       </c>
       <c r="D243">
-        <v>61.150234220643</v>
+        <v>40.873910352282003</v>
       </c>
       <c r="E243">
         <v>20</v>
@@ -6672,7 +6672,7 @@
         <v>28</v>
       </c>
       <c r="D244">
-        <v>37.570862957688099</v>
+        <v>19.436648962971098</v>
       </c>
       <c r="E244">
         <v>18</v>
@@ -6695,7 +6695,7 @@
         <v>29</v>
       </c>
       <c r="D245">
-        <v>12.946159538283</v>
+        <v>6.0114733993954901E-2</v>
       </c>
       <c r="E245">
         <v>13.1</v>
@@ -6718,7 +6718,7 @@
         <v>30</v>
       </c>
       <c r="D246">
-        <v>44.514162921448502</v>
+        <v>25.630210470956001</v>
       </c>
       <c r="E246">
         <v>18.7</v>
@@ -6741,7 +6741,7 @@
         <v>31</v>
       </c>
       <c r="D247">
-        <v>47.875055229341797</v>
+        <v>32.632689564044298</v>
       </c>
       <c r="E247">
         <v>15.3</v>
@@ -6764,7 +6764,7 @@
         <v>32</v>
       </c>
       <c r="D248">
-        <v>66.313475260621402</v>
+        <v>42.074248126018801</v>
       </c>
       <c r="E248">
         <v>23.7</v>
@@ -6787,7 +6787,7 @@
         <v>33</v>
       </c>
       <c r="D249">
-        <v>82.579445285019602</v>
+        <v>57.483374200959403</v>
       </c>
       <c r="E249">
         <v>24.5</v>
@@ -6810,7 +6810,7 @@
         <v>34</v>
       </c>
       <c r="D250">
-        <v>50.3118020023878</v>
+        <v>31.856271526624202</v>
       </c>
       <c r="E250">
         <v>18.3</v>
@@ -6833,7 +6833,7 @@
         <v>35</v>
       </c>
       <c r="D251">
-        <v>14.7336066614796</v>
+        <v>3.9896717308345302</v>
       </c>
       <c r="E251">
         <v>11.1</v>
@@ -6856,7 +6856,7 @@
         <v>1</v>
       </c>
       <c r="D252">
-        <v>108.859830958595</v>
+        <v>122.14833577926299</v>
       </c>
       <c r="E252">
         <v>22.3</v>
@@ -6879,7 +6879,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>39.777866020077603</v>
+        <v>46.477172077233703</v>
       </c>
       <c r="E253">
         <v>10.199999999999999</v>
@@ -6902,7 +6902,7 @@
         <v>3</v>
       </c>
       <c r="D254">
-        <v>72.312102532589194</v>
+        <v>82.932254134975807</v>
       </c>
       <c r="E254">
         <v>17.399999999999999</v>
@@ -6925,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="D255">
-        <v>101.675829629029</v>
+        <v>115.018790637826</v>
       </c>
       <c r="E255">
         <v>22.4</v>
@@ -6948,7 +6948,7 @@
         <v>5</v>
       </c>
       <c r="D256">
-        <v>131.71792041318199</v>
+        <v>146.204461372672</v>
       </c>
       <c r="E256">
         <v>24.5</v>
@@ -6971,7 +6971,7 @@
         <v>6</v>
       </c>
       <c r="D257">
-        <v>101.49586414797101</v>
+        <v>115.27447466179299</v>
       </c>
       <c r="E257">
         <v>23.2</v>
@@ -6994,7 +6994,7 @@
         <v>7</v>
       </c>
       <c r="D258">
-        <v>105.091056319979</v>
+        <v>119.740965843853</v>
       </c>
       <c r="E258">
         <v>24.8</v>
@@ -7017,7 +7017,7 @@
         <v>8</v>
       </c>
       <c r="D259">
-        <v>71.875147892883902</v>
+        <v>82.277474742757803</v>
       </c>
       <c r="E259">
         <v>17</v>
@@ -7040,7 +7040,7 @@
         <v>9</v>
       </c>
       <c r="D260">
-        <v>45.379920832549097</v>
+        <v>53.767368721679503</v>
       </c>
       <c r="E260">
         <v>13.3</v>
@@ -7063,7 +7063,7 @@
         <v>10</v>
       </c>
       <c r="D261">
-        <v>71.644666703946996</v>
+        <v>82.046993553820897</v>
       </c>
       <c r="E261">
         <v>17</v>
@@ -7086,7 +7086,7 @@
         <v>11</v>
       </c>
       <c r="D262">
-        <v>146.58771924533201</v>
+        <v>163.52478867059</v>
       </c>
       <c r="E262">
         <v>29</v>
@@ -7109,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="D263">
-        <v>126.097054612327</v>
+        <v>141.019245076841</v>
       </c>
       <c r="E263">
         <v>25.3</v>
@@ -7132,7 +7132,7 @@
         <v>13</v>
       </c>
       <c r="D264">
-        <v>80.782794613778506</v>
+        <v>92.001964285575497</v>
       </c>
       <c r="E264">
         <v>18.5</v>
@@ -7155,7 +7155,7 @@
         <v>14</v>
       </c>
       <c r="D265">
-        <v>73.790738905976596</v>
+        <v>83.594047686440206</v>
       </c>
       <c r="E265">
         <v>15.9</v>
@@ -7178,7 +7178,7 @@
         <v>15</v>
       </c>
       <c r="D266">
-        <v>121.759731712506</v>
+        <v>137.11757168204599</v>
       </c>
       <c r="E266">
         <v>26.1</v>
@@ -7201,7 +7201,7 @@
         <v>16</v>
       </c>
       <c r="D267">
-        <v>96.649110659077294</v>
+        <v>109.284141222207</v>
       </c>
       <c r="E267">
         <v>21.1</v>
@@ -7224,7 +7224,7 @@
         <v>17</v>
       </c>
       <c r="D268">
-        <v>102.098298243234</v>
+        <v>114.352135489467</v>
       </c>
       <c r="E268">
         <v>20.399999999999999</v>
@@ -7247,7 +7247,7 @@
         <v>18</v>
       </c>
       <c r="D269">
-        <v>35.205718560122598</v>
+        <v>41.414918924124898</v>
       </c>
       <c r="E269">
         <v>9.3000000000000007</v>
@@ -7270,7 +7270,7 @@
         <v>19</v>
       </c>
       <c r="D270">
-        <v>112.32694111889499</v>
+        <v>128.39271153410201</v>
       </c>
       <c r="E270">
         <v>27.4</v>
@@ -7293,7 +7293,7 @@
         <v>20</v>
       </c>
       <c r="D271">
-        <v>64.110256203117004</v>
+        <v>73.859108795452499</v>
       </c>
       <c r="E271">
         <v>15.8</v>
@@ -7316,7 +7316,7 @@
         <v>21</v>
       </c>
       <c r="D272">
-        <v>102.20889297584</v>
+        <v>115.334029232124</v>
       </c>
       <c r="E272">
         <v>22</v>
@@ -7339,7 +7339,7 @@
         <v>22</v>
       </c>
       <c r="D273">
-        <v>124.778427003902</v>
+        <v>139.21051177526201</v>
       </c>
       <c r="E273">
         <v>24.4</v>
@@ -7362,7 +7362,7 @@
         <v>23</v>
       </c>
       <c r="D274">
-        <v>129.984629522121</v>
+        <v>145.28801330353301</v>
       </c>
       <c r="E274">
         <v>26</v>
@@ -7385,7 +7385,7 @@
         <v>24</v>
       </c>
       <c r="D275">
-        <v>120.98293157181899</v>
+        <v>136.613052482</v>
       </c>
       <c r="E275">
         <v>26.6</v>
@@ -7408,7 +7408,7 @@
         <v>25</v>
       </c>
       <c r="D276">
-        <v>96.004474706070994</v>
+        <v>107.49592531850899</v>
       </c>
       <c r="E276">
         <v>19</v>
@@ -7431,7 +7431,7 @@
         <v>26</v>
       </c>
       <c r="D277">
-        <v>110.17690235248099</v>
+        <v>123.73768811379</v>
       </c>
       <c r="E277">
         <v>22.8</v>
@@ -7454,7 +7454,7 @@
         <v>27</v>
       </c>
       <c r="D278">
-        <v>36.179150987883801</v>
+        <v>42.551719916270699</v>
       </c>
       <c r="E278">
         <v>9.6</v>
@@ -7477,7 +7477,7 @@
         <v>28</v>
       </c>
       <c r="D279">
-        <v>83.783894287821795</v>
+        <v>95.765450593413604</v>
       </c>
       <c r="E279">
         <v>19.899999999999999</v>
@@ -7500,7 +7500,7 @@
         <v>29</v>
       </c>
       <c r="D280">
-        <v>115.441005428613</v>
+        <v>129.873090199974</v>
       </c>
       <c r="E280">
         <v>24.4</v>
@@ -7523,7 +7523,7 @@
         <v>30</v>
       </c>
       <c r="D281">
-        <v>79.903750310579596</v>
+        <v>91.014007606120103</v>
       </c>
       <c r="E281">
         <v>18.3</v>
@@ -7546,7 +7546,7 @@
         <v>31</v>
       </c>
       <c r="D282">
-        <v>95.847236200688201</v>
+        <v>105.051526911742</v>
       </c>
       <c r="E282">
         <v>14.8</v>
@@ -7569,7 +7569,7 @@
         <v>32</v>
       </c>
       <c r="D283">
-        <v>87.559886669592103</v>
+        <v>100.79393530213299</v>
       </c>
       <c r="E283">
         <v>22.2</v>
@@ -7592,7 +7592,7 @@
         <v>33</v>
       </c>
       <c r="D284">
-        <v>97.122640420435005</v>
+        <v>109.70321479543701</v>
       </c>
       <c r="E284">
         <v>21</v>
@@ -7615,7 +7615,7 @@
         <v>34</v>
       </c>
       <c r="D285">
-        <v>55.585233131394901</v>
+        <v>63.428119139243201</v>
       </c>
       <c r="E285">
         <v>12.3</v>
@@ -7638,7 +7638,7 @@
         <v>35</v>
       </c>
       <c r="D286">
-        <v>43.906402491827002</v>
+        <v>52.729499885983003</v>
       </c>
       <c r="E286">
         <v>14.1</v>
@@ -7661,7 +7661,7 @@
         <v>36</v>
       </c>
       <c r="D287">
-        <v>118.91009374527501</v>
+        <v>134.159021338559</v>
       </c>
       <c r="E287">
         <v>25.9</v>
@@ -7684,7 +7684,7 @@
         <v>37</v>
       </c>
       <c r="D288">
-        <v>67.0129402491539</v>
+        <v>77.905372792181595</v>
       </c>
       <c r="E288">
         <v>17.899999999999999</v>
@@ -7707,7 +7707,7 @@
         <v>1</v>
       </c>
       <c r="D289">
-        <v>32.152989688165199</v>
+        <v>23.011021087605901</v>
       </c>
       <c r="E289">
         <v>10.7</v>
@@ -7730,7 +7730,7 @@
         <v>2</v>
       </c>
       <c r="D290">
-        <v>60.358678528688998</v>
+        <v>39.968588565225801</v>
       </c>
       <c r="E290">
         <v>22.4</v>
@@ -7753,7 +7753,7 @@
         <v>3</v>
       </c>
       <c r="D291">
-        <v>25.0295666134034</v>
+        <v>9.2540905424136604</v>
       </c>
       <c r="E291">
         <v>17.600000000000001</v>
@@ -7776,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="D292">
-        <v>67.857252488764303</v>
+        <v>45.736682315623597</v>
       </c>
       <c r="E292">
         <v>24.2</v>
@@ -7799,7 +7799,7 @@
         <v>5</v>
       </c>
       <c r="D293">
-        <v>89.829826957215502</v>
+        <v>67.324705626368598</v>
       </c>
       <c r="E293">
         <v>24.6</v>
@@ -7822,7 +7822,7 @@
         <v>6</v>
       </c>
       <c r="D294">
-        <v>46.374111929926599</v>
+        <v>29.829533543524601</v>
       </c>
       <c r="E294">
         <v>18.399999999999999</v>
@@ -7845,7 +7845,7 @@
         <v>7</v>
       </c>
       <c r="D295">
-        <v>16.4921839957236</v>
+        <v>4.6583572912215701</v>
       </c>
       <c r="E295">
         <v>13.5</v>
@@ -7868,7 +7868,7 @@
         <v>8</v>
       </c>
       <c r="D296">
-        <v>121.339252234085</v>
+        <v>91.431521117395107</v>
       </c>
       <c r="E296">
         <v>32.299999999999997</v>
@@ -7891,7 +7891,7 @@
         <v>9</v>
       </c>
       <c r="D297">
-        <v>74.147301982835103</v>
+        <v>52.315145177974003</v>
       </c>
       <c r="E297">
         <v>23.9</v>
@@ -7914,7 +7914,7 @@
         <v>10</v>
       </c>
       <c r="D298">
-        <v>90.8571171490632</v>
+        <v>69.505649291334706</v>
       </c>
       <c r="E298">
         <v>23.4</v>
@@ -7937,7 +7937,7 @@
         <v>11</v>
       </c>
       <c r="D299">
-        <v>39.856517087111399</v>
+        <v>29.945446171139999</v>
       </c>
       <c r="E299">
         <v>11.5</v>
@@ -7960,7 +7960,7 @@
         <v>12</v>
       </c>
       <c r="D300">
-        <v>105.889168353538</v>
+        <v>82.518806917852601</v>
       </c>
       <c r="E300">
         <v>25.5</v>
@@ -7983,7 +7983,7 @@
         <v>13</v>
       </c>
       <c r="D301">
-        <v>49.029207159948399</v>
+        <v>32.484628773546397</v>
       </c>
       <c r="E301">
         <v>18.399999999999999</v>
@@ -8006,7 +8006,7 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>62.694674372098902</v>
+        <v>46.2462337751234</v>
       </c>
       <c r="E302">
         <v>18.3</v>
@@ -8029,7 +8029,7 @@
         <v>15</v>
       </c>
       <c r="D303">
-        <v>79.3517552101966</v>
+        <v>56.269807142790597</v>
       </c>
       <c r="E303">
         <v>25.2</v>
@@ -8052,7 +8052,7 @@
         <v>16</v>
       </c>
       <c r="D304">
-        <v>43.804858694796998</v>
+        <v>28.221658202660301</v>
       </c>
       <c r="E304">
         <v>17.399999999999999</v>
@@ -8075,7 +8075,7 @@
         <v>17</v>
       </c>
       <c r="D305">
-        <v>90.892192418818695</v>
+        <v>67.906382140839199</v>
       </c>
       <c r="E305">
         <v>25.1</v>
@@ -8098,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="D306">
-        <v>75.3298070907652</v>
+        <v>54.266752601316298</v>
       </c>
       <c r="E306">
         <v>23.1</v>
@@ -8121,7 +8121,7 @@
         <v>19</v>
       </c>
       <c r="D307">
-        <v>31.982102757962</v>
+        <v>17.648693528370199</v>
       </c>
       <c r="E307">
         <v>16.100000000000001</v>
@@ -8144,7 +8144,7 @@
         <v>20</v>
       </c>
       <c r="D308">
-        <v>63.747717157134502</v>
+        <v>42.396249299406001</v>
       </c>
       <c r="E308">
         <v>23.4</v>
@@ -8167,7 +8167,7 @@
         <v>21</v>
       </c>
       <c r="D309">
-        <v>58.185909942750797</v>
+        <v>41.064504819789597</v>
       </c>
       <c r="E309">
         <v>19</v>
@@ -8190,7 +8190,7 @@
         <v>22</v>
       </c>
       <c r="D310">
-        <v>75.093314723998702</v>
+        <v>52.972744550857897</v>
       </c>
       <c r="E310">
         <v>24.2</v>
@@ -8213,7 +8213,7 @@
         <v>23</v>
       </c>
       <c r="D311">
-        <v>55.423979337036101</v>
+        <v>38.7832631612076</v>
       </c>
       <c r="E311">
         <v>18.5</v>
@@ -8236,7 +8236,7 @@
         <v>24</v>
       </c>
       <c r="D312">
-        <v>82.516126126430294</v>
+        <v>62.895138478379302</v>
       </c>
       <c r="E312">
         <v>21.6</v>
@@ -8259,7 +8259,7 @@
         <v>25</v>
       </c>
       <c r="D313">
-        <v>28.640384107050401</v>
+        <v>17.094970770827899</v>
       </c>
       <c r="E313">
         <v>13.2</v>
@@ -8282,7 +8282,7 @@
         <v>26</v>
       </c>
       <c r="D314">
-        <v>78.378757779872601</v>
+        <v>58.853907921248201</v>
       </c>
       <c r="E314">
         <v>21.5</v>
@@ -8305,7 +8305,7 @@
         <v>27</v>
       </c>
       <c r="D315">
-        <v>85.738615339663994</v>
+        <v>61.022324852006903</v>
       </c>
       <c r="E315">
         <v>26.9</v>
@@ -8328,7 +8328,7 @@
         <v>28</v>
       </c>
       <c r="D316">
-        <v>39.944327843057799</v>
+        <v>21.092442510419101</v>
       </c>
       <c r="E316">
         <v>20.8</v>
@@ -8351,7 +8351,7 @@
         <v>29</v>
       </c>
       <c r="D317">
-        <v>86.768769501327995</v>
+        <v>63.5906836444954</v>
       </c>
       <c r="E317">
         <v>25.3</v>
@@ -8374,7 +8374,7 @@
         <v>30</v>
       </c>
       <c r="D318">
-        <v>35.428107714802401</v>
+        <v>24.940210062271699</v>
       </c>
       <c r="E318">
         <v>12.1</v>
@@ -8397,7 +8397,7 @@
         <v>31</v>
       </c>
       <c r="D319">
-        <v>72.763435993034705</v>
+        <v>56.507270974912302</v>
       </c>
       <c r="E319">
         <v>18.100000000000001</v>
@@ -8420,7 +8420,7 @@
         <v>32</v>
       </c>
       <c r="D320">
-        <v>59.642224527976097</v>
+        <v>37.425516565408799</v>
       </c>
       <c r="E320">
         <v>24.3</v>
@@ -8443,7 +8443,7 @@
         <v>33</v>
       </c>
       <c r="D321">
-        <v>76.751491916577706</v>
+        <v>55.976850795408403</v>
       </c>
       <c r="E321">
         <v>22.8</v>
@@ -8466,7 +8466,7 @@
         <v>34</v>
       </c>
       <c r="D322">
-        <v>41.3627801502439</v>
+        <v>30.2019179717276</v>
       </c>
       <c r="E322">
         <v>12.8</v>
@@ -8489,7 +8489,7 @@
         <v>35</v>
       </c>
       <c r="D323">
-        <v>40.126353821245601</v>
+        <v>26.850460275345601</v>
       </c>
       <c r="E323">
         <v>15</v>
@@ -8512,7 +8512,7 @@
         <v>36</v>
       </c>
       <c r="D324">
-        <v>21.518793632567998</v>
+        <v>7.95448671838846</v>
       </c>
       <c r="E324">
         <v>15.3</v>
@@ -8535,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="D325">
-        <v>76.523840509686906</v>
+        <v>76.593960587899204</v>
       </c>
       <c r="E325">
         <v>20.3</v>
@@ -8558,7 +8558,7 @@
         <v>2</v>
       </c>
       <c r="D326">
-        <v>71.884000967051506</v>
+        <v>72.123524755981705</v>
       </c>
       <c r="E326">
         <v>17.100000000000001</v>
@@ -8581,7 +8581,7 @@
         <v>3</v>
       </c>
       <c r="D327">
-        <v>81.599603727508196</v>
+        <v>81.627372878040902</v>
       </c>
       <c r="E327">
         <v>21.1</v>
@@ -8604,7 +8604,7 @@
         <v>4</v>
       </c>
       <c r="D328">
-        <v>60.462881865324903</v>
+        <v>60.771225911734298</v>
       </c>
       <c r="E328">
         <v>15.8</v>
@@ -8627,7 +8627,7 @@
         <v>5</v>
       </c>
       <c r="D329">
-        <v>82.468861392717798</v>
+        <v>82.591920130529402</v>
       </c>
       <c r="E329">
         <v>19.3</v>
@@ -8650,7 +8650,7 @@
         <v>6</v>
       </c>
       <c r="D330">
-        <v>93.344587558966097</v>
+        <v>93.282360988180002</v>
       </c>
       <c r="E330">
         <v>22.8</v>
@@ -8673,7 +8673,7 @@
         <v>7</v>
       </c>
       <c r="D331">
-        <v>128.598770641561</v>
+        <v>128.36714036005699</v>
       </c>
       <c r="E331">
         <v>26</v>
@@ -8696,7 +8696,7 @@
         <v>8</v>
       </c>
       <c r="D332">
-        <v>76.759473568393105</v>
+        <v>76.813712048725506</v>
       </c>
       <c r="E332">
         <v>20.6</v>
@@ -8719,7 +8719,7 @@
         <v>9</v>
       </c>
       <c r="D333">
-        <v>50.935322704708803</v>
+        <v>51.2754299468778</v>
       </c>
       <c r="E333">
         <v>15.2</v>
@@ -8742,7 +8742,7 @@
         <v>10</v>
       </c>
       <c r="D334">
-        <v>62.357047195835698</v>
+        <v>62.6177464486057</v>
       </c>
       <c r="E334">
         <v>16.7</v>
@@ -8765,7 +8765,7 @@
         <v>11</v>
       </c>
       <c r="D335">
-        <v>99.822106476239696</v>
+        <v>99.818112431012807</v>
       </c>
       <c r="E335">
         <v>21.7</v>
@@ -8788,7 +8788,7 @@
         <v>12</v>
       </c>
       <c r="D336">
-        <v>56.555653488488197</v>
+        <v>56.927523926416796</v>
       </c>
       <c r="E336">
         <v>14.6</v>
@@ -8811,7 +8811,7 @@
         <v>13</v>
       </c>
       <c r="D337">
-        <v>63.087671921670299</v>
+        <v>63.120734938162997</v>
       </c>
       <c r="E337">
         <v>21</v>
@@ -8834,7 +8834,7 @@
         <v>14</v>
       </c>
       <c r="D338">
-        <v>50.363658927771603</v>
+        <v>50.793761891259599</v>
       </c>
       <c r="E338">
         <v>13.5</v>
@@ -8857,7 +8857,7 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>75.558368241890093</v>
+        <v>75.739659505261002</v>
       </c>
       <c r="E339">
         <v>18.2</v>
@@ -8880,7 +8880,7 @@
         <v>16</v>
       </c>
       <c r="D340">
-        <v>56.378415003453199</v>
+        <v>56.633820390263303</v>
       </c>
       <c r="E340">
         <v>16.8</v>
@@ -8903,7 +8903,7 @@
         <v>17</v>
       </c>
       <c r="D341">
-        <v>94.774378215728703</v>
+        <v>94.569217264024203</v>
       </c>
       <c r="E341">
         <v>25.5</v>
@@ -8926,7 +8926,7 @@
         <v>18</v>
       </c>
       <c r="D342">
-        <v>88.113486810990807</v>
+        <v>88.109492765763903</v>
       </c>
       <c r="E342">
         <v>21.7</v>
@@ -8949,7 +8949,7 @@
         <v>19</v>
       </c>
       <c r="D343">
-        <v>82.639013439845996</v>
+        <v>82.809716971297107</v>
       </c>
       <c r="E343">
         <v>18.399999999999999</v>
@@ -8972,7 +8972,7 @@
         <v>20</v>
       </c>
       <c r="D344">
-        <v>95.777995856523304</v>
+        <v>95.911642326254807</v>
       </c>
       <c r="E344">
         <v>19.100000000000001</v>
@@ -8995,7 +8995,7 @@
         <v>21</v>
       </c>
       <c r="D345">
-        <v>94.028733426240194</v>
+        <v>94.098853504452507</v>
       </c>
       <c r="E345">
         <v>20.3</v>
@@ -9018,7 +9018,7 @@
         <v>22</v>
       </c>
       <c r="D346">
-        <v>92.365895584852197</v>
+        <v>92.287787416186305</v>
       </c>
       <c r="E346">
         <v>23.1</v>
@@ -9041,7 +9041,7 @@
         <v>23</v>
       </c>
       <c r="D347">
-        <v>65.922567069230993</v>
+        <v>66.087976734722105</v>
       </c>
       <c r="E347">
         <v>18.5</v>
@@ -9064,7 +9064,7 @@
         <v>24</v>
       </c>
       <c r="D348">
-        <v>-3.0102153203709801</v>
+        <v>-2.2148356056473602</v>
       </c>
       <c r="E348">
         <v>6.6</v>
@@ -9087,7 +9087,7 @@
         <v>25</v>
       </c>
       <c r="D349">
-        <v>66.212069840367803</v>
+        <v>66.626291205976003</v>
       </c>
       <c r="E349">
         <v>13.8</v>
@@ -9110,7 +9110,7 @@
         <v>26</v>
       </c>
       <c r="D350">
-        <v>95.7596561975691</v>
+        <v>95.692135760823007</v>
       </c>
       <c r="E350">
         <v>22.9</v>
@@ -9133,7 +9133,7 @@
         <v>27</v>
       </c>
       <c r="D351">
-        <v>99.700406850117105</v>
+        <v>99.484658166492807</v>
       </c>
       <c r="E351">
         <v>25.7</v>
@@ -9156,7 +9156,7 @@
         <v>28</v>
       </c>
       <c r="D352">
-        <v>105.702130910771</v>
+        <v>105.602847278266</v>
       </c>
       <c r="E352">
         <v>23.5</v>
@@ -9179,7 +9179,7 @@
         <v>29</v>
       </c>
       <c r="D353">
-        <v>105.15551790637601</v>
+        <v>105.167405459029</v>
       </c>
       <c r="E353">
         <v>21.4</v>
@@ -9202,7 +9202,7 @@
         <v>30</v>
       </c>
       <c r="D354">
-        <v>21.8353996726477</v>
+        <v>22.450787944733499</v>
       </c>
       <c r="E354">
         <v>10</v>
@@ -9225,7 +9225,7 @@
         <v>31</v>
       </c>
       <c r="D355">
-        <v>86.255026984380507</v>
+        <v>86.039278300756195</v>
       </c>
       <c r="E355">
         <v>25.7</v>
@@ -9248,7 +9248,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>92.929286042250695</v>
+        <v>108.41607651574699</v>
       </c>
       <c r="E356">
         <v>27.2</v>
@@ -9271,7 +9271,7 @@
         <v>2</v>
       </c>
       <c r="D357">
-        <v>63.111538584004201</v>
+        <v>72.874426072413101</v>
       </c>
       <c r="E357">
         <v>17.600000000000001</v>
@@ -9294,7 +9294,7 @@
         <v>3</v>
       </c>
       <c r="D358">
-        <v>146.579909730759</v>
+        <v>164.57090776023199</v>
       </c>
       <c r="E358">
         <v>31.4</v>
@@ -9317,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="D359">
-        <v>2.4780605598913001</v>
+        <v>4.6090774015167701</v>
       </c>
       <c r="E359">
         <v>4.8</v>
@@ -9340,7 +9340,7 @@
         <v>5</v>
       </c>
       <c r="D360">
-        <v>66.930396586729401</v>
+        <v>75.023812371154406</v>
       </c>
       <c r="E360">
         <v>14.8</v>
@@ -9363,7 +9363,7 @@
         <v>6</v>
       </c>
       <c r="D361">
-        <v>75.069653830573202</v>
+        <v>86.979004938390005</v>
       </c>
       <c r="E361">
         <v>21.2</v>
@@ -9386,7 +9386,7 @@
         <v>7</v>
       </c>
       <c r="D362">
-        <v>82.136007454046194</v>
+        <v>93.568366646439003</v>
       </c>
       <c r="E362">
         <v>20.399999999999999</v>
@@ -9409,7 +9409,7 @@
         <v>8</v>
       </c>
       <c r="D363">
-        <v>44.229784731887698</v>
+        <v>51.0114727488969</v>
       </c>
       <c r="E363">
         <v>12.6</v>
@@ -9432,7 +9432,7 @@
         <v>9</v>
       </c>
       <c r="D364">
-        <v>119.24687853391499</v>
+        <v>135.32990890169199</v>
       </c>
       <c r="E364">
         <v>28.2</v>
@@ -9455,7 +9455,7 @@
         <v>10</v>
       </c>
       <c r="D365">
-        <v>83.872357540554404</v>
+        <v>93.039005134683407</v>
       </c>
       <c r="E365">
         <v>16.600000000000001</v>
@@ -9478,7 +9478,7 @@
         <v>11</v>
       </c>
       <c r="D366">
-        <v>32.357154472152097</v>
+        <v>39.198466478589303</v>
       </c>
       <c r="E366">
         <v>12.7</v>
@@ -9501,7 +9501,7 @@
         <v>12</v>
       </c>
       <c r="D367">
-        <v>74.740458514809703</v>
+        <v>85.874697760062503</v>
       </c>
       <c r="E367">
         <v>19.899999999999999</v>
@@ -9524,7 +9524,7 @@
         <v>13</v>
       </c>
       <c r="D368">
-        <v>128.68166435117999</v>
+        <v>143.51259094096901</v>
       </c>
       <c r="E368">
         <v>26.1</v>
@@ -9547,7 +9547,7 @@
         <v>14</v>
       </c>
       <c r="D369">
-        <v>38.929744392681101</v>
+        <v>47.6790240608141</v>
       </c>
       <c r="E369">
         <v>15.9</v>
@@ -9570,7 +9570,7 @@
         <v>15</v>
       </c>
       <c r="D370">
-        <v>55.858301335537199</v>
+        <v>64.9057009508102</v>
       </c>
       <c r="E370">
         <v>16.399999999999999</v>
@@ -9593,7 +9593,7 @@
         <v>16</v>
       </c>
       <c r="D371">
-        <v>74.093217443634899</v>
+        <v>85.167832699459794</v>
       </c>
       <c r="E371">
         <v>19.8</v>
@@ -9616,7 +9616,7 @@
         <v>17</v>
       </c>
       <c r="D372">
-        <v>53.6672284895158</v>
+        <v>61.7010202845129</v>
       </c>
       <c r="E372">
         <v>14.7</v>
@@ -9639,7 +9639,7 @@
         <v>18</v>
       </c>
       <c r="D373">
-        <v>60.864329372012101</v>
+        <v>71.402328722984905</v>
       </c>
       <c r="E373">
         <v>18.899999999999999</v>
@@ -9662,7 +9662,7 @@
         <v>19</v>
       </c>
       <c r="D374">
-        <v>116.496903399128</v>
+        <v>128.88324642236901</v>
       </c>
       <c r="E374">
         <v>22</v>
@@ -9685,7 +9685,7 @@
         <v>20</v>
       </c>
       <c r="D375">
-        <v>111.149149427935</v>
+        <v>124.96646819744799</v>
       </c>
       <c r="E375">
         <v>24.4</v>
@@ -9708,7 +9708,7 @@
         <v>21</v>
       </c>
       <c r="D376">
-        <v>92.622993543289894</v>
+        <v>106.380688323375</v>
       </c>
       <c r="E376">
         <v>24.3</v>
@@ -9731,7 +9731,7 @@
         <v>22</v>
       </c>
       <c r="D377">
-        <v>68.838507942414907</v>
+        <v>78.005155536543896</v>
       </c>
       <c r="E377">
         <v>16.600000000000001</v>
@@ -9754,7 +9754,7 @@
         <v>23</v>
       </c>
       <c r="D378">
-        <v>63.414913947473401</v>
+        <v>73.8932893090183</v>
       </c>
       <c r="E378">
         <v>18.8</v>
@@ -9777,7 +9777,7 @@
         <v>24</v>
       </c>
       <c r="D379">
-        <v>109.434104666596</v>
+        <v>123.25142343610899</v>
       </c>
       <c r="E379">
         <v>24.4</v>
@@ -9800,7 +9800,7 @@
         <v>25</v>
       </c>
       <c r="D380">
-        <v>111.582566066124</v>
+        <v>125.51913281449301</v>
       </c>
       <c r="E380">
         <v>24.6</v>
@@ -9823,7 +9823,7 @@
         <v>26</v>
       </c>
       <c r="D381">
-        <v>97.528535290621505</v>
+        <v>109.914878313862</v>
       </c>
       <c r="E381">
         <v>22</v>
@@ -9846,7 +9846,7 @@
         <v>27</v>
       </c>
       <c r="D382">
-        <v>85.425232779224999</v>
+        <v>96.320976066765894</v>
       </c>
       <c r="E382">
         <v>19.5</v>
@@ -9869,7 +9869,7 @@
         <v>28</v>
       </c>
       <c r="D383">
-        <v>27.980219324098002</v>
+        <v>32.9731876582672</v>
       </c>
       <c r="E383">
         <v>9.6</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="D384">
-        <v>141.15324126473101</v>
+        <v>156.46115976994301</v>
       </c>
       <c r="E384">
         <v>26.9</v>
@@ -9915,7 +9915,7 @@
         <v>30</v>
       </c>
       <c r="D385">
-        <v>98.165374395716199</v>
+        <v>109.657357577537</v>
       </c>
       <c r="E385">
         <v>20.5</v>
@@ -9938,7 +9938,7 @@
         <v>31</v>
       </c>
       <c r="D386">
-        <v>85.427093834021406</v>
+        <v>96.561333079274306</v>
       </c>
       <c r="E386">
         <v>19.899999999999999</v>
@@ -9961,7 +9961,7 @@
         <v>32</v>
       </c>
       <c r="D387">
-        <v>85.387156784229006</v>
+        <v>95.865532145773798</v>
       </c>
       <c r="E387">
         <v>18.8</v>
@@ -9984,7 +9984,7 @@
         <v>33</v>
       </c>
       <c r="D388">
-        <v>48.545016786294703</v>
+        <v>58.009784327563601</v>
       </c>
       <c r="E388">
         <v>17.100000000000001</v>
@@ -10007,7 +10007,7 @@
         <v>34</v>
       </c>
       <c r="D389">
-        <v>52.0560651840361</v>
+        <v>61.341960757020999</v>
       </c>
       <c r="E389">
         <v>16.8</v>
@@ -10030,7 +10030,7 @@
         <v>35</v>
       </c>
       <c r="D390">
-        <v>69.257366529610394</v>
+        <v>79.437621944015206</v>
       </c>
       <c r="E390">
         <v>18.3</v>
@@ -10053,7 +10053,7 @@
         <v>36</v>
       </c>
       <c r="D391">
-        <v>42.267677944418701</v>
+        <v>48.453126067147799</v>
       </c>
       <c r="E391">
         <v>11.6</v>
@@ -10076,7 +10076,7 @@
         <v>37</v>
       </c>
       <c r="D392">
-        <v>110.002297323555</v>
+        <v>126.74119157504001</v>
       </c>
       <c r="E392">
         <v>29.3</v>
@@ -10099,7 +10099,7 @@
         <v>38</v>
       </c>
       <c r="D393">
-        <v>73.493989520680501</v>
+        <v>84.508980787077306</v>
       </c>
       <c r="E393">
         <v>19.7</v>
@@ -10122,7 +10122,7 @@
         <v>39</v>
       </c>
       <c r="D394">
-        <v>62.081528661450498</v>
+        <v>74.587119663547199</v>
       </c>
       <c r="E394">
         <v>22.2</v>
@@ -10145,7 +10145,7 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>81.984355685182194</v>
+        <v>93.365140785048197</v>
       </c>
       <c r="E395">
         <v>22.6</v>
@@ -10168,7 +10168,7 @@
         <v>2</v>
       </c>
       <c r="D396">
-        <v>92.573699201413405</v>
+        <v>105.776601431928</v>
       </c>
       <c r="E396">
         <v>26</v>
@@ -10191,7 +10191,7 @@
         <v>3</v>
       </c>
       <c r="D397">
-        <v>57.176031035360602</v>
+        <v>64.269481710170098</v>
       </c>
       <c r="E397">
         <v>14.6</v>
@@ -10214,7 +10214,7 @@
         <v>4</v>
       </c>
       <c r="D398">
-        <v>12.2397193656337</v>
+        <v>19.172394999503702</v>
       </c>
       <c r="E398">
         <v>14.3</v>
@@ -10237,7 +10237,7 @@
         <v>5</v>
       </c>
       <c r="D399">
-        <v>62.825209485997</v>
+        <v>73.241344340225197</v>
       </c>
       <c r="E399">
         <v>20.8</v>
@@ -10260,7 +10260,7 @@
         <v>6</v>
       </c>
       <c r="D400">
-        <v>64.863699725933799</v>
+        <v>73.511309129826202</v>
       </c>
       <c r="E400">
         <v>17.5</v>
@@ -10283,7 +10283,7 @@
         <v>7</v>
       </c>
       <c r="D401">
-        <v>128.566255028619</v>
+        <v>144.8774747173</v>
       </c>
       <c r="E401">
         <v>31.8</v>
@@ -10306,7 +10306,7 @@
         <v>8</v>
       </c>
       <c r="D402">
-        <v>2.2491682404330202</v>
+        <v>8.3779686696048898</v>
       </c>
       <c r="E402">
         <v>12.8</v>
@@ -10329,7 +10329,7 @@
         <v>9</v>
       </c>
       <c r="D403">
-        <v>21.3987699704956</v>
+        <v>27.0452452768486</v>
       </c>
       <c r="E403">
         <v>11.9</v>
@@ -10352,7 +10352,7 @@
         <v>10</v>
       </c>
       <c r="D404">
-        <v>103.264271966007</v>
+        <v>114.913015467439</v>
       </c>
       <c r="E404">
         <v>23.1</v>
@@ -10375,7 +10375,7 @@
         <v>11</v>
       </c>
       <c r="D405">
-        <v>111.33220343237601</v>
+        <v>123.302497015687</v>
       </c>
       <c r="E405">
         <v>23.7</v>
@@ -10398,7 +10398,7 @@
         <v>12</v>
       </c>
       <c r="D406">
-        <v>70.8589401327134</v>
+        <v>82.400500273518901</v>
       </c>
       <c r="E406">
         <v>22.9</v>
@@ -10421,7 +10421,7 @@
         <v>13</v>
       </c>
       <c r="D407">
-        <v>78.4423740325594</v>
+        <v>88.912100567100893</v>
       </c>
       <c r="E407">
         <v>20.9</v>
@@ -10444,7 +10444,7 @@
         <v>14</v>
       </c>
       <c r="D408">
-        <v>94.518216496602506</v>
+        <v>105.577451514589</v>
       </c>
       <c r="E408">
         <v>22</v>
@@ -10467,7 +10467,7 @@
         <v>15</v>
       </c>
       <c r="D409">
-        <v>54.557991760022297</v>
+        <v>61.0619339513866</v>
       </c>
       <c r="E409">
         <v>13.5</v>
@@ -10490,7 +10490,7 @@
         <v>16</v>
       </c>
       <c r="D410">
-        <v>67.332972408319094</v>
+        <v>79.035307590064306</v>
       </c>
       <c r="E410">
         <v>23.2</v>
@@ -10513,7 +10513,7 @@
         <v>17</v>
       </c>
       <c r="D411">
-        <v>39.957391920690597</v>
+        <v>46.782884193934102</v>
       </c>
       <c r="E411">
         <v>14.1</v>
@@ -10536,7 +10536,7 @@
         <v>18</v>
       </c>
       <c r="D412">
-        <v>68.967507361156905</v>
+        <v>77.239975002856994</v>
       </c>
       <c r="E412">
         <v>16.8</v>
@@ -10559,7 +10559,7 @@
         <v>19</v>
       </c>
       <c r="D413">
-        <v>5.7097365955988097</v>
+        <v>9.37331973036326</v>
       </c>
       <c r="E413">
         <v>8.1999999999999993</v>
@@ -10582,7 +10582,7 @@
         <v>20</v>
       </c>
       <c r="D414">
-        <v>47.644572066811598</v>
+        <v>54.630839380994701</v>
       </c>
       <c r="E414">
         <v>14.4</v>
@@ -10605,7 +10605,7 @@
         <v>21</v>
       </c>
       <c r="D415">
-        <v>103.121950343482</v>
+        <v>114.717102164601</v>
       </c>
       <c r="E415">
         <v>23</v>
@@ -10628,7 +10628,7 @@
         <v>22</v>
       </c>
       <c r="D416">
-        <v>97.384428592610007</v>
+        <v>108.87239705310201</v>
       </c>
       <c r="E416">
         <v>22.8</v>
@@ -10651,7 +10651,7 @@
         <v>23</v>
       </c>
       <c r="D417">
-        <v>57.235450687678302</v>
+        <v>66.794118656895293</v>
       </c>
       <c r="E417">
         <v>19.2</v>
@@ -10674,7 +10674,7 @@
         <v>24</v>
       </c>
       <c r="D418">
-        <v>32.882857955943898</v>
+        <v>39.708350229187403</v>
       </c>
       <c r="E418">
         <v>14.1</v>
@@ -10697,7 +10697,7 @@
         <v>25</v>
       </c>
       <c r="D419">
-        <v>103.185112405984</v>
+        <v>116.441606316812</v>
       </c>
       <c r="E419">
         <v>26.1</v>
@@ -10720,7 +10720,7 @@
         <v>26</v>
       </c>
       <c r="D420">
-        <v>38.582084202187602</v>
+        <v>43.9606011069746</v>
       </c>
       <c r="E420">
         <v>11.4</v>
@@ -10743,7 +10743,7 @@
         <v>27</v>
       </c>
       <c r="D421">
-        <v>63.008336336647702</v>
+        <v>72.781371027117501</v>
       </c>
       <c r="E421">
         <v>19.600000000000001</v>
@@ -10766,7 +10766,7 @@
         <v>28</v>
       </c>
       <c r="D422">
-        <v>45.730683552146402</v>
+        <v>54.056742874159703</v>
       </c>
       <c r="E422">
         <v>16.899999999999999</v>
@@ -10789,7 +10789,7 @@
         <v>29</v>
       </c>
       <c r="D423">
-        <v>36.02820687274</v>
+        <v>42.800107465670401</v>
       </c>
       <c r="E423">
         <v>14</v>
@@ -10812,7 +10812,7 @@
         <v>30</v>
       </c>
       <c r="D424">
-        <v>69.885232894781495</v>
+        <v>80.194184388383306</v>
       </c>
       <c r="E424">
         <v>20.6</v>
@@ -10835,7 +10835,7 @@
         <v>31</v>
       </c>
       <c r="D425">
-        <v>56.886383885813302</v>
+        <v>64.3013846425021</v>
       </c>
       <c r="E425">
         <v>15.2</v>
@@ -10858,7 +10858,7 @@
         <v>32</v>
       </c>
       <c r="D426">
-        <v>66.4614114641887</v>
+        <v>76.609587916850899</v>
       </c>
       <c r="E426">
         <v>20.3</v>
@@ -10881,7 +10881,7 @@
         <v>1</v>
       </c>
       <c r="D427">
-        <v>58.111088855475302</v>
+        <v>31.148690854512498</v>
       </c>
       <c r="E427">
         <v>22.2</v>
@@ -10904,7 +10904,7 @@
         <v>2</v>
       </c>
       <c r="D428">
-        <v>82.170705897152402</v>
+        <v>54.853828661729501</v>
       </c>
       <c r="E428">
         <v>22.5</v>
@@ -10927,7 +10927,7 @@
         <v>3</v>
       </c>
       <c r="D429">
-        <v>48.615464254905298</v>
+        <v>22.243864978042499</v>
       </c>
       <c r="E429">
         <v>21.7</v>
@@ -10950,7 +10950,7 @@
         <v>4</v>
       </c>
       <c r="D430">
-        <v>61.834169382749302</v>
+        <v>29.081943885605401</v>
       </c>
       <c r="E430">
         <v>27.1</v>
@@ -10973,7 +10973,7 @@
         <v>5</v>
       </c>
       <c r="D431">
-        <v>12.7550848720464</v>
+        <v>-5.4634920122348998</v>
       </c>
       <c r="E431">
         <v>14.8</v>
@@ -10996,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="D432">
-        <v>68.188516133127393</v>
+        <v>34.491012677423399</v>
       </c>
       <c r="E432">
         <v>27.9</v>
@@ -11019,7 +11019,7 @@
         <v>7</v>
       </c>
       <c r="D433">
-        <v>41.659520733514199</v>
+        <v>20.486950228732301</v>
       </c>
       <c r="E433">
         <v>17.3</v>
@@ -11042,7 +11042,7 @@
         <v>8</v>
       </c>
       <c r="D434">
-        <v>28.798813095202199</v>
+        <v>8.9259997834405898</v>
       </c>
       <c r="E434">
         <v>16.2</v>
@@ -11065,7 +11065,7 @@
         <v>9</v>
       </c>
       <c r="D435">
-        <v>66.934402441970207</v>
+        <v>38.435927758347098</v>
       </c>
       <c r="E435">
         <v>23.5</v>
@@ -11088,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="D436">
-        <v>69.213334849560496</v>
+        <v>44.141492765717999</v>
       </c>
       <c r="E436">
         <v>20.6</v>
@@ -11111,7 +11111,7 @@
         <v>11</v>
       </c>
       <c r="D437">
-        <v>59.720997562442001</v>
+        <v>31.2225228788189</v>
       </c>
       <c r="E437">
         <v>23.5</v>
@@ -11134,7 +11134,7 @@
         <v>12</v>
       </c>
       <c r="D438">
-        <v>54.143090019626101</v>
+        <v>31.552602577003999</v>
       </c>
       <c r="E438">
         <v>18.5</v>
@@ -11157,7 +11157,7 @@
         <v>13</v>
       </c>
       <c r="D439">
-        <v>46.4400458188559</v>
+        <v>17.114452921492699</v>
       </c>
       <c r="E439">
         <v>24.2</v>
@@ -11180,7 +11180,7 @@
         <v>14</v>
       </c>
       <c r="D440">
-        <v>60.855623109057099</v>
+        <v>35.901940770034599</v>
       </c>
       <c r="E440">
         <v>20.5</v>
@@ -11203,7 +11203,7 @@
         <v>15</v>
       </c>
       <c r="D441">
-        <v>46.576749206338803</v>
+        <v>20.914108398396198</v>
       </c>
       <c r="E441">
         <v>21.1</v>
@@ -11226,7 +11226,7 @@
         <v>16</v>
       </c>
       <c r="D442">
-        <v>32.438006690849498</v>
+        <v>7.9569633311071204</v>
       </c>
       <c r="E442">
         <v>20.100000000000001</v>
@@ -11249,7 +11249,7 @@
         <v>17</v>
       </c>
       <c r="D443">
-        <v>85.714715164466099</v>
+        <v>53.671448136242397</v>
       </c>
       <c r="E443">
         <v>26.5</v>
@@ -11272,7 +11272,7 @@
         <v>18</v>
       </c>
       <c r="D444">
-        <v>5.8611516474465404</v>
+        <v>-9.8760705956143493</v>
       </c>
       <c r="E444">
         <v>12.7</v>
@@ -11295,7 +11295,7 @@
         <v>19</v>
       </c>
       <c r="D445">
-        <v>38.440460352700498</v>
+        <v>23.6485160681998</v>
       </c>
       <c r="E445">
         <v>11.9</v>
@@ -11318,7 +11318,7 @@
         <v>20</v>
       </c>
       <c r="D446">
-        <v>54.217663976728801</v>
+        <v>28.673182913606201</v>
       </c>
       <c r="E446">
         <v>21</v>
@@ -11341,7 +11341,7 @@
         <v>21</v>
       </c>
       <c r="D447">
-        <v>79.278361825695995</v>
+        <v>44.635580411431903</v>
       </c>
       <c r="E447">
         <v>28.7</v>
@@ -11364,7 +11364,7 @@
         <v>22</v>
       </c>
       <c r="D448">
-        <v>40.946030960069798</v>
+        <v>16.1105083658673</v>
       </c>
       <c r="E448">
         <v>20.399999999999999</v>
@@ -11387,7 +11387,7 @@
         <v>23</v>
       </c>
       <c r="D449">
-        <v>32.813155682229301</v>
+        <v>11.1679461981674</v>
       </c>
       <c r="E449">
         <v>17.7</v>
@@ -11410,7 +11410,7 @@
         <v>24</v>
       </c>
       <c r="D450">
-        <v>35.4857479247245</v>
+        <v>21.284602364323899</v>
       </c>
       <c r="E450">
         <v>11.4</v>
@@ -11433,7 +11433,7 @@
         <v>25</v>
       </c>
       <c r="D451">
-        <v>76.624730628815797</v>
+        <v>45.999380538432398</v>
       </c>
       <c r="E451">
         <v>25.3</v>
@@ -11456,7 +11456,7 @@
         <v>26</v>
       </c>
       <c r="D452">
-        <v>59.614945821161598</v>
+        <v>32.416228330558702</v>
       </c>
       <c r="E452">
         <v>22.4</v>
@@ -11479,7 +11479,7 @@
         <v>27</v>
       </c>
       <c r="D453">
-        <v>40.7511011980991</v>
+        <v>15.561099369436601</v>
       </c>
       <c r="E453">
         <v>20.7</v>
@@ -11502,7 +11502,7 @@
         <v>28</v>
       </c>
       <c r="D454">
-        <v>56.8855439995476</v>
+        <v>27.914430336644401</v>
       </c>
       <c r="E454">
         <v>23.9</v>
@@ -11525,7 +11525,7 @@
         <v>29</v>
       </c>
       <c r="D455">
-        <v>48.803119409425697</v>
+        <v>29.284785332124098</v>
       </c>
       <c r="E455">
         <v>15.9</v>
@@ -11548,7 +11548,7 @@
         <v>30</v>
       </c>
       <c r="D456">
-        <v>57.861037147702199</v>
+        <v>32.080236594939599</v>
       </c>
       <c r="E456">
         <v>21.2</v>
@@ -11571,7 +11571,7 @@
         <v>1</v>
       </c>
       <c r="D457">
-        <v>31.915565497612</v>
+        <v>20.398741361059301</v>
       </c>
       <c r="E457">
         <v>15</v>
@@ -11594,7 +11594,7 @@
         <v>2</v>
       </c>
       <c r="D458">
-        <v>68.022359469371196</v>
+        <v>48.811600833066002</v>
       </c>
       <c r="E458">
         <v>25.7</v>
@@ -11617,7 +11617,7 @@
         <v>3</v>
       </c>
       <c r="D459">
-        <v>18.610907040381999</v>
+        <v>10.617473469136501</v>
       </c>
       <c r="E459">
         <v>10.1</v>
@@ -11640,7 +11640,7 @@
         <v>4</v>
       </c>
       <c r="D460">
-        <v>60.236758350485999</v>
+        <v>45.196543648626097</v>
       </c>
       <c r="E460">
         <v>19.899999999999999</v>
@@ -11663,7 +11663,7 @@
         <v>5</v>
       </c>
       <c r="D461">
-        <v>56.472259666392098</v>
+        <v>42.079198333670298</v>
       </c>
       <c r="E461">
         <v>19</v>
@@ -11686,7 +11686,7 @@
         <v>6</v>
       </c>
       <c r="D462">
-        <v>11.7337726632302</v>
+        <v>0.14504259677331</v>
       </c>
       <c r="E462">
         <v>15.1</v>
@@ -11709,7 +11709,7 @@
         <v>7</v>
       </c>
       <c r="D463">
-        <v>62.0674657666057</v>
+        <v>48.3934637329262</v>
       </c>
       <c r="E463">
         <v>18</v>
@@ -11732,7 +11732,7 @@
         <v>8</v>
       </c>
       <c r="D464">
-        <v>47.532820780876399</v>
+        <v>34.290254326622197</v>
       </c>
       <c r="E464">
         <v>17.399999999999999</v>
@@ -11755,7 +11755,7 @@
         <v>9</v>
       </c>
       <c r="D465">
-        <v>45.323209692394997</v>
+        <v>33.878291485746502</v>
       </c>
       <c r="E465">
         <v>14.9</v>
@@ -11778,7 +11778,7 @@
         <v>10</v>
       </c>
       <c r="D466">
-        <v>16.832500573058699</v>
+        <v>7.8323839831540099</v>
       </c>
       <c r="E466">
         <v>11.5</v>
@@ -11801,7 +11801,7 @@
         <v>11</v>
       </c>
       <c r="D467">
-        <v>90.254012849679398</v>
+        <v>68.742264456438804</v>
       </c>
       <c r="E467">
         <v>28.9</v>
@@ -11824,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="D468">
-        <v>41.586779079061699</v>
+        <v>32.011415049923201</v>
       </c>
       <c r="E468">
         <v>12.3</v>
@@ -11847,7 +11847,7 @@
         <v>13</v>
       </c>
       <c r="D469">
-        <v>44.913552681352897</v>
+        <v>30.4485854187269</v>
       </c>
       <c r="E469">
         <v>19.100000000000001</v>
@@ -11870,7 +11870,7 @@
         <v>14</v>
       </c>
       <c r="D470">
-        <v>13.9985344294738</v>
+        <v>-0.68215062286500205</v>
       </c>
       <c r="E470">
         <v>19.399999999999999</v>
@@ -11893,7 +11893,7 @@
         <v>15</v>
       </c>
       <c r="D471">
-        <v>35.432911097232498</v>
+        <v>24.203710680296801</v>
       </c>
       <c r="E471">
         <v>14.6</v>
@@ -11916,7 +11916,7 @@
         <v>16</v>
       </c>
       <c r="D472">
-        <v>50.924467932703799</v>
+        <v>35.165193931801603</v>
       </c>
       <c r="E472">
         <v>20.9</v>
@@ -11939,7 +11939,7 @@
         <v>17</v>
       </c>
       <c r="D473">
-        <v>27.0183903388841</v>
+        <v>16.2206255013737</v>
       </c>
       <c r="E473">
         <v>14</v>
@@ -11962,7 +11962,7 @@
         <v>18</v>
       </c>
       <c r="D474">
-        <v>32.750066446130901</v>
+        <v>17.8536636040795</v>
       </c>
       <c r="E474">
         <v>19.7</v>
@@ -11985,7 +11985,7 @@
         <v>19</v>
       </c>
       <c r="D475">
-        <v>35.801277789167202</v>
+        <v>26.729255269358301</v>
       </c>
       <c r="E475">
         <v>11.6</v>
@@ -12008,7 +12008,7 @@
         <v>20</v>
       </c>
       <c r="D476">
-        <v>34.639105556475798</v>
+        <v>21.756068751742699</v>
       </c>
       <c r="E476">
         <v>16.899999999999999</v>
@@ -12031,7 +12031,7 @@
         <v>21</v>
       </c>
       <c r="D477">
-        <v>67.432767982087</v>
+        <v>51.026340612046702</v>
       </c>
       <c r="E477">
         <v>21.8</v>
@@ -12054,7 +12054,7 @@
         <v>22</v>
       </c>
       <c r="D478">
-        <v>4.12048442489853</v>
+        <v>-2.1472068286454302</v>
       </c>
       <c r="E478">
         <v>7.7</v>
@@ -12077,7 +12077,7 @@
         <v>23</v>
       </c>
       <c r="D479">
-        <v>79.733279402141406</v>
+        <v>65.340218069419507</v>
       </c>
       <c r="E479">
         <v>19</v>
@@ -12100,7 +12100,7 @@
         <v>24</v>
       </c>
       <c r="D480">
-        <v>79.739105162471603</v>
+        <v>62.613618493388998</v>
       </c>
       <c r="E480">
         <v>22.8</v>
@@ -12123,7 +12123,7 @@
         <v>25</v>
       </c>
       <c r="D481">
-        <v>58.224611462831</v>
+        <v>41.961995952599104</v>
       </c>
       <c r="E481">
         <v>21.6</v>
@@ -12146,7 +12146,7 @@
         <v>26</v>
       </c>
       <c r="D482">
-        <v>69.887316188607201</v>
+        <v>52.258488010195002</v>
       </c>
       <c r="E482">
         <v>23.5</v>
@@ -12169,7 +12169,7 @@
         <v>27</v>
       </c>
       <c r="D483">
-        <v>16.300232014553899</v>
+        <v>4.8553138079054801</v>
       </c>
       <c r="E483">
         <v>14.9</v>
@@ -12192,7 +12192,7 @@
         <v>28</v>
       </c>
       <c r="D484">
-        <v>55.935890566609899</v>
+        <v>41.399017374079499</v>
       </c>
       <c r="E484">
         <v>19.2</v>
@@ -12215,7 +12215,7 @@
         <v>29</v>
       </c>
       <c r="D485">
-        <v>36.336246518744296</v>
+        <v>23.956551223340799</v>
       </c>
       <c r="E485">
         <v>16.2</v>
@@ -12238,7 +12238,7 @@
         <v>30</v>
       </c>
       <c r="D486">
-        <v>40.231074758140998</v>
+        <v>26.053731215131801</v>
       </c>
       <c r="E486">
         <v>18.7</v>
@@ -12261,7 +12261,7 @@
         <v>31</v>
       </c>
       <c r="D487">
-        <v>64.893269798314407</v>
+        <v>46.329664531147301</v>
       </c>
       <c r="E487">
         <v>24.8</v>
@@ -12284,7 +12284,7 @@
         <v>32</v>
       </c>
       <c r="D488">
-        <v>52.119746618867701</v>
+        <v>38.014309005762797</v>
       </c>
       <c r="E488">
         <v>18.600000000000001</v>
@@ -12307,7 +12307,7 @@
         <v>33</v>
       </c>
       <c r="D489">
-        <v>22.027573110493101</v>
+        <v>11.3736201327911</v>
       </c>
       <c r="E489">
         <v>13.8</v>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
       <c r="D490">
-        <v>36.643847775126503</v>
+        <v>8.1708811142536604</v>
       </c>
       <c r="E490">
         <v>21.2</v>
@@ -12353,7 +12353,7 @@
         <v>2</v>
       </c>
       <c r="D491">
-        <v>40.216873582008397</v>
+        <v>6.3787026173236203</v>
       </c>
       <c r="E491">
         <v>25.3</v>
@@ -12376,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="D492">
-        <v>30.01640629836</v>
+        <v>3.5063192608329898</v>
       </c>
       <c r="E492">
         <v>19.7</v>
@@ -12399,7 +12399,7 @@
         <v>4</v>
       </c>
       <c r="D493">
-        <v>33.058133011340999</v>
+        <v>9.6886533711673799</v>
       </c>
       <c r="E493">
         <v>17.3</v>
@@ -12422,7 +12422,7 @@
         <v>5</v>
       </c>
       <c r="D494">
-        <v>48.523331483935401</v>
+        <v>22.536679012634</v>
       </c>
       <c r="E494">
         <v>19.3</v>
@@ -12445,7 +12445,7 @@
         <v>6</v>
       </c>
       <c r="D495">
-        <v>22.0701716153674</v>
+        <v>-2.2153185157009698</v>
       </c>
       <c r="E495">
         <v>18</v>
@@ -12468,7 +12468,7 @@
         <v>7</v>
       </c>
       <c r="D496">
-        <v>50.589775923455598</v>
+        <v>23.5562543197031</v>
       </c>
       <c r="E496">
         <v>20.100000000000001</v>
@@ -12491,7 +12491,7 @@
         <v>8</v>
       </c>
       <c r="D497">
-        <v>42.022996701977902</v>
+        <v>10.147705360639</v>
       </c>
       <c r="E497">
         <v>23.8</v>
@@ -12514,7 +12514,7 @@
         <v>9</v>
       </c>
       <c r="D498">
-        <v>44.692442738981903</v>
+        <v>15.4343242287707</v>
       </c>
       <c r="E498">
         <v>21.8</v>
@@ -12537,7 +12537,7 @@
         <v>10</v>
       </c>
       <c r="D499">
-        <v>12.756914164826499</v>
+        <v>-10.350848192234301</v>
       </c>
       <c r="E499">
         <v>17.100000000000001</v>
@@ -12560,7 +12560,7 @@
         <v>11</v>
       </c>
       <c r="D500">
-        <v>32.473102065687399</v>
+        <v>0.20523479967932501</v>
       </c>
       <c r="E500">
         <v>24.1</v>
@@ -12583,7 +12583,7 @@
         <v>12</v>
       </c>
       <c r="D501">
-        <v>39.255878617877002</v>
+        <v>14.054377995914001</v>
       </c>
       <c r="E501">
         <v>18.7</v>
@@ -12606,7 +12606,7 @@
         <v>13</v>
       </c>
       <c r="D502">
-        <v>25.147286515522101</v>
+        <v>1.38523095067925</v>
       </c>
       <c r="E502">
         <v>17.600000000000001</v>
@@ -12629,7 +12629,7 @@
         <v>14</v>
       </c>
       <c r="D503">
-        <v>38.4962847437886</v>
+        <v>12.3787736309308</v>
       </c>
       <c r="E503">
         <v>19.399999999999999</v>
@@ -12652,7 +12652,7 @@
         <v>15</v>
       </c>
       <c r="D504">
-        <v>55.3669981037349</v>
+        <v>27.548324650643998</v>
       </c>
       <c r="E504">
         <v>20.7</v>
@@ -12675,7 +12675,7 @@
         <v>16</v>
       </c>
       <c r="D505">
-        <v>48.0841529118388</v>
+        <v>20.527196741860699</v>
       </c>
       <c r="E505">
         <v>20.5</v>
@@ -12698,7 +12698,7 @@
         <v>17</v>
       </c>
       <c r="D506">
-        <v>31.953545190998099</v>
+        <v>12.3789661559597</v>
       </c>
       <c r="E506">
         <v>14.4</v>
@@ -12721,7 +12721,7 @@
         <v>18</v>
       </c>
       <c r="D507">
-        <v>54.893780579974099</v>
+        <v>27.205965768439601</v>
       </c>
       <c r="E507">
         <v>20.6</v>
@@ -12744,7 +12744,7 @@
         <v>19</v>
       </c>
       <c r="D508">
-        <v>49.453775176856801</v>
+        <v>21.635101723765999</v>
       </c>
       <c r="E508">
         <v>20.7</v>
@@ -12767,7 +12767,7 @@
         <v>20</v>
       </c>
       <c r="D509">
-        <v>35.064905932260103</v>
+        <v>9.0782534609586598</v>
       </c>
       <c r="E509">
         <v>19.3</v>
@@ -12790,7 +12790,7 @@
         <v>21</v>
       </c>
       <c r="D510">
-        <v>49.733392347807502</v>
+        <v>19.035828780476098</v>
       </c>
       <c r="E510">
         <v>22.9</v>
@@ -12813,7 +12813,7 @@
         <v>22</v>
       </c>
       <c r="D511">
-        <v>55.247789140726198</v>
+        <v>27.952550253860899</v>
       </c>
       <c r="E511">
         <v>20.3</v>
@@ -12836,7 +12836,7 @@
         <v>23</v>
       </c>
       <c r="D512">
-        <v>13.962660821234801</v>
+        <v>-3.5181799489013201</v>
       </c>
       <c r="E512">
         <v>12.8</v>
@@ -12859,7 +12859,7 @@
         <v>24</v>
       </c>
       <c r="D513">
-        <v>-3.3698747843268499</v>
+        <v>-15.747228533763799</v>
       </c>
       <c r="E513">
         <v>8.9</v>
@@ -12882,7 +12882,7 @@
         <v>25</v>
       </c>
       <c r="D514">
-        <v>83.876726523439402</v>
+        <v>41.009309291363799</v>
       </c>
       <c r="E514">
         <v>32.200000000000003</v>
@@ -12905,7 +12905,7 @@
         <v>26</v>
       </c>
       <c r="D515">
-        <v>83.390523572818793</v>
+        <v>50.337504457472399</v>
       </c>
       <c r="E515">
         <v>24.7</v>
@@ -12928,7 +12928,7 @@
         <v>27</v>
       </c>
       <c r="D516">
-        <v>33.929162313496903</v>
+        <v>6.37220614351883</v>
       </c>
       <c r="E516">
         <v>20.5</v>
@@ -12951,7 +12951,7 @@
         <v>28</v>
       </c>
       <c r="D517">
-        <v>32.3441800382964</v>
+        <v>9.3672763227919091</v>
       </c>
       <c r="E517">
         <v>17</v>
@@ -12974,7 +12974,7 @@
         <v>29</v>
       </c>
       <c r="D518">
-        <v>29.520787531512401</v>
+        <v>7.1981770237899001</v>
       </c>
       <c r="E518">
         <v>16.5</v>
@@ -12997,7 +12997,7 @@
         <v>30</v>
       </c>
       <c r="D519">
-        <v>28.741103125782601</v>
+        <v>-1.95646044154882</v>
       </c>
       <c r="E519">
         <v>22.9</v>
@@ -13020,7 +13020,7 @@
         <v>31</v>
       </c>
       <c r="D520">
-        <v>9.2534040805568303</v>
+        <v>-11.498902728489</v>
       </c>
       <c r="E520">
         <v>15.3</v>
@@ -13043,7 +13043,7 @@
         <v>32</v>
       </c>
       <c r="D521">
-        <v>36.226238772614799</v>
+        <v>11.5481727168772</v>
       </c>
       <c r="E521">
         <v>18.3</v>
@@ -13066,7 +13066,7 @@
         <v>33</v>
       </c>
       <c r="D522">
-        <v>69.606842594992202</v>
+        <v>39.040137669217202</v>
       </c>
       <c r="E522">
         <v>22.8</v>
@@ -13089,7 +13089,7 @@
         <v>34</v>
       </c>
       <c r="D523">
-        <v>20.627530702516299</v>
+        <v>0.92209302592156095</v>
       </c>
       <c r="E523">
         <v>14.5</v>
@@ -13112,7 +13112,7 @@
         <v>35</v>
       </c>
       <c r="D524">
-        <v>49.0165843769527</v>
+        <v>21.067052282305401</v>
       </c>
       <c r="E524">
         <v>20.8</v>
@@ -13135,7 +13135,7 @@
         <v>36</v>
       </c>
       <c r="D525">
-        <v>63.853176978462798</v>
+        <v>30.145864655334499</v>
       </c>
       <c r="E525">
         <v>25.2</v>
@@ -13158,7 +13158,7 @@
         <v>37</v>
       </c>
       <c r="D526">
-        <v>52.859214840862201</v>
+        <v>20.4604889332977</v>
       </c>
       <c r="E526">
         <v>24.2</v>
@@ -13181,7 +13181,7 @@
         <v>38</v>
       </c>
       <c r="D527">
-        <v>50.145225563169397</v>
+        <v>21.148824336071002</v>
       </c>
       <c r="E527">
         <v>21.6</v>
@@ -13204,7 +13204,7 @@
         <v>39</v>
       </c>
       <c r="D528">
-        <v>2.68267644944885</v>
+        <v>-11.919274206446699</v>
       </c>
       <c r="E528">
         <v>10.6</v>
@@ -13227,7 +13227,7 @@
         <v>40</v>
       </c>
       <c r="D529">
-        <v>30.8431070858982</v>
+        <v>6.4267583132734396</v>
       </c>
       <c r="E529">
         <v>18.100000000000001</v>
@@ -13250,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="D530">
-        <v>-9.0334056415903401</v>
+        <v>-31.7685051062771</v>
       </c>
       <c r="E530">
         <v>15.3</v>
@@ -13273,7 +13273,7 @@
         <v>2</v>
       </c>
       <c r="D531">
-        <v>-5.9179310831558603</v>
+        <v>-34.0363855400416</v>
       </c>
       <c r="E531">
         <v>18.899999999999999</v>
@@ -13296,7 +13296,7 @@
         <v>3</v>
       </c>
       <c r="D532">
-        <v>15.5060356286388</v>
+        <v>-9.7712036934752007</v>
       </c>
       <c r="E532">
         <v>17</v>
@@ -13319,7 +13319,7 @@
         <v>4</v>
       </c>
       <c r="D533">
-        <v>-15.369326564968899</v>
+        <v>-30.926619373390299</v>
       </c>
       <c r="E533">
         <v>10.5</v>
@@ -13342,7 +13342,7 @@
         <v>5</v>
       </c>
       <c r="D534">
-        <v>17.502389364829199</v>
+        <v>-11.9619038401063</v>
       </c>
       <c r="E534">
         <v>19.8</v>
@@ -13365,7 +13365,7 @@
         <v>6</v>
       </c>
       <c r="D535">
-        <v>-11.985329367874501</v>
+        <v>-31.131525504428499</v>
       </c>
       <c r="E535">
         <v>12.9</v>
@@ -13388,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="D536">
-        <v>12.851973243480399</v>
+        <v>-8.5372874731565904</v>
       </c>
       <c r="E536">
         <v>14.4</v>
@@ -13411,7 +13411,7 @@
         <v>8</v>
       </c>
       <c r="D537">
-        <v>-1.2693990704025999</v>
+        <v>-36.266584906209303</v>
       </c>
       <c r="E537">
         <v>23.5</v>
@@ -13434,7 +13434,7 @@
         <v>9</v>
       </c>
       <c r="D538">
-        <v>14.6842832938935</v>
+        <v>-17.471687407141498</v>
       </c>
       <c r="E538">
         <v>21.6</v>
@@ -13457,7 +13457,7 @@
         <v>10</v>
       </c>
       <c r="D539">
-        <v>2.2781178187825102</v>
+        <v>-21.2046698392652</v>
       </c>
       <c r="E539">
         <v>15.8</v>
@@ -13480,7 +13480,7 @@
         <v>11</v>
       </c>
       <c r="D540">
-        <v>22.799011141642399</v>
+        <v>-11.450486500803301</v>
       </c>
       <c r="E540">
         <v>23</v>
@@ -13503,7 +13503,7 @@
         <v>12</v>
       </c>
       <c r="D541">
-        <v>9.5255765096112199</v>
+        <v>-25.172534048851102</v>
       </c>
       <c r="E541">
         <v>23.3</v>
@@ -13526,7 +13526,7 @@
         <v>13</v>
       </c>
       <c r="D542">
-        <v>0.65753575750217896</v>
+        <v>-29.703983279466499</v>
       </c>
       <c r="E542">
         <v>20.399999999999999</v>
@@ -13549,7 +13549,7 @@
         <v>14</v>
       </c>
       <c r="D543">
-        <v>28.275947673236001</v>
+        <v>-13.0018189868028</v>
       </c>
       <c r="E543">
         <v>27.7</v>
@@ -13572,7 +13572,7 @@
         <v>15</v>
       </c>
       <c r="D544">
-        <v>-2.3440503746981798</v>
+        <v>-35.247709269094102</v>
       </c>
       <c r="E544">
         <v>22.1</v>
@@ -13595,7 +13595,7 @@
         <v>16</v>
       </c>
       <c r="D545">
-        <v>11.0757514307329</v>
+        <v>-25.7158860691402</v>
       </c>
       <c r="E545">
         <v>24.7</v>
@@ -13618,7 +13618,7 @@
         <v>17</v>
       </c>
       <c r="D546">
-        <v>1.1614899758927</v>
+        <v>-26.5083515649765</v>
       </c>
       <c r="E546">
         <v>18.600000000000001</v>
@@ -13641,7 +13641,7 @@
         <v>18</v>
       </c>
       <c r="D547">
-        <v>19.320101673297</v>
+        <v>-5.2094494554560802</v>
       </c>
       <c r="E547">
         <v>16.5</v>
@@ -13664,7 +13664,7 @@
         <v>19</v>
       </c>
       <c r="D548">
-        <v>32.881366986820197</v>
+        <v>-8.3963996732186903</v>
       </c>
       <c r="E548">
         <v>27.7</v>
@@ -13687,7 +13687,7 @@
         <v>20</v>
       </c>
       <c r="D549">
-        <v>11.548534556354101</v>
+        <v>-19.560672673975599</v>
       </c>
       <c r="E549">
         <v>20.9</v>
@@ -13710,7 +13710,7 @@
         <v>21</v>
       </c>
       <c r="D550">
-        <v>-0.27498324442347999</v>
+        <v>-23.608233263799001</v>
       </c>
       <c r="E550">
         <v>15.7</v>
@@ -13733,7 +13733,7 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>11.615764346737</v>
+        <v>-14.558700807410199</v>
       </c>
       <c r="E551">
         <v>17.600000000000001</v>
@@ -13756,7 +13756,7 @@
         <v>23</v>
       </c>
       <c r="D552">
-        <v>1.81232916814748</v>
+        <v>-16.137565859028999</v>
       </c>
       <c r="E552">
         <v>12.1</v>
@@ -13779,7 +13779,7 @@
         <v>24</v>
       </c>
       <c r="D553">
-        <v>2.0101380058823501</v>
+        <v>-29.099069224447302</v>
       </c>
       <c r="E553">
         <v>20.9</v>
@@ -13802,7 +13802,7 @@
         <v>25</v>
       </c>
       <c r="D554">
-        <v>9.9792233106285906</v>
+        <v>-20.980446281028801</v>
       </c>
       <c r="E554">
         <v>20.8</v>
@@ -13825,7 +13825,7 @@
         <v>26</v>
       </c>
       <c r="D555">
-        <v>-4.8396898352992004</v>
+        <v>-41.481789696500101</v>
       </c>
       <c r="E555">
         <v>24.6</v>
@@ -13848,7 +13848,7 @@
         <v>27</v>
       </c>
       <c r="D556">
-        <v>5.3612717505431702</v>
+        <v>-25.747935479786499</v>
       </c>
       <c r="E556">
         <v>20.9</v>
@@ -13871,7 +13871,7 @@
         <v>28</v>
       </c>
       <c r="D557">
-        <v>6.6242983475716297</v>
+        <v>-28.223349849562901</v>
       </c>
       <c r="E557">
         <v>23.4</v>
@@ -13894,7 +13894,7 @@
         <v>29</v>
       </c>
       <c r="D558">
-        <v>2.5360004394112399</v>
+        <v>-23.040314160047199</v>
       </c>
       <c r="E558">
         <v>17.2</v>
@@ -13917,7 +13917,7 @@
         <v>30</v>
       </c>
       <c r="D559">
-        <v>-10.218946433830901</v>
+        <v>-35.1971104786005</v>
       </c>
       <c r="E559">
         <v>16.8</v>
@@ -13940,7 +13940,7 @@
         <v>31</v>
       </c>
       <c r="D560">
-        <v>20.375596280587398</v>
+        <v>-7.5933205376261297</v>
       </c>
       <c r="E560">
         <v>18.8</v>
@@ -13963,7 +13963,7 @@
         <v>32</v>
       </c>
       <c r="D561">
-        <v>34.124792407982703</v>
+        <v>-8.1997377227614994</v>
       </c>
       <c r="E561">
         <v>28.4</v>
@@ -13986,7 +13986,7 @@
         <v>33</v>
       </c>
       <c r="D562">
-        <v>5.3667619855303199</v>
+        <v>-22.602154832683201</v>
       </c>
       <c r="E562">
         <v>18.8</v>
@@ -14009,7 +14009,7 @@
         <v>34</v>
       </c>
       <c r="D563">
-        <v>11.968658754659799</v>
+        <v>-20.1873119463752</v>
       </c>
       <c r="E563">
         <v>21.6</v>
@@ -14032,7 +14032,7 @@
         <v>35</v>
       </c>
       <c r="D564">
-        <v>3.4678560398030802</v>
+        <v>-18.220479954178298</v>
       </c>
       <c r="E564">
         <v>14.6</v>
@@ -14055,7 +14055,7 @@
         <v>36</v>
       </c>
       <c r="D565">
-        <v>1.53055709018478</v>
+        <v>-30.176800694833599</v>
       </c>
       <c r="E565">
         <v>21.3</v>
@@ -14078,7 +14078,7 @@
         <v>37</v>
       </c>
       <c r="D566">
-        <v>13.326382049431899</v>
+        <v>-26.9046211399016</v>
       </c>
       <c r="E566">
         <v>27</v>
@@ -14101,7 +14101,7 @@
         <v>38</v>
       </c>
       <c r="D567">
-        <v>11.6441470900587</v>
+        <v>-15.726619173466</v>
       </c>
       <c r="E567">
         <v>18.399999999999999</v>
@@ -14124,7 +14124,7 @@
         <v>39</v>
       </c>
       <c r="D568">
-        <v>5.7074594363786604</v>
+        <v>-31.9814038955275</v>
       </c>
       <c r="E568">
         <v>25.3</v>
@@ -14147,7 +14147,7 @@
         <v>1</v>
       </c>
       <c r="D569">
-        <v>-17.8727200529501</v>
+        <v>-72.032484177761205</v>
       </c>
       <c r="E569">
         <v>16</v>
@@ -14170,7 +14170,7 @@
         <v>2</v>
       </c>
       <c r="D570">
-        <v>-37.940947171753102</v>
+        <v>-91.761311775458097</v>
       </c>
       <c r="E570">
         <v>15.9</v>
@@ -14193,7 +14193,7 @@
         <v>3</v>
       </c>
       <c r="D571">
-        <v>-40.127964175323399</v>
+        <v>-95.984725905664803</v>
       </c>
       <c r="E571">
         <v>16.5</v>
@@ -14216,7 +14216,7 @@
         <v>4</v>
       </c>
       <c r="D572">
-        <v>-23.5685626849166</v>
+        <v>-66.528142613227502</v>
       </c>
       <c r="E572">
         <v>12.7</v>
@@ -14239,7 +14239,7 @@
         <v>5</v>
       </c>
       <c r="D573">
-        <v>-19.671349016766801</v>
+        <v>-77.903907394850705</v>
       </c>
       <c r="E573">
         <v>17.2</v>
@@ -14262,7 +14262,7 @@
         <v>6</v>
       </c>
       <c r="D574">
-        <v>-41.208176769940202</v>
+        <v>-141.526275765176</v>
       </c>
       <c r="E574">
         <v>29.6</v>
@@ -14285,7 +14285,7 @@
         <v>7</v>
       </c>
       <c r="D575">
-        <v>-13.570717309031799</v>
+        <v>-77.233668024812602</v>
       </c>
       <c r="E575">
         <v>18.8</v>
@@ -14308,7 +14308,7 @@
         <v>8</v>
       </c>
       <c r="D576">
-        <v>-23.633244630128502</v>
+        <v>-114.787556555501</v>
       </c>
       <c r="E576">
         <v>26.9</v>
@@ -14331,7 +14331,7 @@
         <v>9</v>
       </c>
       <c r="D577">
-        <v>-36.3652260437823</v>
+        <v>-106.137368139472</v>
       </c>
       <c r="E577">
         <v>20.6</v>
@@ -14354,7 +14354,7 @@
         <v>10</v>
       </c>
       <c r="D578">
-        <v>-21.9494083196135</v>
+        <v>-85.272959514288303</v>
       </c>
       <c r="E578">
         <v>18.7</v>
@@ -14377,7 +14377,7 @@
         <v>11</v>
       </c>
       <c r="D579">
-        <v>-30.469036980282699</v>
+        <v>-103.974573808139</v>
       </c>
       <c r="E579">
         <v>21.7</v>
@@ -14400,7 +14400,7 @@
         <v>12</v>
       </c>
       <c r="D580">
-        <v>-19.6350306650892</v>
+        <v>-73.794794789900294</v>
       </c>
       <c r="E580">
         <v>16</v>
@@ -14423,7 +14423,7 @@
         <v>13</v>
       </c>
       <c r="D581">
-        <v>-27.522956872095399</v>
+        <v>-113.92567550198299</v>
       </c>
       <c r="E581">
         <v>25.5</v>
@@ -14446,7 +14446,7 @@
         <v>14</v>
       </c>
       <c r="D582">
-        <v>-38.166435846275597</v>
+        <v>-87.235207154495697</v>
       </c>
       <c r="E582">
         <v>14.5</v>
@@ -14469,7 +14469,7 @@
         <v>15</v>
       </c>
       <c r="D583">
-        <v>-18.8751247297545</v>
+        <v>-100.18685054305099</v>
       </c>
       <c r="E583">
         <v>24</v>
@@ -14492,7 +14492,7 @@
         <v>16</v>
       </c>
       <c r="D584">
-        <v>-21.983208252974901</v>
+        <v>-93.791747475301307</v>
       </c>
       <c r="E584">
         <v>21.2</v>
@@ -14515,7 +14515,7 @@
         <v>17</v>
       </c>
       <c r="D585">
-        <v>-24.567342772313399</v>
+        <v>-94.678884389109498</v>
       </c>
       <c r="E585">
         <v>20.7</v>
@@ -14538,7 +14538,7 @@
         <v>18</v>
       </c>
       <c r="D586">
-        <v>-20.405785790365101</v>
+        <v>-100.359913519237</v>
       </c>
       <c r="E586">
         <v>23.6</v>
@@ -14561,7 +14561,7 @@
         <v>19</v>
       </c>
       <c r="D587">
-        <v>-13.8733510689481</v>
+        <v>-67.014916630440993</v>
       </c>
       <c r="E587">
         <v>15.7</v>
@@ -14584,7 +14584,7 @@
         <v>20</v>
       </c>
       <c r="D588">
-        <v>-33.423993375643697</v>
+        <v>-80.456367557227395</v>
       </c>
       <c r="E588">
         <v>13.9</v>
@@ -14607,7 +14607,7 @@
         <v>21</v>
       </c>
       <c r="D589">
-        <v>-30.008311284105499</v>
+        <v>-92.653063436568203</v>
       </c>
       <c r="E589">
         <v>18.5</v>
@@ -14630,7 +14630,7 @@
         <v>22</v>
       </c>
       <c r="D590">
-        <v>-8.3483785609524599</v>
+        <v>-96.787494317476003</v>
       </c>
       <c r="E590">
         <v>26.1</v>
@@ -14653,7 +14653,7 @@
         <v>23</v>
       </c>
       <c r="D591">
-        <v>-33.335499770098501</v>
+        <v>-110.913830851228</v>
       </c>
       <c r="E591">
         <v>22.9</v>
@@ -14676,7 +14676,7 @@
         <v>24</v>
       </c>
       <c r="D592">
-        <v>-33.222364694986901</v>
+        <v>-139.64965507013201</v>
       </c>
       <c r="E592">
         <v>31.4</v>
@@ -14699,7 +14699,7 @@
         <v>25</v>
       </c>
       <c r="D593">
-        <v>-38.421863966111403</v>
+        <v>-89.187632879861795</v>
       </c>
       <c r="E593">
         <v>15</v>
@@ -14722,7 +14722,7 @@
         <v>26</v>
       </c>
       <c r="D594">
-        <v>-12.915295177683101</v>
+        <v>-82.348037752267103</v>
       </c>
       <c r="E594">
         <v>20.5</v>
@@ -14745,7 +14745,7 @@
         <v>27</v>
       </c>
       <c r="D595">
-        <v>-38.401798506925601</v>
+        <v>-158.065670205207</v>
       </c>
       <c r="E595">
         <v>35.299999999999997</v>
@@ -14768,7 +14768,7 @@
         <v>28</v>
       </c>
       <c r="D596">
-        <v>-19.4742918899308</v>
+        <v>-87.549436380090597</v>
       </c>
       <c r="E596">
         <v>20.100000000000001</v>
@@ -14791,7 +14791,7 @@
         <v>29</v>
       </c>
       <c r="D597">
-        <v>-8.9304353699250498</v>
+        <v>-91.939158788751598</v>
       </c>
       <c r="E597">
         <v>24.5</v>
@@ -14814,7 +14814,7 @@
         <v>30</v>
       </c>
       <c r="D598">
-        <v>-37.912403908917597</v>
+        <v>-119.90292876442599</v>
       </c>
       <c r="E598">
         <v>24.2</v>
@@ -14837,7 +14837,7 @@
         <v>31</v>
       </c>
       <c r="D599">
-        <v>-6.6491188737951097</v>
+        <v>-101.87622505244001</v>
       </c>
       <c r="E599">
         <v>28.1</v>
@@ -14860,7 +14860,7 @@
         <v>32</v>
       </c>
       <c r="D600">
-        <v>-24.824419592399298</v>
+        <v>-93.578363124771101</v>
       </c>
       <c r="E600">
         <v>20.3</v>
@@ -14883,7 +14883,7 @@
         <v>33</v>
       </c>
       <c r="D601">
-        <v>-37.502161960680098</v>
+        <v>-125.601878196098</v>
       </c>
       <c r="E601">
         <v>26</v>
@@ -14906,7 +14906,7 @@
         <v>34</v>
       </c>
       <c r="D602">
-        <v>-27.338686239740198</v>
+        <v>-65.546672872566305</v>
       </c>
       <c r="E602">
         <v>11.3</v>
@@ -14929,7 +14929,7 @@
         <v>35</v>
       </c>
       <c r="D603">
-        <v>-18.829787360265399</v>
+        <v>-73.668350527288695</v>
       </c>
       <c r="E603">
         <v>16.2</v>
@@ -14952,7 +14952,7 @@
         <v>36</v>
       </c>
       <c r="D604">
-        <v>-15.665026395725</v>
+        <v>-84.758369449202903</v>
       </c>
       <c r="E604">
         <v>20.399999999999999</v>
@@ -14975,7 +14975,7 @@
         <v>37</v>
       </c>
       <c r="D605">
-        <v>-24.601166563223799</v>
+        <v>-82.154925899095502</v>
       </c>
       <c r="E605">
         <v>17</v>
@@ -14998,7 +14998,7 @@
         <v>1</v>
       </c>
       <c r="D606">
-        <v>-57.443014536128203</v>
+        <v>-151.49443508453001</v>
       </c>
       <c r="E606">
         <v>21.1</v>
@@ -15021,7 +15021,7 @@
         <v>2</v>
       </c>
       <c r="D607">
-        <v>-29.403639519412</v>
+        <v>-80.151878832484698</v>
       </c>
       <c r="E607">
         <v>11.4</v>
@@ -15044,7 +15044,7 @@
         <v>3</v>
       </c>
       <c r="D608">
-        <v>-60.220527172554497</v>
+        <v>-161.41474050204101</v>
       </c>
       <c r="E608">
         <v>22.7</v>
@@ -15067,7 +15067,7 @@
         <v>4</v>
       </c>
       <c r="D609">
-        <v>-43.276644562211601</v>
+        <v>-121.25678135317099</v>
       </c>
       <c r="E609">
         <v>17.5</v>
@@ -15090,7 +15090,7 @@
         <v>5</v>
       </c>
       <c r="D610">
-        <v>-36.287075897107997</v>
+        <v>-115.16006178570299</v>
       </c>
       <c r="E610">
         <v>17.7</v>
@@ -15113,7 +15113,7 @@
         <v>6</v>
       </c>
       <c r="D611">
-        <v>-67.907457140484894</v>
+        <v>-153.47681126134799</v>
       </c>
       <c r="E611">
         <v>19.2</v>
@@ -15136,7 +15136,7 @@
         <v>7</v>
       </c>
       <c r="D612">
-        <v>-52.891842678991701</v>
+        <v>-129.08628127468</v>
       </c>
       <c r="E612">
         <v>17.100000000000001</v>
@@ -15159,7 +15159,7 @@
         <v>8</v>
       </c>
       <c r="D613">
-        <v>-38.561278364303</v>
+        <v>-89.309517677375695</v>
       </c>
       <c r="E613">
         <v>11.4</v>
@@ -15182,7 +15182,7 @@
         <v>9</v>
       </c>
       <c r="D614">
-        <v>-72.729858475054201</v>
+        <v>-175.263345450994</v>
       </c>
       <c r="E614">
         <v>23</v>
@@ -15205,7 +15205,7 @@
         <v>10</v>
       </c>
       <c r="D615">
-        <v>-60.956574431616197</v>
+        <v>-150.54374949183901</v>
       </c>
       <c r="E615">
         <v>20.100000000000001</v>
@@ -15228,7 +15228,7 @@
         <v>11</v>
       </c>
       <c r="D616">
-        <v>-50.442264345936202</v>
+        <v>-71.726483437032599</v>
       </c>
       <c r="E616">
         <v>4.8</v>
@@ -15251,7 +15251,7 @@
         <v>12</v>
       </c>
       <c r="D617">
-        <v>-79.397166983529999</v>
+        <v>-193.091267679916</v>
       </c>
       <c r="E617">
         <v>25.5</v>
@@ -15274,7 +15274,7 @@
         <v>13</v>
       </c>
       <c r="D618">
-        <v>-44.669443201300197</v>
+        <v>-118.18533450408199</v>
       </c>
       <c r="E618">
         <v>16.5</v>
@@ -15297,7 +15297,7 @@
         <v>14</v>
       </c>
       <c r="D619">
-        <v>-61.634023215831697</v>
+        <v>-155.239019215415</v>
       </c>
       <c r="E619">
         <v>21</v>
@@ -15320,7 +15320,7 @@
         <v>15</v>
       </c>
       <c r="D620">
-        <v>-88.644499842510697</v>
+        <v>-184.481618586183</v>
       </c>
       <c r="E620">
         <v>21.5</v>
@@ -15343,7 +15343,7 @@
         <v>16</v>
       </c>
       <c r="D621">
-        <v>-49.860222173720203</v>
+        <v>-115.340471597781</v>
       </c>
       <c r="E621">
         <v>14.7</v>
@@ -15366,7 +15366,7 @@
         <v>17</v>
       </c>
       <c r="D622">
-        <v>-68.657717004243494</v>
+        <v>-124.31662635431201</v>
       </c>
       <c r="E622">
         <v>12.5</v>
@@ -15389,7 +15389,7 @@
         <v>18</v>
       </c>
       <c r="D623">
-        <v>-78.684109563966103</v>
+        <v>-202.199550334344</v>
       </c>
       <c r="E623">
         <v>27.7</v>
@@ -15412,7 +15412,7 @@
         <v>19</v>
       </c>
       <c r="D624">
-        <v>-71.509149710521299</v>
+        <v>-203.506656908438</v>
       </c>
       <c r="E624">
         <v>29.6</v>
@@ -15435,7 +15435,7 @@
         <v>20</v>
       </c>
       <c r="D625">
-        <v>-73.682476741689698</v>
+        <v>-176.21596371762999</v>
       </c>
       <c r="E625">
         <v>23</v>
@@ -15458,7 +15458,7 @@
         <v>21</v>
       </c>
       <c r="D626">
-        <v>-70.236425894546301</v>
+        <v>-162.94857279649401</v>
       </c>
       <c r="E626">
         <v>20.8</v>
@@ -15481,7 +15481,7 @@
         <v>22</v>
       </c>
       <c r="D627">
-        <v>-51.336685050824798</v>
+        <v>-143.602407403955</v>
       </c>
       <c r="E627">
         <v>20.7</v>
@@ -15504,7 +15504,7 @@
         <v>23</v>
       </c>
       <c r="D628">
-        <v>-53.025803198702803</v>
+        <v>-149.309346491193</v>
       </c>
       <c r="E628">
         <v>21.6</v>
@@ -15527,7 +15527,7 @@
         <v>24</v>
       </c>
       <c r="D629">
-        <v>-45.77926447323</v>
+        <v>-128.670071301186</v>
       </c>
       <c r="E629">
         <v>18.600000000000001</v>
@@ -15550,7 +15550,7 @@
         <v>25</v>
       </c>
       <c r="D630">
-        <v>-76.731221939455097</v>
+        <v>-189.086048989387</v>
       </c>
       <c r="E630">
         <v>25.2</v>
@@ -15573,7 +15573,7 @@
         <v>26</v>
       </c>
       <c r="D631">
-        <v>-58.087831753268802</v>
+        <v>-162.85344147329801</v>
       </c>
       <c r="E631">
         <v>23.5</v>
@@ -15596,7 +15596,7 @@
         <v>27</v>
       </c>
       <c r="D632">
-        <v>-60.667025810997202</v>
+        <v>-136.41503985786801</v>
       </c>
       <c r="E632">
         <v>17</v>
@@ -15619,7 +15619,7 @@
         <v>28</v>
       </c>
       <c r="D633">
-        <v>-46.912342641468101</v>
+        <v>-138.73164044577999</v>
       </c>
       <c r="E633">
         <v>20.6</v>
@@ -15642,7 +15642,7 @@
         <v>29</v>
       </c>
       <c r="D634">
-        <v>-59.412707810376403</v>
+        <v>-149.446307419417</v>
       </c>
       <c r="E634">
         <v>20.2</v>
@@ -15665,7 +15665,7 @@
         <v>30</v>
       </c>
       <c r="D635">
-        <v>-60.993777923628102</v>
+        <v>-151.47380208148701</v>
       </c>
       <c r="E635">
         <v>20.3</v>
@@ -15688,7 +15688,7 @@
         <v>31</v>
       </c>
       <c r="D636">
-        <v>-51.166094544662897</v>
+        <v>-163.07449704577701</v>
       </c>
       <c r="E636">
         <v>25.1</v>
@@ -15711,7 +15711,7 @@
         <v>32</v>
       </c>
       <c r="D637">
-        <v>-39.178572026761898</v>
+        <v>-116.712284268904</v>
       </c>
       <c r="E637">
         <v>17.399999999999999</v>
@@ -15734,7 +15734,7 @@
         <v>33</v>
       </c>
       <c r="D638">
-        <v>-70.554606334479104</v>
+        <v>-173.53451785923701</v>
       </c>
       <c r="E638">
         <v>23.1</v>
@@ -15757,7 +15757,7 @@
         <v>34</v>
       </c>
       <c r="D639">
-        <v>-47.133066403247398</v>
+        <v>-140.291637854013</v>
       </c>
       <c r="E639">
         <v>20.9</v>
@@ -15780,7 +15780,7 @@
         <v>35</v>
       </c>
       <c r="D640">
-        <v>-50.461094959587903</v>
+        <v>-138.70899637335799</v>
       </c>
       <c r="E640">
         <v>19.8</v>
@@ -15803,7 +15803,7 @@
         <v>36</v>
       </c>
       <c r="D641">
-        <v>-70.829732358121802</v>
+        <v>-181.84528576160099</v>
       </c>
       <c r="E641">
         <v>24.9</v>
@@ -15826,7 +15826,7 @@
         <v>1</v>
       </c>
       <c r="D642">
-        <v>34.7603473245291</v>
+        <v>27.346775846280298</v>
       </c>
       <c r="E642">
         <v>20.7</v>
@@ -15849,7 +15849,7 @@
         <v>2</v>
       </c>
       <c r="D643">
-        <v>26.612253901039701</v>
+        <v>21.462350564265702</v>
       </c>
       <c r="E643">
         <v>14.5</v>
@@ -15872,7 +15872,7 @@
         <v>3</v>
       </c>
       <c r="D644">
-        <v>42.723029083609298</v>
+        <v>37.9017227351139</v>
       </c>
       <c r="E644">
         <v>13.6</v>
@@ -15895,7 +15895,7 @@
         <v>4</v>
       </c>
       <c r="D645">
-        <v>33.354428893279902</v>
+        <v>26.817116050440699</v>
       </c>
       <c r="E645">
         <v>18.3</v>
@@ -15918,7 +15918,7 @@
         <v>5</v>
       </c>
       <c r="D646">
-        <v>35.079279425602302</v>
+        <v>29.235671335795701</v>
       </c>
       <c r="E646">
         <v>16.399999999999999</v>
@@ -15941,7 +15941,7 @@
         <v>6</v>
       </c>
       <c r="D647">
-        <v>25.206607252717699</v>
+        <v>20.312279351271499</v>
       </c>
       <c r="E647">
         <v>13.8</v>
@@ -15964,7 +15964,7 @@
         <v>7</v>
       </c>
       <c r="D648">
-        <v>38.577879037342598</v>
+        <v>32.624738618109802</v>
       </c>
       <c r="E648">
         <v>16.7</v>
@@ -15987,7 +15987,7 @@
         <v>8</v>
       </c>
       <c r="D649">
-        <v>3.4362450919055898</v>
+        <v>-0.399270291753967</v>
       </c>
       <c r="E649">
         <v>10.9</v>
@@ -16010,7 +16010,7 @@
         <v>9</v>
       </c>
       <c r="D650">
-        <v>37.8016521883766</v>
+        <v>31.410382451438998</v>
       </c>
       <c r="E650">
         <v>17.899999999999999</v>
@@ -16033,7 +16033,7 @@
         <v>10</v>
       </c>
       <c r="D651">
-        <v>13.047507531780401</v>
+        <v>6.5467054654166104</v>
       </c>
       <c r="E651">
         <v>18.2</v>
@@ -16056,7 +16056,7 @@
         <v>11</v>
       </c>
       <c r="D652">
-        <v>30.540151533661099</v>
+        <v>23.929817137871101</v>
       </c>
       <c r="E652">
         <v>18.5</v>
@@ -16079,7 +16079,7 @@
         <v>12</v>
       </c>
       <c r="D653">
-        <v>49.2019559169659</v>
+        <v>42.080470650520198</v>
       </c>
       <c r="E653">
         <v>19.899999999999999</v>
@@ -16102,7 +16102,7 @@
         <v>13</v>
       </c>
       <c r="D654">
-        <v>45.871873065559903</v>
+        <v>38.056683046081702</v>
       </c>
       <c r="E654">
         <v>21.8</v>
@@ -16125,7 +16125,7 @@
         <v>14</v>
       </c>
       <c r="D655">
-        <v>33.247957174481201</v>
+        <v>26.929708990494401</v>
       </c>
       <c r="E655">
         <v>17.7</v>
@@ -16148,7 +16148,7 @@
         <v>15</v>
       </c>
       <c r="D656">
-        <v>53.605028867089999</v>
+        <v>45.899371177037999</v>
       </c>
       <c r="E656">
         <v>21.5</v>
@@ -16171,7 +16171,7 @@
         <v>16</v>
       </c>
       <c r="D657">
-        <v>10.9422616193749</v>
+        <v>5.5367828472730896</v>
       </c>
       <c r="E657">
         <v>15.2</v>
@@ -16194,7 +16194,7 @@
         <v>17</v>
       </c>
       <c r="D658">
-        <v>58.726407662542798</v>
+        <v>50.363555995933602</v>
       </c>
       <c r="E658">
         <v>23.3</v>
@@ -16217,7 +16217,7 @@
         <v>18</v>
       </c>
       <c r="D659">
-        <v>53.439796278152201</v>
+        <v>46.135757129329498</v>
       </c>
       <c r="E659">
         <v>20.399999999999999</v>
@@ -16240,7 +16240,7 @@
         <v>19</v>
       </c>
       <c r="D660">
-        <v>26.182450258646501</v>
+        <v>19.207008098102399</v>
       </c>
       <c r="E660">
         <v>19.5</v>
@@ -16263,7 +16263,7 @@
         <v>20</v>
       </c>
       <c r="D661">
-        <v>45.699780532118503</v>
+        <v>39.783150889361202</v>
       </c>
       <c r="E661">
         <v>16.600000000000001</v>
@@ -16286,7 +16286,7 @@
         <v>21</v>
       </c>
       <c r="D662">
-        <v>65.127685367535904</v>
+        <v>54.866273324205899</v>
       </c>
       <c r="E662">
         <v>28.5</v>
@@ -16309,7 +16309,7 @@
         <v>22</v>
       </c>
       <c r="D663">
-        <v>37.684784325246</v>
+        <v>29.833083529292399</v>
       </c>
       <c r="E663">
         <v>21.9</v>
@@ -16332,7 +16332,7 @@
         <v>23</v>
       </c>
       <c r="D664">
-        <v>19.960085881064899</v>
+        <v>12.3639605204391</v>
       </c>
       <c r="E664">
         <v>21.2</v>
@@ -16355,7 +16355,7 @@
         <v>24</v>
       </c>
       <c r="D665">
-        <v>-0.76876203918923502</v>
+        <v>-3.2168679167835701</v>
       </c>
       <c r="E665">
         <v>7.1</v>
@@ -16378,7 +16378,7 @@
         <v>25</v>
       </c>
       <c r="D666">
-        <v>24.637172613066401</v>
+        <v>21.057232664734599</v>
       </c>
       <c r="E666">
         <v>10.199999999999999</v>
@@ -16401,7 +16401,7 @@
         <v>26</v>
       </c>
       <c r="D667">
-        <v>25.412057376306201</v>
+        <v>18.3635936628114</v>
       </c>
       <c r="E667">
         <v>19.7</v>
@@ -16424,7 +16424,7 @@
         <v>27</v>
       </c>
       <c r="D668">
-        <v>52.666749156343997</v>
+        <v>43.865768172030002</v>
       </c>
       <c r="E668">
         <v>24.5</v>
@@ -16447,7 +16447,7 @@
         <v>28</v>
       </c>
       <c r="D669">
-        <v>43.745027924134199</v>
+        <v>36.623542657688603</v>
       </c>
       <c r="E669">
         <v>19.899999999999999</v>
@@ -16470,7 +16470,7 @@
         <v>29</v>
       </c>
       <c r="D670">
-        <v>34.021217721789597</v>
+        <v>28.688760502638701</v>
       </c>
       <c r="E670">
         <v>15</v>
@@ -16493,7 +16493,7 @@
         <v>30</v>
       </c>
       <c r="D671">
-        <v>25.137843178748401</v>
+        <v>18.271933347630601</v>
       </c>
       <c r="E671">
         <v>19.2</v>
@@ -16516,7 +16516,7 @@
         <v>31</v>
       </c>
       <c r="D672">
-        <v>22.7610488734665</v>
+        <v>16.552333018905902</v>
       </c>
       <c r="E672">
         <v>17.399999999999999</v>
@@ -16539,7 +16539,7 @@
         <v>32</v>
       </c>
       <c r="D673">
-        <v>31.5536622747445</v>
+        <v>23.994047690594101</v>
       </c>
       <c r="E673">
         <v>21.1</v>
@@ -16562,7 +16562,7 @@
         <v>33</v>
       </c>
       <c r="D674">
-        <v>39.242739241851297</v>
+        <v>33.764238916798803</v>
       </c>
       <c r="E674">
         <v>15.4</v>
@@ -16585,7 +16585,7 @@
         <v>34</v>
       </c>
       <c r="D675">
-        <v>22.937488676995699</v>
+        <v>17.422477575467699</v>
       </c>
       <c r="E675">
         <v>15.5</v>
@@ -16608,7 +16608,7 @@
         <v>35</v>
       </c>
       <c r="D676">
-        <v>26.838045414961002</v>
+        <v>19.168898501384401</v>
       </c>
       <c r="E676">
         <v>21.4</v>
@@ -16631,7 +16631,7 @@
         <v>36</v>
       </c>
       <c r="D677">
-        <v>35.118105669777002</v>
+        <v>26.280613908987601</v>
       </c>
       <c r="E677">
         <v>24.6</v>
@@ -16654,7 +16654,7 @@
         <v>37</v>
       </c>
       <c r="D678">
-        <v>60.027573017663798</v>
+        <v>49.802671750809203</v>
       </c>
       <c r="E678">
         <v>28.4</v>
@@ -16677,7 +16677,7 @@
         <v>38</v>
       </c>
       <c r="D679">
-        <v>31.778237646230998</v>
+        <v>24.109090732654401</v>
       </c>
       <c r="E679">
         <v>21.4</v>
@@ -16700,7 +16700,7 @@
         <v>39</v>
       </c>
       <c r="D680">
-        <v>42.986098312112802</v>
+        <v>36.521807022224401</v>
       </c>
       <c r="E680">
         <v>18.100000000000001</v>
@@ -16723,7 +16723,7 @@
         <v>40</v>
       </c>
       <c r="D681">
-        <v>-8.2113634873484909</v>
+        <v>-12.7405836240406</v>
       </c>
       <c r="E681">
         <v>12.8</v>
@@ -16746,7 +16746,7 @@
         <v>1</v>
       </c>
       <c r="D682">
-        <v>19.653584843607799</v>
+        <v>26.639168811105499</v>
       </c>
       <c r="E682">
         <v>15.6</v>
@@ -16769,7 +16769,7 @@
         <v>2</v>
       </c>
       <c r="D683">
-        <v>73.8346551377374</v>
+        <v>85.205767768913802</v>
       </c>
       <c r="E683">
         <v>25.6</v>
@@ -16792,7 +16792,7 @@
         <v>3</v>
       </c>
       <c r="D684">
-        <v>26.340252025505102</v>
+        <v>33.676678286097101</v>
       </c>
       <c r="E684">
         <v>16.399999999999999</v>
@@ -16815,7 +16815,7 @@
         <v>4</v>
       </c>
       <c r="D685">
-        <v>56.010758055259998</v>
+        <v>65.934646227422405</v>
       </c>
       <c r="E685">
         <v>22.3</v>
@@ -16838,7 +16838,7 @@
         <v>5</v>
       </c>
       <c r="D686">
-        <v>42.929278559522899</v>
+        <v>51.142810552850598</v>
       </c>
       <c r="E686">
         <v>18.399999999999999</v>
@@ -16861,7 +16861,7 @@
         <v>6</v>
       </c>
       <c r="D687">
-        <v>69.775105828764396</v>
+        <v>80.532244447025704</v>
       </c>
       <c r="E687">
         <v>24.2</v>
@@ -16884,7 +16884,7 @@
         <v>7</v>
       </c>
       <c r="D688">
-        <v>46.285054871960703</v>
+        <v>55.024850304929899</v>
       </c>
       <c r="E688">
         <v>19.600000000000001</v>
@@ -16907,7 +16907,7 @@
         <v>8</v>
       </c>
       <c r="D689">
-        <v>14.5973972682328</v>
+        <v>21.933823528824799</v>
       </c>
       <c r="E689">
         <v>16.399999999999999</v>
@@ -16930,7 +16930,7 @@
         <v>9</v>
       </c>
       <c r="D690">
-        <v>42.328262454153901</v>
+        <v>49.620833428109101</v>
       </c>
       <c r="E690">
         <v>16.3</v>
@@ -16953,7 +16953,7 @@
         <v>10</v>
       </c>
       <c r="D691">
-        <v>34.341090963782399</v>
+        <v>43.256307543298703</v>
       </c>
       <c r="E691">
         <v>20</v>
@@ -16976,7 +16976,7 @@
         <v>11</v>
       </c>
       <c r="D692">
-        <v>50.128792756466297</v>
+        <v>60.5789443682702</v>
       </c>
       <c r="E692">
         <v>23.5</v>
@@ -16999,7 +16999,7 @@
         <v>12</v>
       </c>
       <c r="D693">
-        <v>76.2823899706557</v>
+        <v>88.749884767751695</v>
       </c>
       <c r="E693">
         <v>28.1</v>
@@ -17022,7 +17022,7 @@
         <v>13</v>
       </c>
       <c r="D694">
-        <v>64.877726624836598</v>
+        <v>77.345221421932607</v>
       </c>
       <c r="E694">
         <v>28.1</v>
@@ -17045,7 +17045,7 @@
         <v>14</v>
       </c>
       <c r="D695">
-        <v>70.609041563332298</v>
+        <v>82.637983494060407</v>
       </c>
       <c r="E695">
         <v>27.1</v>
@@ -17068,7 +17068,7 @@
         <v>15</v>
       </c>
       <c r="D696">
-        <v>39.493232542265403</v>
+        <v>46.215684789942401</v>
       </c>
       <c r="E696">
         <v>15</v>
@@ -17091,7 +17091,7 @@
         <v>16</v>
       </c>
       <c r="D697">
-        <v>69.279581869456507</v>
+        <v>79.554312334713202</v>
       </c>
       <c r="E697">
         <v>23.1</v>
@@ -17114,7 +17114,7 @@
         <v>17</v>
       </c>
       <c r="D698">
-        <v>30.3001487754475</v>
+        <v>38.162838475680999</v>
       </c>
       <c r="E698">
         <v>17.600000000000001</v>
@@ -17137,7 +17137,7 @@
         <v>18</v>
       </c>
       <c r="D699">
-        <v>58.652827491801702</v>
+        <v>66.647083051945501</v>
       </c>
       <c r="E699">
         <v>17.899999999999999</v>
@@ -17160,7 +17160,7 @@
         <v>19</v>
       </c>
       <c r="D700">
-        <v>56.686478288660503</v>
+        <v>66.040247734544593</v>
       </c>
       <c r="E700">
         <v>21</v>
@@ -17183,7 +17183,7 @@
         <v>20</v>
       </c>
       <c r="D701">
-        <v>63.470811564575499</v>
+        <v>75.675174641850802</v>
       </c>
       <c r="E701">
         <v>27.5</v>
@@ -17206,7 +17206,7 @@
         <v>21</v>
       </c>
       <c r="D702">
-        <v>11.2093429008315</v>
+        <v>17.317821135593501</v>
       </c>
       <c r="E702">
         <v>13.6</v>
@@ -17229,7 +17229,7 @@
         <v>22</v>
       </c>
       <c r="D703">
-        <v>97.485416130931895</v>
+        <v>111.093148380584</v>
       </c>
       <c r="E703">
         <v>30.7</v>
@@ -17252,7 +17252,7 @@
         <v>23</v>
       </c>
       <c r="D704">
-        <v>44.479894552280903</v>
+        <v>53.044268838702898</v>
       </c>
       <c r="E704">
         <v>19.2</v>
@@ -17275,7 +17275,7 @@
         <v>24</v>
       </c>
       <c r="D705">
-        <v>40.063099462605102</v>
+        <v>47.838078589565001</v>
       </c>
       <c r="E705">
         <v>17.399999999999999</v>
@@ -17298,7 +17298,7 @@
         <v>25</v>
       </c>
       <c r="D706">
-        <v>46.680916091244498</v>
+        <v>57.438054709505799</v>
       </c>
       <c r="E706">
         <v>24.2</v>
@@ -17321,7 +17321,7 @@
         <v>26</v>
       </c>
       <c r="D707">
-        <v>45.058502403785198</v>
+        <v>53.315889683749802</v>
       </c>
       <c r="E707">
         <v>18.5</v>
@@ -17344,7 +17344,7 @@
         <v>27</v>
       </c>
       <c r="D708">
-        <v>81.0880036518286</v>
+        <v>92.371405709731306</v>
       </c>
       <c r="E708">
         <v>25.4</v>
@@ -17367,7 +17367,7 @@
         <v>28</v>
       </c>
       <c r="D709">
-        <v>49.141553675433798</v>
+        <v>58.1444808282236</v>
       </c>
       <c r="E709">
         <v>20.2</v>
@@ -17390,7 +17390,7 @@
         <v>29</v>
       </c>
       <c r="D710">
-        <v>47.905208927530403</v>
+        <v>57.434399519961701</v>
       </c>
       <c r="E710">
         <v>21.4</v>
@@ -17413,7 +17413,7 @@
         <v>30</v>
       </c>
       <c r="D711">
-        <v>50.905713912686998</v>
+        <v>59.820930492203303</v>
       </c>
       <c r="E711">
         <v>20</v>
@@ -17436,7 +17436,7 @@
         <v>31</v>
       </c>
       <c r="D712">
-        <v>45.683220160908597</v>
+        <v>56.089516486075603</v>
       </c>
       <c r="E712">
         <v>23.4</v>
@@ -17459,7 +17459,7 @@
         <v>32</v>
       </c>
       <c r="D713">
-        <v>39.907247154842302</v>
+        <v>48.515476727901103</v>
       </c>
       <c r="E713">
         <v>19.3</v>
@@ -17482,7 +17482,7 @@
         <v>33</v>
       </c>
       <c r="D714">
-        <v>39.710054220402498</v>
+        <v>47.265756914178397</v>
       </c>
       <c r="E714">
         <v>16.899999999999999</v>
@@ -17505,7 +17505,7 @@
         <v>34</v>
       </c>
       <c r="D715">
-        <v>47.578857327211601</v>
+        <v>57.897443079105003</v>
       </c>
       <c r="E715">
         <v>23.2</v>
@@ -17528,7 +17528,7 @@
         <v>35</v>
       </c>
       <c r="D716">
-        <v>48.193176029569102</v>
+        <v>54.4770754108782</v>
       </c>
       <c r="E716">
         <v>14</v>
@@ -17551,7 +17551,7 @@
         <v>36</v>
       </c>
       <c r="D717">
-        <v>53.213183217906497</v>
+        <v>63.970321836167798</v>
       </c>
       <c r="E717">
         <v>24.2</v>
@@ -17574,7 +17574,7 @@
         <v>37</v>
       </c>
       <c r="D718">
-        <v>41.686169750017001</v>
+        <v>51.917044928636898</v>
       </c>
       <c r="E718">
         <v>23</v>
